--- a/Jogos_da_Semana_FlashScore_2025-05-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-10.xlsx
@@ -668,10 +668,10 @@
         <v>3.4</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J3" t="n">
         <v>1.03</v>
@@ -808,7 +808,7 @@
         <v>2.25</v>
       </c>
       <c r="T3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U3" t="n">
         <v>34</v>
@@ -817,7 +817,7 @@
         <v>19</v>
       </c>
       <c r="W3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X3" t="n">
         <v>41</v>
@@ -850,7 +850,7 @@
         <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -912,10 +912,10 @@
         <v>7</v>
       </c>
       <c r="N4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P4" t="n">
         <v>1.18</v>
@@ -930,7 +930,7 @@
         <v>1.91</v>
       </c>
       <c r="T4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="U4" t="n">
         <v>67</v>
@@ -939,13 +939,13 @@
         <v>34</v>
       </c>
       <c r="W4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="X4" t="n">
         <v>81</v>
       </c>
       <c r="Y4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z4" t="n">
         <v>23</v>
@@ -1269,7 +1269,7 @@
         <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -1314,7 +1314,7 @@
         <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
         <v>7</v>
@@ -1379,46 +1379,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K8" t="n">
+        <v>12</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T8" t="n">
         <v>11</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T8" t="n">
-        <v>10</v>
       </c>
       <c r="U8" t="n">
         <v>15</v>
@@ -1436,13 +1436,13 @@
         <v>29</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
         <v>6.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
         <v>41</v>
@@ -1451,7 +1451,7 @@
         <v>151</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF8" t="n">
         <v>12</v>
@@ -1516,16 +1516,16 @@
         <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P9" t="n">
         <v>1.33</v>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H10" t="n">
         <v>4.5</v>
@@ -1650,16 +1650,16 @@
         <v>2.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
         <v>19</v>
@@ -1695,10 +1695,10 @@
         <v>151</v>
       </c>
       <c r="AE10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF10" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>8</v>
       </c>
       <c r="AG10" t="n">
         <v>8.5</v>
@@ -1757,13 +1757,13 @@
         <v>1.01</v>
       </c>
       <c r="K11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L11" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="M11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N11" t="n">
         <v>1.4</v>
@@ -1870,7 +1870,7 @@
         <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I12" t="n">
         <v>1.3</v>
@@ -1882,7 +1882,7 @@
         <v>26</v>
       </c>
       <c r="L12" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="M12" t="n">
         <v>8</v>
@@ -1930,7 +1930,7 @@
         <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
         <v>41</v>
@@ -1989,37 +1989,37 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K13" t="n">
         <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M13" t="n">
         <v>4.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O13" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R13" t="n">
         <v>1.57</v>
@@ -2031,7 +2031,7 @@
         <v>10</v>
       </c>
       <c r="U13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V13" t="n">
         <v>9</v>
@@ -2049,7 +2049,7 @@
         <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB13" t="n">
         <v>12</v>
@@ -2070,7 +2070,7 @@
         <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI13" t="n">
         <v>23</v>
@@ -2120,13 +2120,13 @@
         <v>1.95</v>
       </c>
       <c r="J14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
         <v>13</v>
       </c>
       <c r="L14" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M14" t="n">
         <v>4.33</v>
@@ -2242,13 +2242,13 @@
         <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K15" t="n">
         <v>13</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
@@ -2367,10 +2367,10 @@
         <v>1.03</v>
       </c>
       <c r="K16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M16" t="n">
         <v>4.5</v>
@@ -2876,13 +2876,13 @@
         <v>6.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S20" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U20" t="n">
         <v>12</v>
@@ -2891,7 +2891,7 @@
         <v>12</v>
       </c>
       <c r="W20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X20" t="n">
         <v>10</v>
@@ -2912,7 +2912,7 @@
         <v>41</v>
       </c>
       <c r="AD20" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE20" t="n">
         <v>41</v>
@@ -2971,7 +2971,7 @@
         <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J21" t="n">
         <v>1.05</v>
@@ -2986,10 +2986,10 @@
         <v>3.75</v>
       </c>
       <c r="N21" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="O21" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P21" t="n">
         <v>1.36</v>
@@ -2998,10 +2998,10 @@
         <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S21" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -3034,7 +3034,7 @@
         <v>51</v>
       </c>
       <c r="AD21" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE21" t="n">
         <v>12</v>
@@ -3049,7 +3049,7 @@
         <v>51</v>
       </c>
       <c r="AI21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ21" t="n">
         <v>41</v>
@@ -3096,16 +3096,16 @@
         <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N22" t="n">
         <v>2.2</v>
@@ -3168,7 +3168,7 @@
         <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI22" t="n">
         <v>26</v>
@@ -3230,10 +3230,10 @@
         <v>3.5</v>
       </c>
       <c r="N23" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="O23" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
@@ -3462,10 +3462,10 @@
         <v>3.9</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L25" t="n">
         <v>1.25</v>
@@ -3700,46 +3700,46 @@
         <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M27" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="N27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S27" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T27" t="n">
         <v>5.5</v>
       </c>
       <c r="U27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V27" t="n">
         <v>9.5</v>
@@ -3760,22 +3760,22 @@
         <v>6</v>
       </c>
       <c r="AB27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="n">
         <v>501</v>
       </c>
       <c r="AE27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF27" t="n">
         <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH27" t="n">
         <v>51</v>
@@ -3834,16 +3834,16 @@
         <v>10</v>
       </c>
       <c r="L28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N28" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="O28" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="P28" t="n">
         <v>1.4</v>
@@ -4084,10 +4084,10 @@
         <v>3.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="O30" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="P30" t="n">
         <v>1.36</v>
@@ -4189,7 +4189,7 @@
         <v>3.7</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J31" t="n">
         <v>1.06</v>
@@ -4326,10 +4326,10 @@
         <v>2.1</v>
       </c>
       <c r="N32" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P32" t="n">
         <v>1.67</v>
@@ -4425,19 +4425,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H33" t="n">
         <v>2.88</v>
       </c>
       <c r="I33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L33" t="n">
         <v>1.53</v>
@@ -4467,10 +4467,10 @@
         <v>6</v>
       </c>
       <c r="U33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V33" t="n">
         <v>10</v>
-      </c>
-      <c r="V33" t="n">
-        <v>11</v>
       </c>
       <c r="W33" t="n">
         <v>23</v>
@@ -4674,13 +4674,13 @@
         <v>3.7</v>
       </c>
       <c r="J35" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K35" t="n">
         <v>8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M35" t="n">
         <v>2.5</v>
@@ -4794,13 +4794,13 @@
         <v>3.6</v>
       </c>
       <c r="J36" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="M36" t="n">
         <v>2.1</v>
@@ -4914,13 +4914,13 @@
         <v>4.1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K37" t="n">
         <v>5.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="M37" t="n">
         <v>2.2</v>
@@ -5034,13 +5034,13 @@
         <v>6</v>
       </c>
       <c r="J38" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="K38" t="n">
         <v>5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="M38" t="n">
         <v>2.1</v>
@@ -5154,13 +5154,13 @@
         <v>2.8</v>
       </c>
       <c r="J39" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="K39" t="n">
         <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
@@ -5274,13 +5274,13 @@
         <v>3.9</v>
       </c>
       <c r="J40" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K40" t="n">
         <v>5.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="M40" t="n">
         <v>2.2</v>
@@ -5507,22 +5507,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H42" t="n">
         <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J42" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K42" t="n">
         <v>11</v>
       </c>
       <c r="L42" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M42" t="n">
         <v>3.75</v>
@@ -5549,10 +5549,10 @@
         <v>9</v>
       </c>
       <c r="U42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W42" t="n">
         <v>23</v>
@@ -5561,10 +5561,10 @@
         <v>19</v>
       </c>
       <c r="Y42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA42" t="n">
         <v>6</v>
@@ -5576,7 +5576,7 @@
         <v>41</v>
       </c>
       <c r="AD42" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE42" t="n">
         <v>10</v>
@@ -5591,7 +5591,7 @@
         <v>29</v>
       </c>
       <c r="AI42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ42" t="n">
         <v>29</v>
@@ -5638,13 +5638,13 @@
         <v>4.2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L43" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M43" t="n">
         <v>3.25</v>
@@ -5760,13 +5760,13 @@
         <v>4.33</v>
       </c>
       <c r="J44" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K44" t="n">
         <v>13</v>
       </c>
       <c r="L44" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
@@ -6117,10 +6117,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H47" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I47" t="n">
         <v>1.65</v>
@@ -6152,43 +6152,43 @@
         <v>1.65</v>
       </c>
       <c r="T47" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="U47" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V47" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="W47" t="n">
         <v>100</v>
       </c>
       <c r="X47" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y47" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Z47" t="n">
         <v>8.25</v>
       </c>
       <c r="AA47" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB47" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC47" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD47" t="n">
         <v>900</v>
       </c>
       <c r="AE47" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AF47" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AG47" t="n">
         <v>8.25</v>
@@ -6197,7 +6197,7 @@
         <v>12.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ47" t="n">
         <v>32</v>
@@ -6235,10 +6235,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="H48" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I48" t="n">
         <v>3.2</v>
@@ -6246,79 +6246,79 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="M48" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N48" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O48" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="P48" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="R48" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="S48" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="T48" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="U48" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="V48" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="W48" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="X48" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Z48" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="AA48" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB48" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AD48" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="AE48" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF48" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH48" t="n">
         <v>40</v>
       </c>
       <c r="AI48" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AJ48" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
@@ -6548,13 +6548,13 @@
         <v>1.57</v>
       </c>
       <c r="J52" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L52" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M52" t="n">
         <v>4.5</v>
@@ -6661,31 +6661,31 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
         <v>3.6</v>
       </c>
       <c r="I53" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J53" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K53" t="n">
         <v>13</v>
       </c>
       <c r="L53" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O53" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P53" t="n">
         <v>1.33</v>
@@ -6724,7 +6724,7 @@
         <v>7</v>
       </c>
       <c r="AB53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC53" t="n">
         <v>41</v>
@@ -6736,7 +6736,7 @@
         <v>9.5</v>
       </c>
       <c r="AF53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG53" t="n">
         <v>9</v>
@@ -6783,22 +6783,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H54" t="n">
         <v>3.3</v>
       </c>
       <c r="I54" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L54" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M54" t="n">
         <v>3.4</v>
@@ -6807,7 +6807,7 @@
         <v>2.05</v>
       </c>
       <c r="O54" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P54" t="n">
         <v>1.4</v>
@@ -6831,7 +6831,7 @@
         <v>12</v>
       </c>
       <c r="W54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X54" t="n">
         <v>29</v>
@@ -6864,10 +6864,10 @@
         <v>9</v>
       </c>
       <c r="AH54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ54" t="n">
         <v>29</v>
@@ -6905,55 +6905,55 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H55" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I55" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J55" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K55" t="n">
         <v>13</v>
       </c>
       <c r="L55" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O55" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P55" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q55" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R55" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S55" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T55" t="n">
         <v>8</v>
       </c>
       <c r="U55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V55" t="n">
         <v>8.5</v>
       </c>
       <c r="W55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X55" t="n">
         <v>13</v>
@@ -6965,22 +6965,22 @@
         <v>13</v>
       </c>
       <c r="AA55" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB55" t="n">
         <v>15</v>
       </c>
       <c r="AC55" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD55" t="n">
         <v>201</v>
       </c>
       <c r="AE55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF55" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG55" t="n">
         <v>15</v>
@@ -6992,7 +6992,7 @@
         <v>34</v>
       </c>
       <c r="AJ55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56">
@@ -7039,7 +7039,7 @@
         <v>1.04</v>
       </c>
       <c r="K56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L56" t="n">
         <v>1.25</v>
@@ -7060,10 +7060,10 @@
         <v>3.25</v>
       </c>
       <c r="R56" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S56" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -7182,7 +7182,7 @@
         <v>3.75</v>
       </c>
       <c r="R57" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S57" t="n">
         <v>2.25</v>
@@ -7292,10 +7292,10 @@
         <v>3.75</v>
       </c>
       <c r="N58" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O58" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="P58" t="n">
         <v>1.36</v>
@@ -7304,7 +7304,7 @@
         <v>3</v>
       </c>
       <c r="R58" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S58" t="n">
         <v>2</v>
@@ -7399,59 +7399,59 @@
         <v>6.1</v>
       </c>
       <c r="I59" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M59" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="N59" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O59" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S59" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="T59" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="V59" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="W59" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X59" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z59" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA59" t="n">
         <v>14</v>
       </c>
       <c r="AB59" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC59" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AD59" t="n">
         <v>900</v>
@@ -7463,16 +7463,16 @@
         <v>150</v>
       </c>
       <c r="AG59" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AH59" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AI59" t="n">
         <v>350</v>
       </c>
       <c r="AJ59" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60">
@@ -7746,28 +7746,28 @@
         <v>5.75</v>
       </c>
       <c r="J62" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K62" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L62" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M62" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N62" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O62" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P62" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R62" t="n">
         <v>2.05</v>
@@ -7880,16 +7880,16 @@
         <v>3.2</v>
       </c>
       <c r="N63" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O63" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P63" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R63" t="n">
         <v>1.91</v>
@@ -8002,10 +8002,10 @@
         <v>3.2</v>
       </c>
       <c r="N64" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O64" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P64" t="n">
         <v>1.44</v>
@@ -8246,10 +8246,10 @@
         <v>3.75</v>
       </c>
       <c r="N66" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="O66" t="n">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="P66" t="n">
         <v>1.36</v>
@@ -8347,13 +8347,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H67" t="n">
         <v>3.3</v>
       </c>
       <c r="I67" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="J67" t="n">
         <v>1.08</v>
@@ -8386,19 +8386,19 @@
         <v>1.75</v>
       </c>
       <c r="T67" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U67" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="V67" t="n">
         <v>8.75</v>
       </c>
       <c r="W67" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X67" t="n">
         <v>17</v>
-      </c>
-      <c r="X67" t="n">
-        <v>17.5</v>
       </c>
       <c r="Y67" t="n">
         <v>32</v>
@@ -8407,22 +8407,22 @@
         <v>6.4</v>
       </c>
       <c r="AA67" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB67" t="n">
         <v>17</v>
       </c>
       <c r="AC67" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD67" t="n">
         <v>900</v>
       </c>
       <c r="AE67" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF67" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG67" t="n">
         <v>13</v>
@@ -8431,7 +8431,7 @@
         <v>55</v>
       </c>
       <c r="AI67" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ67" t="n">
         <v>50</v>
@@ -8848,10 +8848,10 @@
         <v>10</v>
       </c>
       <c r="L71" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M71" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N71" t="n">
         <v>2.05</v>
@@ -9089,7 +9089,7 @@
         <v>1.07</v>
       </c>
       <c r="K73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L73" t="n">
         <v>1.36</v>
@@ -9098,10 +9098,10 @@
         <v>3</v>
       </c>
       <c r="N73" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O73" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P73" t="n">
         <v>1.44</v>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>5.5</v>
@@ -9687,34 +9687,34 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H78" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="J78" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K78" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L78" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M78" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N78" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O78" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="P78" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q78" t="n">
         <v>3.75</v>
@@ -9738,16 +9738,16 @@
         <v>81</v>
       </c>
       <c r="X78" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y78" t="n">
         <v>41</v>
       </c>
       <c r="Z78" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA78" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB78" t="n">
         <v>17</v>
@@ -9809,7 +9809,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="H79" t="n">
         <v>4.2</v>
@@ -9836,7 +9836,7 @@
         <v>2.88</v>
       </c>
       <c r="P79" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="Q79" t="n">
         <v>4</v>
@@ -9931,7 +9931,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H80" t="n">
         <v>6.5</v>
@@ -9958,7 +9958,7 @@
         <v>2.7</v>
       </c>
       <c r="P80" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q80" t="n">
         <v>3.75</v>
@@ -10552,7 +10552,7 @@
         <v>1.36</v>
       </c>
       <c r="P85" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Q85" t="n">
         <v>2.2</v>
@@ -10672,7 +10672,7 @@
         <v>1.53</v>
       </c>
       <c r="P86" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q86" t="n">
         <v>2.5</v>
@@ -10794,10 +10794,10 @@
         <v>1.65</v>
       </c>
       <c r="P87" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R87" t="n">
         <v>2.5</v>
@@ -10892,10 +10892,10 @@
         <v>3.9</v>
       </c>
       <c r="H88" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I88" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -10903,21 +10903,21 @@
         <v>1.21</v>
       </c>
       <c r="M88" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="N88" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O88" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S88" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="T88" t="n">
         <v>14</v>
@@ -10941,10 +10941,10 @@
         <v>12</v>
       </c>
       <c r="AA88" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB88" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC88" t="n">
         <v>45</v>
@@ -10956,13 +10956,13 @@
         <v>8.5</v>
       </c>
       <c r="AF88" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG88" t="n">
         <v>8</v>
       </c>
       <c r="AH88" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI88" t="n">
         <v>13.5</v>
@@ -11121,10 +11121,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H90" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I90" t="n">
         <v>3.95</v>
@@ -11147,16 +11147,16 @@
         <v>1.44</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R90" t="n">
         <v>1.82</v>
       </c>
       <c r="S90" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T90" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U90" t="n">
         <v>8.5</v>
@@ -11165,43 +11165,43 @@
         <v>8.5</v>
       </c>
       <c r="W90" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X90" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y90" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z90" t="n">
         <v>8.75</v>
       </c>
       <c r="AA90" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB90" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC90" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD90" t="n">
         <v>700</v>
       </c>
       <c r="AE90" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF90" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG90" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH90" t="n">
         <v>60</v>
       </c>
       <c r="AI90" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ90" t="n">
         <v>45</v>
@@ -11248,16 +11248,16 @@
         <v>1.6</v>
       </c>
       <c r="J91" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K91" t="n">
         <v>8</v>
       </c>
       <c r="L91" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M91" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N91" t="n">
         <v>2.35</v>
@@ -11368,22 +11368,22 @@
         <v>11</v>
       </c>
       <c r="J92" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K92" t="n">
         <v>19</v>
       </c>
       <c r="L92" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M92" t="n">
         <v>5.5</v>
       </c>
       <c r="N92" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O92" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P92" t="n">
         <v>1.25</v>
@@ -11481,22 +11481,22 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H93" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J93" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K93" t="n">
         <v>8</v>
       </c>
       <c r="L93" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M93" t="n">
         <v>2.75</v>
@@ -11514,19 +11514,19 @@
         <v>2.5</v>
       </c>
       <c r="R93" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S93" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T93" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U93" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V93" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W93" t="n">
         <v>41</v>
@@ -11541,7 +11541,7 @@
         <v>8</v>
       </c>
       <c r="AA93" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB93" t="n">
         <v>19</v>
@@ -11551,16 +11551,16 @@
       </c>
       <c r="AD93" t="inlineStr"/>
       <c r="AE93" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF93" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG93" t="n">
         <v>9.5</v>
       </c>
       <c r="AH93" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI93" t="n">
         <v>19</v>
@@ -11601,22 +11601,22 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="H94" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I94" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="J94" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K94" t="n">
         <v>8.5</v>
       </c>
       <c r="L94" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
@@ -11634,25 +11634,25 @@
         <v>2.63</v>
       </c>
       <c r="R94" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S94" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T94" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="U94" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V94" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W94" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="X94" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y94" t="n">
         <v>34</v>
@@ -11671,22 +11671,22 @@
       </c>
       <c r="AD94" t="inlineStr"/>
       <c r="AE94" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF94" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH94" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AI94" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ94" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95">
@@ -11792,10 +11792,10 @@
         <v>3.1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K96" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L96" t="n">
         <v>1.25</v>
@@ -11804,10 +11804,10 @@
         <v>3.75</v>
       </c>
       <c r="N96" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O96" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P96" t="n">
         <v>1.36</v>
@@ -11917,7 +11917,7 @@
         <v>1.04</v>
       </c>
       <c r="K97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L97" t="n">
         <v>1.25</v>
@@ -12027,7 +12027,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H98" t="n">
         <v>4.2</v>
@@ -12066,7 +12066,7 @@
         <v>1.7</v>
       </c>
       <c r="T98" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U98" t="n">
         <v>6.5</v>
@@ -12099,7 +12099,7 @@
         <v>451</v>
       </c>
       <c r="AE98" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF98" t="n">
         <v>34</v>
@@ -12149,31 +12149,31 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H99" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I99" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J99" t="n">
         <v>1.04</v>
       </c>
       <c r="K99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L99" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M99" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N99" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="O99" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="P99" t="n">
         <v>1.36</v>
@@ -12197,7 +12197,7 @@
         <v>8.5</v>
       </c>
       <c r="W99" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X99" t="n">
         <v>13</v>
@@ -12209,7 +12209,7 @@
         <v>12</v>
       </c>
       <c r="AA99" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB99" t="n">
         <v>19</v>
@@ -12218,13 +12218,13 @@
         <v>51</v>
       </c>
       <c r="AD99" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE99" t="n">
         <v>12</v>
       </c>
       <c r="AF99" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG99" t="n">
         <v>15</v>
@@ -12271,19 +12271,19 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H100" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I100" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J100" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K100" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L100" t="n">
         <v>1.29</v>
@@ -12292,10 +12292,10 @@
         <v>3.5</v>
       </c>
       <c r="N100" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="O100" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="P100" t="n">
         <v>1.36</v>
@@ -12340,7 +12340,7 @@
         <v>51</v>
       </c>
       <c r="AD100" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE100" t="n">
         <v>6.5</v>
@@ -13132,10 +13132,10 @@
         <v>2.75</v>
       </c>
       <c r="J107" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K107" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L107" t="n">
         <v>1.5</v>
@@ -13254,10 +13254,10 @@
         <v>3.3</v>
       </c>
       <c r="J108" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L108" t="n">
         <v>1.36</v>
@@ -13367,13 +13367,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="H109" t="n">
         <v>3.5</v>
       </c>
       <c r="I109" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -13383,7 +13383,7 @@
         <v>1.57</v>
       </c>
       <c r="O109" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
@@ -13393,19 +13393,19 @@
         <v>8.5</v>
       </c>
       <c r="U109" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V109" t="n">
         <v>7.5</v>
       </c>
       <c r="W109" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X109" t="n">
         <v>12.5</v>
       </c>
       <c r="Y109" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z109" t="n">
         <v>14</v>
@@ -13432,13 +13432,13 @@
         <v>9</v>
       </c>
       <c r="AH109" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI109" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ109" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110">
@@ -13538,7 +13538,7 @@
         <v>1.3</v>
       </c>
       <c r="H111" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I111" t="n">
         <v>8</v>
@@ -13547,40 +13547,40 @@
         <v>1.02</v>
       </c>
       <c r="K111" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L111" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="M111" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N111" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O111" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P111" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q111" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R111" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S111" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T111" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U111" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V111" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W111" t="n">
         <v>8.5</v>
@@ -13589,22 +13589,22 @@
         <v>11</v>
       </c>
       <c r="Y111" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z111" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA111" t="n">
         <v>11</v>
       </c>
       <c r="AB111" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC111" t="n">
         <v>67</v>
       </c>
       <c r="AD111" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AE111" t="n">
         <v>21</v>
@@ -13666,13 +13666,13 @@
         <v>1.4</v>
       </c>
       <c r="J112" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K112" t="n">
         <v>13</v>
       </c>
       <c r="L112" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M112" t="n">
         <v>4.33</v>
@@ -13788,13 +13788,13 @@
         <v>2.6</v>
       </c>
       <c r="J113" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K113" t="n">
         <v>11</v>
       </c>
       <c r="L113" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M113" t="n">
         <v>3.75</v>
@@ -13901,13 +13901,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H114" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I114" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -13922,10 +13922,10 @@
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S114" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="T114" t="n">
         <v>11</v>
@@ -13934,25 +13934,25 @@
         <v>10.75</v>
       </c>
       <c r="V114" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W114" t="n">
         <v>15</v>
       </c>
       <c r="X114" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y114" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z114" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA114" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB114" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC114" t="n">
         <v>37</v>
@@ -13961,19 +13961,19 @@
         <v>200</v>
       </c>
       <c r="AE114" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF114" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI114" t="n">
         <v>29</v>
-      </c>
-      <c r="AG114" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH114" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI114" t="n">
-        <v>32</v>
       </c>
       <c r="AJ114" t="n">
         <v>28</v>
@@ -14121,19 +14121,19 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H116" t="n">
         <v>3.25</v>
       </c>
       <c r="I116" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J116" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L116" t="n">
         <v>1.29</v>
@@ -14142,16 +14142,16 @@
         <v>3.5</v>
       </c>
       <c r="N116" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O116" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P116" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q116" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R116" t="n">
         <v>1.73</v>
@@ -14160,10 +14160,10 @@
         <v>2</v>
       </c>
       <c r="T116" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U116" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V116" t="n">
         <v>9</v>
@@ -14172,7 +14172,7 @@
         <v>17</v>
       </c>
       <c r="X116" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y116" t="n">
         <v>26</v>
@@ -14181,7 +14181,7 @@
         <v>10</v>
       </c>
       <c r="AA116" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB116" t="n">
         <v>13</v>
@@ -14196,7 +14196,7 @@
         <v>12</v>
       </c>
       <c r="AF116" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG116" t="n">
         <v>13</v>
@@ -14205,10 +14205,10 @@
         <v>41</v>
       </c>
       <c r="AI116" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ116" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ116" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="117">
@@ -14243,19 +14243,19 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H117" t="n">
         <v>4.33</v>
       </c>
       <c r="I117" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J117" t="n">
         <v>1.03</v>
       </c>
       <c r="K117" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L117" t="n">
         <v>1.18</v>
@@ -14309,22 +14309,22 @@
         <v>17</v>
       </c>
       <c r="AC117" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD117" t="n">
         <v>201</v>
       </c>
       <c r="AE117" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF117" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG117" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH117" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI117" t="n">
         <v>41</v>
@@ -14368,7 +14368,7 @@
         <v>2.1</v>
       </c>
       <c r="H118" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I118" t="n">
         <v>3</v>
@@ -14377,7 +14377,7 @@
         <v>1.03</v>
       </c>
       <c r="K118" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L118" t="n">
         <v>1.18</v>
@@ -14386,10 +14386,10 @@
         <v>4.5</v>
       </c>
       <c r="N118" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O118" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P118" t="n">
         <v>1.29</v>
@@ -14398,13 +14398,13 @@
         <v>3.5</v>
       </c>
       <c r="R118" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S118" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T118" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U118" t="n">
         <v>12</v>
@@ -14422,16 +14422,16 @@
         <v>21</v>
       </c>
       <c r="Z118" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA118" t="n">
         <v>7.5</v>
       </c>
       <c r="AB118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC118" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD118" t="n">
         <v>126</v>
@@ -14440,7 +14440,7 @@
         <v>13</v>
       </c>
       <c r="AF118" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG118" t="n">
         <v>11</v>
@@ -14452,7 +14452,7 @@
         <v>21</v>
       </c>
       <c r="AJ118" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
@@ -14487,13 +14487,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H119" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I119" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J119" t="n">
         <v>1.02</v>
@@ -14502,10 +14502,10 @@
         <v>19</v>
       </c>
       <c r="L119" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M119" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N119" t="n">
         <v>1.48</v>
@@ -14514,10 +14514,10 @@
         <v>2.6</v>
       </c>
       <c r="P119" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q119" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R119" t="n">
         <v>1.57</v>
@@ -14547,7 +14547,7 @@
         <v>19</v>
       </c>
       <c r="AA119" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB119" t="n">
         <v>13</v>
@@ -14609,7 +14609,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H120" t="n">
         <v>4.2</v>
@@ -14648,16 +14648,16 @@
         <v>1.73</v>
       </c>
       <c r="T120" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U120" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V120" t="n">
         <v>8.5</v>
       </c>
       <c r="W120" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X120" t="n">
         <v>13</v>
@@ -14669,19 +14669,19 @@
         <v>11</v>
       </c>
       <c r="AA120" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB120" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC120" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD120" t="n">
         <v>351</v>
       </c>
       <c r="AE120" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF120" t="n">
         <v>34</v>
@@ -14690,7 +14690,7 @@
         <v>21</v>
       </c>
       <c r="AH120" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI120" t="n">
         <v>51</v>
@@ -15282,7 +15282,7 @@
         <v>9</v>
       </c>
       <c r="AB125" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC125" t="n">
         <v>34</v>
@@ -15380,7 +15380,7 @@
         <v>2.1</v>
       </c>
       <c r="T126" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U126" t="n">
         <v>8.5</v>
@@ -15398,13 +15398,13 @@
         <v>21</v>
       </c>
       <c r="Z126" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA126" t="n">
         <v>9.5</v>
       </c>
       <c r="AB126" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC126" t="n">
         <v>41</v>
@@ -15413,7 +15413,7 @@
         <v>151</v>
       </c>
       <c r="AE126" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF126" t="n">
         <v>29</v>
@@ -15463,13 +15463,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H127" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I127" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J127" t="n">
         <v>1.02</v>
@@ -15478,22 +15478,22 @@
         <v>19</v>
       </c>
       <c r="L127" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M127" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N127" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O127" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P127" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q127" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R127" t="n">
         <v>1.44</v>
@@ -15511,16 +15511,16 @@
         <v>9</v>
       </c>
       <c r="W127" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X127" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y127" t="n">
         <v>19</v>
       </c>
       <c r="Z127" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA127" t="n">
         <v>8</v>
@@ -15535,7 +15535,7 @@
         <v>81</v>
       </c>
       <c r="AE127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF127" t="n">
         <v>21</v>
@@ -15544,10 +15544,10 @@
         <v>12</v>
       </c>
       <c r="AH127" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI127" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ127" t="n">
         <v>23</v>
@@ -15585,7 +15585,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H128" t="n">
         <v>5</v>
@@ -15597,19 +15597,19 @@
         <v>1.02</v>
       </c>
       <c r="K128" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L128" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M128" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N128" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O128" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="P128" t="n">
         <v>1.25</v>
@@ -15618,10 +15618,10 @@
         <v>3.75</v>
       </c>
       <c r="R128" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S128" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T128" t="n">
         <v>9.5</v>
@@ -15663,7 +15663,7 @@
         <v>41</v>
       </c>
       <c r="AG128" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH128" t="n">
         <v>67</v>
@@ -16332,16 +16332,16 @@
         <v>17</v>
       </c>
       <c r="L134" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M134" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N134" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O134" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P134" t="n">
         <v>1.29</v>
@@ -16561,13 +16561,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H136" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I136" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J136" t="n">
         <v>1.08</v>
@@ -16618,10 +16618,10 @@
         <v>34</v>
       </c>
       <c r="Z136" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA136" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB136" t="n">
         <v>17</v>
@@ -16692,16 +16692,16 @@
         <v>1.85</v>
       </c>
       <c r="J137" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="K137" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="L137" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="M137" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="N137" t="n">
         <v>2.35</v>
@@ -16710,16 +16710,16 @@
         <v>1.57</v>
       </c>
       <c r="P137" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R137" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S137" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="T137" t="n">
         <v>10</v>
@@ -16826,10 +16826,10 @@
         <v>3.25</v>
       </c>
       <c r="N138" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O138" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P138" t="n">
         <v>1.44</v>
@@ -16936,22 +16936,22 @@
         <v>4.2</v>
       </c>
       <c r="J139" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K139" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L139" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M139" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N139" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O139" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P139" t="n">
         <v>1.4</v>
@@ -17124,7 +17124,7 @@
         <v>13</v>
       </c>
       <c r="AF140" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG140" t="n">
         <v>13</v>
@@ -17171,22 +17171,22 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H141" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I141" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J141" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K141" t="n">
         <v>13</v>
       </c>
       <c r="L141" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M141" t="n">
         <v>4</v>
@@ -17216,7 +17216,7 @@
         <v>10</v>
       </c>
       <c r="V141" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W141" t="n">
         <v>17</v>
@@ -17249,16 +17249,16 @@
         <v>19</v>
       </c>
       <c r="AG141" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH141" t="n">
         <v>41</v>
       </c>
       <c r="AI141" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ141" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ141" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="142">
@@ -17302,16 +17302,16 @@
         <v>1.7</v>
       </c>
       <c r="J142" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K142" t="n">
         <v>17</v>
       </c>
       <c r="L142" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M142" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N142" t="n">
         <v>1.53</v>
@@ -17341,7 +17341,7 @@
         <v>15</v>
       </c>
       <c r="W142" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X142" t="n">
         <v>29</v>
@@ -17540,10 +17540,10 @@
         <v>1.72</v>
       </c>
       <c r="H144" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="I144" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J144" t="n">
         <v>1.02</v>
@@ -17552,22 +17552,22 @@
         <v>10</v>
       </c>
       <c r="L144" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="M144" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="N144" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="O144" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="P144" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="Q144" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="R144" t="n">
         <v>1.32</v>
@@ -17585,19 +17585,19 @@
         <v>9.25</v>
       </c>
       <c r="W144" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="X144" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y144" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z144" t="n">
         <v>10.75</v>
       </c>
       <c r="AA144" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB144" t="n">
         <v>11</v>
@@ -17609,7 +17609,7 @@
         <v>90</v>
       </c>
       <c r="AE144" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF144" t="n">
         <v>35</v>
@@ -17621,10 +17621,10 @@
         <v>65</v>
       </c>
       <c r="AI144" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ144" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145">
@@ -17899,27 +17899,27 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H147" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I147" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M147" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="N147" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O147" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
@@ -17933,28 +17933,28 @@
         <v>11.25</v>
       </c>
       <c r="U147" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V147" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="W147" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X147" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y147" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Z147" t="n">
         <v>11.25</v>
       </c>
       <c r="AA147" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB147" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC147" t="n">
         <v>45</v>
@@ -17966,19 +17966,19 @@
         <v>8.75</v>
       </c>
       <c r="AF147" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AG147" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH147" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI147" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ147" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148">
@@ -18250,13 +18250,13 @@
         <v>1.91</v>
       </c>
       <c r="J150" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K150" t="n">
         <v>12</v>
       </c>
       <c r="L150" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M150" t="n">
         <v>4</v>
@@ -18372,13 +18372,13 @@
         <v>2.05</v>
       </c>
       <c r="J151" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K151" t="n">
         <v>10</v>
       </c>
       <c r="L151" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M151" t="n">
         <v>3.25</v>
@@ -18494,16 +18494,16 @@
         <v>2.05</v>
       </c>
       <c r="J152" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="K152" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L152" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M152" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N152" t="n">
         <v>2.35</v>
@@ -18616,16 +18616,16 @@
         <v>3.2</v>
       </c>
       <c r="J153" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K153" t="n">
         <v>7</v>
       </c>
       <c r="L153" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M153" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N153" t="n">
         <v>2.5</v>
@@ -18640,10 +18640,10 @@
         <v>2.38</v>
       </c>
       <c r="R153" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S153" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T153" t="n">
         <v>6.5</v>
@@ -18655,16 +18655,16 @@
         <v>10</v>
       </c>
       <c r="W153" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X153" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y153" t="n">
         <v>41</v>
       </c>
       <c r="Z153" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA153" t="n">
         <v>6</v>
@@ -18691,7 +18691,7 @@
         <v>34</v>
       </c>
       <c r="AI153" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ153" t="n">
         <v>41</v>
@@ -18738,13 +18738,13 @@
         <v>7</v>
       </c>
       <c r="J154" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K154" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L154" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M154" t="n">
         <v>3.75</v>
@@ -18774,13 +18774,13 @@
         <v>6.5</v>
       </c>
       <c r="V154" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W154" t="n">
         <v>9</v>
       </c>
       <c r="X154" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y154" t="n">
         <v>29</v>
@@ -18789,7 +18789,7 @@
         <v>11</v>
       </c>
       <c r="AA154" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB154" t="n">
         <v>21</v>
@@ -18801,7 +18801,7 @@
         <v>351</v>
       </c>
       <c r="AE154" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF154" t="n">
         <v>34</v>
@@ -18854,10 +18854,10 @@
         <v>1.7</v>
       </c>
       <c r="H155" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I155" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="J155" t="n">
         <v>1.08</v>
@@ -18902,7 +18902,7 @@
         <v>12.5</v>
       </c>
       <c r="X155" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y155" t="n">
         <v>35</v>
@@ -18914,7 +18914,7 @@
         <v>6.9</v>
       </c>
       <c r="AB155" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC155" t="n">
         <v>110</v>
@@ -18923,16 +18923,16 @@
         <v>900</v>
       </c>
       <c r="AE155" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF155" t="n">
         <v>24</v>
       </c>
       <c r="AG155" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH155" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI155" t="n">
         <v>50</v>
@@ -18979,88 +18979,88 @@
         <v>2.72</v>
       </c>
       <c r="I156" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J156" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="K156" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L156" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="M156" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="N156" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="O156" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P156" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="R156" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="S156" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="T156" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="U156" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V156" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W156" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X156" t="n">
         <v>24</v>
       </c>
       <c r="Y156" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z156" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AA156" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB156" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AC156" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD156" t="n">
         <v>900</v>
       </c>
       <c r="AE156" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AF156" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG156" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH156" t="n">
         <v>45</v>
       </c>
       <c r="AI156" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ156" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157">
@@ -19342,7 +19342,7 @@
         <v>3.15</v>
       </c>
       <c r="H159" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I159" t="n">
         <v>2.12</v>
@@ -19375,7 +19375,7 @@
         <v>1.82</v>
       </c>
       <c r="S159" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T159" t="n">
         <v>9.25</v>
@@ -19411,13 +19411,13 @@
         <v>600</v>
       </c>
       <c r="AE159" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AF159" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG159" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH159" t="n">
         <v>20</v>
@@ -19461,13 +19461,13 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H160" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I160" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J160" t="n">
         <v>1.13</v>
@@ -19482,10 +19482,10 @@
         <v>2.2</v>
       </c>
       <c r="N160" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O160" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P160" t="n">
         <v>1.62</v>
@@ -19500,10 +19500,10 @@
         <v>1.57</v>
       </c>
       <c r="T160" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U160" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V160" t="n">
         <v>11</v>
@@ -19712,10 +19712,10 @@
         <v>4.1</v>
       </c>
       <c r="J162" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K162" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L162" t="n">
         <v>1.44</v>
@@ -20265,13 +20265,13 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H167" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I167" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J167" t="n">
         <v>1.03</v>
@@ -20286,22 +20286,22 @@
         <v>4.5</v>
       </c>
       <c r="N167" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O167" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P167" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q167" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R167" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S167" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T167" t="n">
         <v>9.5</v>
@@ -20325,7 +20325,7 @@
         <v>15</v>
       </c>
       <c r="AA167" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB167" t="n">
         <v>12</v>
@@ -20334,7 +20334,7 @@
         <v>41</v>
       </c>
       <c r="AD167" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE167" t="n">
         <v>15</v>
@@ -20883,19 +20883,19 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H176" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I176" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="J176" t="n">
         <v>1.08</v>
       </c>
       <c r="K176" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L176" t="n">
         <v>1.4</v>
@@ -20925,16 +20925,16 @@
         <v>8.5</v>
       </c>
       <c r="U176" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V176" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W176" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X176" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y176" t="n">
         <v>41</v>
@@ -20943,13 +20943,13 @@
         <v>7.5</v>
       </c>
       <c r="AA176" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB176" t="n">
         <v>17</v>
       </c>
       <c r="AC176" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD176" t="n">
         <v>1000</v>
@@ -20958,16 +20958,16 @@
         <v>6.5</v>
       </c>
       <c r="AF176" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG176" t="n">
         <v>9.5</v>
       </c>
       <c r="AH176" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI176" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ176" t="n">
         <v>34</v>
@@ -21251,31 +21251,31 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="H180" t="n">
         <v>3.25</v>
       </c>
       <c r="I180" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J180" t="n">
         <v>1.04</v>
       </c>
       <c r="K180" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L180" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M180" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N180" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O180" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P180" t="n">
         <v>1.33</v>
@@ -21296,25 +21296,25 @@
         <v>15</v>
       </c>
       <c r="V180" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W180" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X180" t="n">
         <v>21</v>
       </c>
       <c r="Y180" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z180" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA180" t="n">
         <v>6.5</v>
       </c>
       <c r="AB180" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC180" t="n">
         <v>41</v>
@@ -21323,16 +21323,16 @@
         <v>151</v>
       </c>
       <c r="AE180" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF180" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG180" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH180" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI180" t="n">
         <v>19</v>
@@ -21995,7 +21995,7 @@
         <v>1.03</v>
       </c>
       <c r="K186" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L186" t="n">
         <v>1.17</v>
@@ -22150,7 +22150,7 @@
         <v>19</v>
       </c>
       <c r="V187" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W187" t="n">
         <v>41</v>
@@ -22352,7 +22352,7 @@
         <v>1.95</v>
       </c>
       <c r="H189" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I189" t="n">
         <v>3.75</v>
@@ -22370,28 +22370,28 @@
         <v>3.75</v>
       </c>
       <c r="N189" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O189" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P189" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q189" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R189" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S189" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T189" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U189" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V189" t="n">
         <v>8.5</v>
@@ -22403,16 +22403,16 @@
         <v>15</v>
       </c>
       <c r="Y189" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z189" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA189" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB189" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC189" t="n">
         <v>41</v>
@@ -22421,7 +22421,7 @@
         <v>201</v>
       </c>
       <c r="AE189" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF189" t="n">
         <v>19</v>
@@ -22730,16 +22730,16 @@
         <v>10</v>
       </c>
       <c r="L192" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M192" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N192" t="n">
         <v>2.05</v>
       </c>
       <c r="O192" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P192" t="n">
         <v>1.4</v>
@@ -22778,7 +22778,7 @@
         <v>7.5</v>
       </c>
       <c r="AB192" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC192" t="n">
         <v>67</v>
@@ -22846,22 +22846,22 @@
         <v>3</v>
       </c>
       <c r="J193" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K193" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L193" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M193" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N193" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="O193" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P193" t="n">
         <v>1.44</v>
@@ -22971,19 +22971,19 @@
         <v>1.06</v>
       </c>
       <c r="K194" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L194" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M194" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N194" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O194" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P194" t="n">
         <v>1.4</v>
@@ -23031,7 +23031,7 @@
         <v>251</v>
       </c>
       <c r="AE194" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF194" t="n">
         <v>15</v>
@@ -23084,28 +23084,28 @@
         <v>2.25</v>
       </c>
       <c r="H195" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I195" t="n">
         <v>3</v>
       </c>
       <c r="J195" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K195" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L195" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M195" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N195" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O195" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P195" t="n">
         <v>1.33</v>
@@ -23138,7 +23138,7 @@
         <v>23</v>
       </c>
       <c r="Z195" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA195" t="n">
         <v>6.5</v>
@@ -23212,10 +23212,10 @@
         <v>3.2</v>
       </c>
       <c r="J196" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K196" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L196" t="n">
         <v>1.29</v>
@@ -23224,10 +23224,10 @@
         <v>3.5</v>
       </c>
       <c r="N196" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O196" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P196" t="n">
         <v>1.4</v>
@@ -23919,31 +23919,31 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H202" t="n">
         <v>3.5</v>
       </c>
       <c r="I202" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J202" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K202" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L202" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M202" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N202" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O202" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P202" t="n">
         <v>1.4</v>
@@ -23952,22 +23952,22 @@
         <v>2.75</v>
       </c>
       <c r="R202" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S202" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T202" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U202" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V202" t="n">
         <v>9</v>
       </c>
       <c r="W202" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X202" t="n">
         <v>17</v>
@@ -23976,7 +23976,7 @@
         <v>29</v>
       </c>
       <c r="Z202" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA202" t="n">
         <v>7</v>
@@ -23988,7 +23988,7 @@
         <v>51</v>
       </c>
       <c r="AD202" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE202" t="n">
         <v>10</v>
@@ -24003,7 +24003,7 @@
         <v>41</v>
       </c>
       <c r="AI202" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ202" t="n">
         <v>41</v>
@@ -24044,10 +24044,10 @@
         <v>2.4</v>
       </c>
       <c r="H203" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I203" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J203" t="n">
         <v>1.06</v>
@@ -24062,28 +24062,28 @@
         <v>3.25</v>
       </c>
       <c r="N203" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="O203" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="P203" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q203" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R203" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S203" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T203" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U203" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V203" t="n">
         <v>10</v>
@@ -24095,31 +24095,31 @@
         <v>21</v>
       </c>
       <c r="Y203" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z203" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AA203" t="n">
         <v>6.5</v>
       </c>
       <c r="AB203" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC203" t="n">
         <v>51</v>
       </c>
       <c r="AD203" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AE203" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF203" t="n">
         <v>13</v>
       </c>
       <c r="AG203" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH203" t="n">
         <v>29</v>
@@ -24515,13 +24515,13 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="H207" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="I207" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
@@ -24529,76 +24529,76 @@
         <v>1.3</v>
       </c>
       <c r="M207" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="N207" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O207" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P207" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q207" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R207" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S207" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="T207" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="U207" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="V207" t="n">
         <v>8.25</v>
       </c>
       <c r="W207" t="n">
+        <v>11</v>
+      </c>
+      <c r="X207" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE207" t="n">
         <v>13.5</v>
       </c>
-      <c r="X207" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y207" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z207" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA207" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB207" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC207" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD207" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE207" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AF207" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AG207" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AH207" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AI207" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AJ207" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="208">
@@ -25454,7 +25454,7 @@
         <v>3.25</v>
       </c>
       <c r="R218" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S218" t="n">
         <v>2.1</v>
@@ -25576,7 +25576,7 @@
         <v>3.5</v>
       </c>
       <c r="R219" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S219" t="n">
         <v>2.25</v>
@@ -25674,37 +25674,37 @@
         <v>3</v>
       </c>
       <c r="J220" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K220" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L220" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M220" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N220" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O220" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="P220" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q220" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R220" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="S220" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T220" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U220" t="n">
         <v>11</v>
@@ -25722,7 +25722,7 @@
         <v>26</v>
       </c>
       <c r="Z220" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA220" t="n">
         <v>7</v>
@@ -25734,19 +25734,19 @@
         <v>41</v>
       </c>
       <c r="AD220" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="AE220" t="n">
         <v>11</v>
       </c>
       <c r="AF220" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG220" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH220" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI220" t="n">
         <v>23</v>
@@ -25820,13 +25820,13 @@
         <v>3.25</v>
       </c>
       <c r="R221" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S221" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="T221" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U221" t="n">
         <v>7</v>
@@ -25850,7 +25850,7 @@
         <v>8</v>
       </c>
       <c r="AB221" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC221" t="n">
         <v>51</v>
@@ -25871,7 +25871,7 @@
         <v>67</v>
       </c>
       <c r="AI221" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ221" t="n">
         <v>41</v>
@@ -25909,13 +25909,13 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H222" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I222" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J222" t="n">
         <v>1.05</v>
@@ -25942,13 +25942,13 @@
         <v>3</v>
       </c>
       <c r="R222" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S222" t="n">
         <v>2</v>
       </c>
       <c r="T222" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U222" t="n">
         <v>9</v>
@@ -25963,10 +25963,10 @@
         <v>15</v>
       </c>
       <c r="Y222" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z222" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA222" t="n">
         <v>6.5</v>
@@ -25990,7 +25990,7 @@
         <v>15</v>
       </c>
       <c r="AH222" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI222" t="n">
         <v>34</v>
@@ -26064,10 +26064,10 @@
         <v>2.63</v>
       </c>
       <c r="R223" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S223" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T223" t="n">
         <v>7</v>
@@ -26165,7 +26165,7 @@
         <v>1.02</v>
       </c>
       <c r="K224" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L224" t="n">
         <v>1.14</v>
@@ -26296,10 +26296,10 @@
         <v>3.75</v>
       </c>
       <c r="N225" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="O225" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="P225" t="n">
         <v>1.36</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H227" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I227" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J227" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K227" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="L227" t="n">
         <v>1.25</v>
@@ -26543,13 +26543,13 @@
         <v>1.8</v>
       </c>
       <c r="O227" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P227" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q227" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R227" t="n">
         <v>1.67</v>
@@ -26564,13 +26564,13 @@
         <v>12</v>
       </c>
       <c r="V227" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W227" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X227" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y227" t="n">
         <v>26</v>
@@ -26594,10 +26594,10 @@
         <v>11</v>
       </c>
       <c r="AF227" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG227" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH227" t="n">
         <v>29</v>
@@ -26641,94 +26641,94 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H228" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I228" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="J228" t="n">
         <v>1.07</v>
       </c>
       <c r="K228" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="L228" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M228" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="N228" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O228" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P228" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q228" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="R228" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="S228" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T228" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="U228" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="V228" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W228" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="X228" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y228" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z228" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AA228" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AB228" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AC228" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD228" t="n">
         <v>900</v>
       </c>
       <c r="AE228" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AF228" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AG228" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH228" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AI228" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ228" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="229">
@@ -26790,7 +26790,7 @@
         <v>2</v>
       </c>
       <c r="P229" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q229" t="n">
         <v>2.87</v>
@@ -26811,7 +26811,7 @@
         <v>8.5</v>
       </c>
       <c r="W229" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X229" t="n">
         <v>15.5</v>
@@ -26823,10 +26823,10 @@
         <v>8</v>
       </c>
       <c r="AA229" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB229" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC229" t="n">
         <v>50</v>
@@ -26954,7 +26954,7 @@
         <v>67</v>
       </c>
       <c r="AD230" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AE230" t="n">
         <v>51</v>
@@ -27005,13 +27005,13 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H231" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I231" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J231" t="n">
         <v>1.01</v>
@@ -27038,52 +27038,56 @@
         <v>8</v>
       </c>
       <c r="R231" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="S231" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="T231" t="n">
         <v>81</v>
       </c>
       <c r="U231" t="n">
+        <v>201</v>
+      </c>
+      <c r="V231" t="n">
+        <v>67</v>
+      </c>
+      <c r="W231" t="inlineStr"/>
+      <c r="X231" t="n">
         <v>251</v>
       </c>
-      <c r="V231" t="n">
-        <v>81</v>
-      </c>
-      <c r="W231" t="inlineStr"/>
-      <c r="X231" t="inlineStr"/>
       <c r="Y231" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="Z231" t="n">
         <v>34</v>
       </c>
       <c r="AA231" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB231" t="n">
         <v>41</v>
       </c>
-      <c r="AB231" t="n">
-        <v>51</v>
-      </c>
       <c r="AC231" t="n">
-        <v>126</v>
-      </c>
-      <c r="AD231" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>800</v>
+      </c>
       <c r="AE231" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF231" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG231" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH231" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI231" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ231" t="n">
         <v>41</v>
@@ -27121,13 +27125,13 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="H232" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I232" t="n">
-        <v>4.55</v>
+        <v>4.15</v>
       </c>
       <c r="J232" t="n">
         <v>1.05</v>
@@ -27136,43 +27140,43 @@
         <v>8.5</v>
       </c>
       <c r="L232" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M232" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="N232" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O232" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P232" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q232" t="n">
         <v>2.87</v>
       </c>
       <c r="R232" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S232" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T232" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="U232" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="V232" t="n">
         <v>8.75</v>
       </c>
       <c r="W232" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="X232" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y232" t="n">
         <v>27</v>
@@ -27181,34 +27185,34 @@
         <v>8.5</v>
       </c>
       <c r="AA232" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AB232" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC232" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD232" t="n">
         <v>600</v>
       </c>
       <c r="AE232" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF232" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AG232" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH232" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AI232" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ232" t="n">
         <v>45</v>
-      </c>
-      <c r="AJ232" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="233">
@@ -28097,13 +28101,13 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H240" t="n">
         <v>3.4</v>
       </c>
       <c r="I240" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J240" t="n">
         <v>1.05</v>
@@ -28240,10 +28244,10 @@
         <v>3</v>
       </c>
       <c r="N241" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O241" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P241" t="n">
         <v>1.44</v>
@@ -28350,10 +28354,10 @@
         <v>3.4</v>
       </c>
       <c r="J242" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K242" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L242" t="n">
         <v>1.36</v>
@@ -28484,10 +28488,10 @@
         <v>3.5</v>
       </c>
       <c r="N243" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O243" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P243" t="n">
         <v>1.4</v>
@@ -28838,10 +28842,10 @@
         <v>3.6</v>
       </c>
       <c r="J246" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K246" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L246" t="n">
         <v>1.33</v>
@@ -28951,13 +28955,13 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H247" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I247" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J247" t="n">
         <v>1.05</v>
@@ -28966,16 +28970,16 @@
         <v>11</v>
       </c>
       <c r="L247" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M247" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N247" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O247" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P247" t="n">
         <v>1.36</v>
@@ -28984,49 +28988,49 @@
         <v>3</v>
       </c>
       <c r="R247" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S247" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T247" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U247" t="n">
         <v>9.5</v>
       </c>
       <c r="V247" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W247" t="n">
         <v>17</v>
       </c>
       <c r="X247" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y247" t="n">
         <v>26</v>
       </c>
       <c r="Z247" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA247" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB247" t="n">
         <v>15</v>
       </c>
       <c r="AC247" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD247" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE247" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF247" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG247" t="n">
         <v>13</v>
@@ -29073,46 +29077,46 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H248" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I248" t="n">
         <v>3</v>
       </c>
       <c r="J248" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K248" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L248" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M248" t="n">
+        <v>3</v>
+      </c>
+      <c r="N248" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O248" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P248" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R248" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S248" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T248" t="n">
         <v>7.5</v>
-      </c>
-      <c r="L248" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M248" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N248" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O248" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P248" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q248" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R248" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S248" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T248" t="n">
-        <v>7</v>
       </c>
       <c r="U248" t="n">
         <v>11</v>
@@ -29130,28 +29134,28 @@
         <v>34</v>
       </c>
       <c r="Z248" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA248" t="n">
         <v>6</v>
       </c>
       <c r="AB248" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC248" t="n">
         <v>51</v>
       </c>
       <c r="AD248" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE248" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF248" t="n">
         <v>15</v>
       </c>
       <c r="AG248" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH248" t="n">
         <v>34</v>
@@ -29160,7 +29164,7 @@
         <v>26</v>
       </c>
       <c r="AJ248" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="249">
@@ -29338,10 +29342,10 @@
         <v>4.33</v>
       </c>
       <c r="N250" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O250" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P250" t="n">
         <v>1.29</v>
@@ -29385,7 +29389,9 @@
       <c r="AC250" t="n">
         <v>81</v>
       </c>
-      <c r="AD250" t="inlineStr"/>
+      <c r="AD250" t="n">
+        <v>1250</v>
+      </c>
       <c r="AE250" t="n">
         <v>21</v>
       </c>
@@ -29446,10 +29452,10 @@
         <v>2.15</v>
       </c>
       <c r="J251" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K251" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="L251" t="n">
         <v>1.3</v>
@@ -29458,10 +29464,10 @@
         <v>3.4</v>
       </c>
       <c r="N251" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O251" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P251" t="n">
         <v>1.4</v>
@@ -29506,7 +29512,7 @@
         <v>51</v>
       </c>
       <c r="AD251" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AE251" t="n">
         <v>8</v>
@@ -29568,10 +29574,10 @@
         <v>4.5</v>
       </c>
       <c r="J252" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K252" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="L252" t="n">
         <v>1.36</v>
@@ -29690,10 +29696,10 @@
         <v>4.75</v>
       </c>
       <c r="J253" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K253" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L253" t="n">
         <v>1.33</v>
@@ -29923,19 +29929,19 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H255" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I255" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J255" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K255" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L255" t="n">
         <v>1.33</v>
@@ -29944,10 +29950,10 @@
         <v>3.25</v>
       </c>
       <c r="N255" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O255" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P255" t="n">
         <v>1.44</v>
@@ -29965,7 +29971,7 @@
         <v>6</v>
       </c>
       <c r="U255" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V255" t="n">
         <v>9</v>
@@ -29977,7 +29983,7 @@
         <v>15</v>
       </c>
       <c r="Y255" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z255" t="n">
         <v>8.5</v>
@@ -30176,10 +30182,10 @@
         <v>4.33</v>
       </c>
       <c r="J257" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K257" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L257" t="n">
         <v>1.33</v>
@@ -30194,43 +30200,43 @@
         <v>1.75</v>
       </c>
       <c r="P257" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q257" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R257" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S257" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T257" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U257" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V257" t="n">
         <v>9</v>
       </c>
       <c r="W257" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X257" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y257" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z257" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA257" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB257" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC257" t="n">
         <v>67</v>
@@ -30239,7 +30245,7 @@
         <v>900</v>
       </c>
       <c r="AE257" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF257" t="n">
         <v>23</v>
@@ -30254,7 +30260,7 @@
         <v>41</v>
       </c>
       <c r="AJ257" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="258">
@@ -30426,31 +30432,31 @@
         <v>7</v>
       </c>
       <c r="L259" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M259" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N259" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="O259" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P259" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q259" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R259" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S259" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T259" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U259" t="n">
         <v>9.5</v>
@@ -30465,10 +30471,10 @@
         <v>21</v>
       </c>
       <c r="Y259" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z259" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA259" t="n">
         <v>6.5</v>
@@ -30479,9 +30485,11 @@
       <c r="AC259" t="n">
         <v>67</v>
       </c>
-      <c r="AD259" t="inlineStr"/>
+      <c r="AD259" t="n">
+        <v>800</v>
+      </c>
       <c r="AE259" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF259" t="n">
         <v>15</v>
@@ -30540,10 +30548,10 @@
         <v>3.3</v>
       </c>
       <c r="J260" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K260" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L260" t="n">
         <v>1.36</v>
@@ -30585,7 +30593,7 @@
         <v>19</v>
       </c>
       <c r="Y260" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z260" t="n">
         <v>8</v>
@@ -30612,7 +30620,7 @@
         <v>13</v>
       </c>
       <c r="AH260" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI260" t="n">
         <v>29</v>
@@ -30662,10 +30670,10 @@
         <v>4.2</v>
       </c>
       <c r="J261" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K261" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L261" t="n">
         <v>1.36</v>
@@ -30692,7 +30700,7 @@
         <v>1.73</v>
       </c>
       <c r="T261" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U261" t="n">
         <v>8</v>
@@ -30710,7 +30718,7 @@
         <v>34</v>
       </c>
       <c r="Z261" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA261" t="n">
         <v>6.5</v>
@@ -30719,7 +30727,7 @@
         <v>17</v>
       </c>
       <c r="AC261" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD261" t="n">
         <v>900</v>
@@ -31144,7 +31152,7 @@
         <v>1.57</v>
       </c>
       <c r="H265" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I265" t="n">
         <v>4.75</v>
@@ -31156,34 +31164,34 @@
         <v>17</v>
       </c>
       <c r="L265" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M265" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N265" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O265" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P265" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q265" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R265" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S265" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T265" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U265" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V265" t="n">
         <v>8.5</v>
@@ -31195,13 +31203,13 @@
         <v>12</v>
       </c>
       <c r="Y265" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z265" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA265" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB265" t="n">
         <v>17</v>
@@ -31225,10 +31233,10 @@
         <v>51</v>
       </c>
       <c r="AI265" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ265" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="266">
@@ -31263,19 +31271,19 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H266" t="n">
         <v>3.6</v>
       </c>
       <c r="I266" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J266" t="n">
         <v>1.06</v>
       </c>
       <c r="K266" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L266" t="n">
         <v>1.33</v>
@@ -31290,28 +31298,28 @@
         <v>1.73</v>
       </c>
       <c r="P266" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q266" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R266" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S266" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T266" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U266" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V266" t="n">
         <v>9</v>
       </c>
       <c r="W266" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X266" t="n">
         <v>17</v>
@@ -31332,7 +31340,7 @@
         <v>51</v>
       </c>
       <c r="AD266" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE266" t="n">
         <v>9.5</v>
@@ -31632,16 +31640,16 @@
         <v>1.55</v>
       </c>
       <c r="H269" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I269" t="n">
         <v>5.25</v>
       </c>
       <c r="J269" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K269" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L269" t="n">
         <v>1.14</v>
@@ -31671,22 +31679,22 @@
         <v>10</v>
       </c>
       <c r="U269" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V269" t="n">
         <v>8.5</v>
       </c>
       <c r="W269" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X269" t="n">
         <v>11</v>
       </c>
       <c r="Y269" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z269" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA269" t="n">
         <v>8.5</v>
@@ -31701,7 +31709,7 @@
         <v>126</v>
       </c>
       <c r="AE269" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF269" t="n">
         <v>29</v>
@@ -31713,7 +31721,7 @@
         <v>51</v>
       </c>
       <c r="AI269" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ269" t="n">
         <v>34</v>
@@ -31873,55 +31881,55 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H271" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I271" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J271" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K271" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L271" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M271" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N271" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O271" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P271" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q271" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R271" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S271" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T271" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U271" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V271" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W271" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X271" t="n">
         <v>15</v>
@@ -31930,7 +31938,7 @@
         <v>23</v>
       </c>
       <c r="Z271" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA271" t="n">
         <v>7</v>
@@ -31948,19 +31956,19 @@
         <v>12</v>
       </c>
       <c r="AF271" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG271" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH271" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI271" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ271" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ271" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="272">
@@ -32117,49 +32125,49 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H273" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I273" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="J273" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K273" t="n">
+        <v>19</v>
+      </c>
+      <c r="L273" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M273" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N273" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O273" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P273" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R273" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S273" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T273" t="n">
+        <v>13</v>
+      </c>
+      <c r="U273" t="n">
         <v>17</v>
-      </c>
-      <c r="L273" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M273" t="n">
-        <v>5</v>
-      </c>
-      <c r="N273" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O273" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P273" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q273" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R273" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S273" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T273" t="n">
-        <v>12</v>
-      </c>
-      <c r="U273" t="n">
-        <v>15</v>
       </c>
       <c r="V273" t="n">
         <v>10</v>
@@ -32174,7 +32182,7 @@
         <v>21</v>
       </c>
       <c r="Z273" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA273" t="n">
         <v>7.5</v>
@@ -32183,10 +32191,10 @@
         <v>11</v>
       </c>
       <c r="AC273" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD273" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE273" t="n">
         <v>13</v>
@@ -32201,10 +32209,10 @@
         <v>26</v>
       </c>
       <c r="AI273" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ273" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="274">
@@ -32361,25 +32369,25 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H275" t="n">
         <v>4.5</v>
       </c>
       <c r="I275" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="J275" t="n">
         <v>1.01</v>
       </c>
       <c r="K275" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L275" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="M275" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N275" t="n">
         <v>1.33</v>
@@ -32388,10 +32396,10 @@
         <v>3.4</v>
       </c>
       <c r="P275" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Q275" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="R275" t="n">
         <v>1.4</v>
@@ -32406,7 +32414,7 @@
         <v>29</v>
       </c>
       <c r="V275" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W275" t="n">
         <v>41</v>
@@ -32421,7 +32429,7 @@
         <v>29</v>
       </c>
       <c r="AA275" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB275" t="n">
         <v>13</v>
@@ -32433,7 +32441,7 @@
         <v>81</v>
       </c>
       <c r="AE275" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF275" t="n">
         <v>12</v>
@@ -32721,7 +32729,7 @@
         <v>12</v>
       </c>
       <c r="Y278" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z278" t="n">
         <v>12</v>
@@ -32751,7 +32759,7 @@
         <v>67</v>
       </c>
       <c r="AI278" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ278" t="n">
         <v>41</v>
@@ -33033,13 +33041,13 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H281" t="n">
-        <v>2.52</v>
+        <v>2.25</v>
       </c>
       <c r="I281" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="J281" t="n">
         <v>1.08</v>
@@ -33054,10 +33062,10 @@
         <v>3.1</v>
       </c>
       <c r="N281" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O281" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="P281" t="n">
         <v>1.47</v>
@@ -33075,52 +33083,52 @@
         <v>8</v>
       </c>
       <c r="U281" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="V281" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="W281" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="X281" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y281" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Z281" t="n">
         <v>6.5</v>
       </c>
       <c r="AA281" t="n">
-        <v>5.4</v>
+        <v>4.75</v>
       </c>
       <c r="AB281" t="n">
         <v>11</v>
       </c>
       <c r="AC281" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD281" t="n">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="AE281" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AF281" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG281" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH281" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AI281" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AJ281" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="282">
@@ -33820,16 +33828,16 @@
         <v>2.1</v>
       </c>
       <c r="H288" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I288" t="n">
         <v>3.2</v>
       </c>
       <c r="J288" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K288" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L288" t="n">
         <v>1.14</v>
@@ -34183,49 +34191,49 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H291" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I291" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J291" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K291" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L291" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M291" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N291" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="O291" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="P291" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q291" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R291" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S291" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T291" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U291" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V291" t="n">
         <v>8.5</v>
@@ -34234,13 +34242,13 @@
         <v>15</v>
       </c>
       <c r="X291" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y291" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z291" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA291" t="n">
         <v>7.5</v>
@@ -34252,16 +34260,16 @@
         <v>51</v>
       </c>
       <c r="AD291" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE291" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF291" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG291" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH291" t="n">
         <v>41</v>
@@ -34270,7 +34278,7 @@
         <v>34</v>
       </c>
       <c r="AJ291" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="292">
@@ -34320,16 +34328,16 @@
         <v>11</v>
       </c>
       <c r="L292" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M292" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N292" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O292" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P292" t="n">
         <v>1.36</v>
@@ -34427,13 +34435,13 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H293" t="n">
         <v>3.7</v>
       </c>
       <c r="I293" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J293" t="n">
         <v>1.04</v>
@@ -34448,10 +34456,10 @@
         <v>4</v>
       </c>
       <c r="N293" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O293" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P293" t="n">
         <v>1.33</v>
@@ -34466,10 +34474,10 @@
         <v>2.05</v>
       </c>
       <c r="T293" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U293" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V293" t="n">
         <v>8.5</v>
@@ -34478,7 +34486,7 @@
         <v>15</v>
       </c>
       <c r="X293" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y293" t="n">
         <v>23</v>
@@ -34490,28 +34498,28 @@
         <v>7</v>
       </c>
       <c r="AB293" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC293" t="n">
         <v>41</v>
       </c>
       <c r="AD293" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE293" t="n">
         <v>13</v>
       </c>
       <c r="AF293" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG293" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH293" t="n">
         <v>41</v>
       </c>
       <c r="AI293" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ293" t="n">
         <v>34</v>
@@ -34552,10 +34560,10 @@
         <v>1.62</v>
       </c>
       <c r="H294" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I294" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J294" t="n">
         <v>1.04</v>
@@ -34564,43 +34572,43 @@
         <v>13</v>
       </c>
       <c r="L294" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M294" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N294" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O294" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="P294" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q294" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R294" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S294" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T294" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U294" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V294" t="n">
         <v>8.5</v>
       </c>
       <c r="W294" t="n">
+        <v>13</v>
+      </c>
+      <c r="X294" t="n">
         <v>12</v>
-      </c>
-      <c r="X294" t="n">
-        <v>13</v>
       </c>
       <c r="Y294" t="n">
         <v>23</v>
@@ -34612,13 +34620,13 @@
         <v>8</v>
       </c>
       <c r="AB294" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC294" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD294" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE294" t="n">
         <v>15</v>
@@ -34633,7 +34641,7 @@
         <v>51</v>
       </c>
       <c r="AI294" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ294" t="n">
         <v>41</v>
@@ -34683,7 +34691,7 @@
         <v>1.04</v>
       </c>
       <c r="K295" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L295" t="n">
         <v>1.22</v>
@@ -34692,10 +34700,10 @@
         <v>4</v>
       </c>
       <c r="N295" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O295" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P295" t="n">
         <v>1.33</v>
@@ -34808,16 +34816,16 @@
         <v>13</v>
       </c>
       <c r="L296" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M296" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N296" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O296" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P296" t="n">
         <v>1.33</v>
@@ -34835,7 +34843,7 @@
         <v>8.5</v>
       </c>
       <c r="U296" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V296" t="n">
         <v>9</v>
@@ -34874,7 +34882,7 @@
         <v>12</v>
       </c>
       <c r="AH296" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI296" t="n">
         <v>26</v>
@@ -35293,7 +35301,7 @@
         <v>1.02</v>
       </c>
       <c r="K300" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L300" t="n">
         <v>1.13</v>
@@ -35811,7 +35819,7 @@
         <v>9</v>
       </c>
       <c r="U304" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V304" t="n">
         <v>9.75</v>
@@ -35823,7 +35831,7 @@
         <v>22</v>
       </c>
       <c r="Y304" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z304" t="n">
         <v>7.3</v>
@@ -35841,7 +35849,7 @@
         <v>400</v>
       </c>
       <c r="AE304" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF304" t="n">
         <v>12.5</v>
@@ -35894,7 +35902,7 @@
         <v>1.44</v>
       </c>
       <c r="H305" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I305" t="n">
         <v>6.6</v>
@@ -35903,7 +35911,7 @@
         <v>1.06</v>
       </c>
       <c r="K305" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="L305" t="n">
         <v>1.3</v>
@@ -35924,13 +35932,13 @@
         <v>2.67</v>
       </c>
       <c r="R305" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S305" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T305" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U305" t="n">
         <v>6.3</v>
@@ -35945,10 +35953,10 @@
         <v>12.5</v>
       </c>
       <c r="Y305" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z305" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AA305" t="n">
         <v>8</v>
@@ -35972,13 +35980,13 @@
         <v>22</v>
       </c>
       <c r="AH305" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AI305" t="n">
         <v>90</v>
       </c>
       <c r="AJ305" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="306">
@@ -36403,7 +36411,7 @@
         <v>2.02</v>
       </c>
       <c r="O309" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P309" t="n">
         <v>1.45</v>
@@ -36412,7 +36420,7 @@
         <v>2.57</v>
       </c>
       <c r="R309" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S309" t="n">
         <v>1.82</v>
@@ -36439,7 +36447,7 @@
         <v>6.9</v>
       </c>
       <c r="AA309" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB309" t="n">
         <v>16.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-10.xlsx
@@ -781,7 +781,7 @@
         <v>1.03</v>
       </c>
       <c r="K3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L3" t="n">
         <v>1.17</v>
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
         <v>1.18</v>
@@ -903,7 +903,7 @@
         <v>1.01</v>
       </c>
       <c r="K4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L4" t="n">
         <v>1.1</v>
@@ -930,7 +930,7 @@
         <v>1.91</v>
       </c>
       <c r="T4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="U4" t="n">
         <v>67</v>
@@ -939,31 +939,31 @@
         <v>34</v>
       </c>
       <c r="W4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="X4" t="n">
         <v>81</v>
       </c>
       <c r="Y4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
         <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>8.5</v>
@@ -1034,10 +1034,10 @@
         <v>4.33</v>
       </c>
       <c r="N5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P5" t="n">
         <v>1.33</v>
@@ -1141,25 +1141,25 @@
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O6" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="P6" t="n">
         <v>1.29</v>
@@ -1192,10 +1192,10 @@
         <v>23</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB6" t="n">
         <v>12</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J8" t="n">
         <v>1.04</v>
@@ -1442,7 +1442,7 @@
         <v>6.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
         <v>41</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1534,13 +1534,13 @@
         <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U9" t="n">
         <v>23</v>
@@ -1558,7 +1558,7 @@
         <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
         <v>7.5</v>
@@ -1635,7 +1635,7 @@
         <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L10" t="n">
         <v>1.17</v>
@@ -1695,7 +1695,7 @@
         <v>151</v>
       </c>
       <c r="AE10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF10" t="n">
         <v>8.5</v>
@@ -1748,46 +1748,46 @@
         <v>1.83</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J11" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L11" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="M11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V11" t="n">
         <v>9</v>
@@ -1802,22 +1802,22 @@
         <v>17</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB11" t="n">
         <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD11" t="n">
         <v>81</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>23</v>
@@ -1829,7 +1829,7 @@
         <v>41</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
         <v>23</v>
@@ -1882,7 +1882,7 @@
         <v>26</v>
       </c>
       <c r="L12" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="M12" t="n">
         <v>8</v>
@@ -1998,13 +1998,13 @@
         <v>3.4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
         <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M13" t="n">
         <v>4.5</v>
@@ -2064,7 +2064,7 @@
         <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
         <v>12</v>
@@ -2076,7 +2076,7 @@
         <v>23</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2120,16 +2120,16 @@
         <v>1.95</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K14" t="n">
         <v>13</v>
       </c>
       <c r="L14" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N14" t="n">
         <v>1.67</v>
@@ -2242,13 +2242,13 @@
         <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K15" t="n">
         <v>13</v>
       </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
@@ -2364,22 +2364,22 @@
         <v>2.3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K16" t="n">
         <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M16" t="n">
         <v>4.5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O16" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P16" t="n">
         <v>1.3</v>
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
         <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
@@ -2519,7 +2519,7 @@
         <v>15</v>
       </c>
       <c r="U17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V17" t="n">
         <v>12</v>
@@ -2549,7 +2549,7 @@
         <v>101</v>
       </c>
       <c r="AE17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
         <v>13</v>
@@ -2608,10 +2608,10 @@
         <v>3.3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
         <v>1.29</v>
@@ -2724,28 +2724,28 @@
         <v>2.35</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
         <v>2.8</v>
       </c>
       <c r="J19" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L19" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="P19" t="n">
         <v>1.25</v>
@@ -2760,7 +2760,7 @@
         <v>2.63</v>
       </c>
       <c r="T19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U19" t="n">
         <v>15</v>
@@ -2775,7 +2775,7 @@
         <v>17</v>
       </c>
       <c r="Y19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="n">
         <v>19</v>
@@ -2790,13 +2790,13 @@
         <v>29</v>
       </c>
       <c r="AD19" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
@@ -2980,16 +2980,16 @@
         <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="O21" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="P21" t="n">
         <v>1.36</v>
@@ -3087,25 +3087,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K22" t="n">
+        <v>8</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M22" t="n">
         <v>3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3.2</v>
       </c>
       <c r="N22" t="n">
         <v>2.2</v>
@@ -3132,7 +3132,7 @@
         <v>11</v>
       </c>
       <c r="V22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W22" t="n">
         <v>23</v>
@@ -3212,28 +3212,28 @@
         <v>2.15</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
         <v>3.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
@@ -3242,13 +3242,13 @@
         <v>2.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U23" t="n">
         <v>10</v>
@@ -3263,25 +3263,25 @@
         <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA23" t="n">
         <v>6</v>
       </c>
       <c r="AB23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF23" t="n">
         <v>17</v>
@@ -3293,7 +3293,7 @@
         <v>41</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ23" t="n">
         <v>34</v>
@@ -3453,19 +3453,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L25" t="n">
         <v>1.25</v>
@@ -3492,10 +3492,10 @@
         <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V25" t="n">
         <v>8.5</v>
@@ -3537,10 +3537,10 @@
         <v>41</v>
       </c>
       <c r="AI25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
@@ -3575,10 +3575,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
         <v>2.45</v>
@@ -3596,61 +3596,61 @@
         <v>4.5</v>
       </c>
       <c r="N26" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P26" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S26" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U26" t="n">
         <v>15</v>
       </c>
       <c r="V26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W26" t="n">
         <v>29</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD26" t="n">
         <v>126</v>
       </c>
       <c r="AE26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
         <v>9.5</v>
@@ -3659,10 +3659,10 @@
         <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -3697,13 +3697,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="n">
         <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J27" t="n">
         <v>1.13</v>
@@ -3769,7 +3769,7 @@
         <v>501</v>
       </c>
       <c r="AE27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF27" t="n">
         <v>21</v>
@@ -3819,13 +3819,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J28" t="n">
         <v>1.06</v>
@@ -3834,16 +3834,16 @@
         <v>10</v>
       </c>
       <c r="L28" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N28" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="O28" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="P28" t="n">
         <v>1.4</v>
@@ -3861,7 +3861,7 @@
         <v>7</v>
       </c>
       <c r="U28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
@@ -3873,7 +3873,7 @@
         <v>15</v>
       </c>
       <c r="Y28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z28" t="n">
         <v>9.5</v>
@@ -3894,16 +3894,16 @@
         <v>12</v>
       </c>
       <c r="AF28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG28" t="n">
         <v>15</v>
       </c>
       <c r="AH28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ28" t="n">
         <v>41</v>
@@ -4084,10 +4084,10 @@
         <v>3.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="P30" t="n">
         <v>1.36</v>
@@ -4189,13 +4189,13 @@
         <v>3.7</v>
       </c>
       <c r="I31" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
         <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L31" t="n">
         <v>1.33</v>
@@ -4231,7 +4231,7 @@
         <v>8.5</v>
       </c>
       <c r="W31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X31" t="n">
         <v>15</v>
@@ -4255,7 +4255,7 @@
         <v>351</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
         <v>26</v>
@@ -4308,74 +4308,74 @@
         <v>2.45</v>
       </c>
       <c r="H32" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="K32" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M32" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P32" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R32" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="S32" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="T32" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U32" t="n">
         <v>9.5</v>
       </c>
       <c r="V32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W32" t="n">
         <v>23</v>
       </c>
       <c r="X32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z32" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AA32" t="n">
         <v>6</v>
       </c>
       <c r="AB32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF32" t="n">
         <v>15</v>
@@ -4545,13 +4545,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J34" t="n">
         <v>1.08</v>
@@ -4566,10 +4566,10 @@
         <v>2.63</v>
       </c>
       <c r="N34" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O34" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P34" t="n">
         <v>1.5</v>
@@ -4587,16 +4587,16 @@
         <v>5.5</v>
       </c>
       <c r="U34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y34" t="n">
         <v>41</v>
@@ -4605,7 +4605,7 @@
         <v>7</v>
       </c>
       <c r="AA34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB34" t="n">
         <v>21</v>
@@ -4621,7 +4621,7 @@
         <v>21</v>
       </c>
       <c r="AG34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH34" t="n">
         <v>51</v>
@@ -4665,37 +4665,37 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K35" t="n">
         <v>8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="M35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q35" t="n">
         <v>2.5</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.38</v>
       </c>
       <c r="R35" t="n">
         <v>2.2</v>
@@ -4707,7 +4707,7 @@
         <v>5.5</v>
       </c>
       <c r="U35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V35" t="n">
         <v>9.5</v>
@@ -4716,16 +4716,16 @@
         <v>17</v>
       </c>
       <c r="X35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y35" t="n">
         <v>41</v>
       </c>
       <c r="Z35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA35" t="n">
         <v>7</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>6.5</v>
       </c>
       <c r="AB35" t="n">
         <v>21</v>
@@ -4735,10 +4735,10 @@
       </c>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG35" t="n">
         <v>13</v>
@@ -4794,13 +4794,13 @@
         <v>3.6</v>
       </c>
       <c r="J36" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K36" t="n">
         <v>5.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M36" t="n">
         <v>2.1</v>
@@ -4914,13 +4914,13 @@
         <v>4.1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K37" t="n">
         <v>5.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="M37" t="n">
         <v>2.2</v>
@@ -5034,13 +5034,13 @@
         <v>6</v>
       </c>
       <c r="J38" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="K38" t="n">
         <v>5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M38" t="n">
         <v>2.1</v>
@@ -5154,13 +5154,13 @@
         <v>2.8</v>
       </c>
       <c r="J39" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="K39" t="n">
         <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
@@ -5274,13 +5274,13 @@
         <v>3.9</v>
       </c>
       <c r="J40" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K40" t="n">
         <v>5.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="M40" t="n">
         <v>2.2</v>
@@ -5397,7 +5397,7 @@
         <v>1.03</v>
       </c>
       <c r="K41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L41" t="n">
         <v>1.17</v>
@@ -5406,10 +5406,10 @@
         <v>5</v>
       </c>
       <c r="N41" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O41" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="P41" t="n">
         <v>1.25</v>
@@ -5418,10 +5418,10 @@
         <v>3.75</v>
       </c>
       <c r="R41" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S41" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T41" t="n">
         <v>12</v>
@@ -5433,7 +5433,7 @@
         <v>9.5</v>
       </c>
       <c r="W41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X41" t="n">
         <v>15</v>
@@ -5448,13 +5448,13 @@
         <v>7</v>
       </c>
       <c r="AB41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC41" t="n">
         <v>29</v>
       </c>
       <c r="AD41" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE41" t="n">
         <v>15</v>
@@ -5507,22 +5507,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H42" t="n">
         <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J42" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K42" t="n">
         <v>11</v>
       </c>
       <c r="L42" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M42" t="n">
         <v>3.75</v>
@@ -5546,7 +5546,7 @@
         <v>2.05</v>
       </c>
       <c r="T42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U42" t="n">
         <v>13</v>
@@ -5555,13 +5555,13 @@
         <v>10</v>
       </c>
       <c r="W42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z42" t="n">
         <v>11</v>
@@ -5579,16 +5579,16 @@
         <v>151</v>
       </c>
       <c r="AE42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG42" t="n">
         <v>10</v>
       </c>
-      <c r="AF42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>11</v>
-      </c>
       <c r="AH42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI42" t="n">
         <v>21</v>
@@ -5638,22 +5638,22 @@
         <v>4.2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L43" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M43" t="n">
         <v>3.25</v>
       </c>
       <c r="N43" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O43" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P43" t="n">
         <v>1.44</v>
@@ -5760,13 +5760,13 @@
         <v>4.33</v>
       </c>
       <c r="J44" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K44" t="n">
         <v>13</v>
       </c>
       <c r="L44" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
@@ -5909,7 +5909,7 @@
         <v>1.6</v>
       </c>
       <c r="S45" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T45" t="n">
         <v>9.75</v>
@@ -5924,7 +5924,7 @@
         <v>24</v>
       </c>
       <c r="X45" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y45" t="n">
         <v>24</v>
@@ -5939,7 +5939,7 @@
         <v>12.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD45" t="n">
         <v>300</v>
@@ -5954,13 +5954,13 @@
         <v>9.75</v>
       </c>
       <c r="AH45" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI45" t="n">
         <v>20</v>
       </c>
       <c r="AJ45" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
@@ -6548,22 +6548,22 @@
         <v>1.57</v>
       </c>
       <c r="J52" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L52" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M52" t="n">
         <v>4.5</v>
       </c>
       <c r="N52" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O52" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P52" t="n">
         <v>1.29</v>
@@ -6670,13 +6670,13 @@
         <v>2.15</v>
       </c>
       <c r="J53" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K53" t="n">
         <v>13</v>
       </c>
       <c r="L53" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
@@ -6792,13 +6792,13 @@
         <v>2.1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K54" t="n">
         <v>9.5</v>
       </c>
       <c r="L54" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M54" t="n">
         <v>3.4</v>
@@ -6917,13 +6917,13 @@
         <v>1.03</v>
       </c>
       <c r="K55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L55" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N55" t="n">
         <v>1.7</v>
@@ -7042,10 +7042,10 @@
         <v>13</v>
       </c>
       <c r="L56" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M56" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N56" t="n">
         <v>1.75</v>
@@ -7060,10 +7060,10 @@
         <v>3.25</v>
       </c>
       <c r="R56" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S56" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -7182,7 +7182,7 @@
         <v>3.75</v>
       </c>
       <c r="R57" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S57" t="n">
         <v>2.25</v>
@@ -7292,10 +7292,10 @@
         <v>3.75</v>
       </c>
       <c r="N58" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="O58" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="P58" t="n">
         <v>1.36</v>
@@ -7304,7 +7304,7 @@
         <v>3</v>
       </c>
       <c r="R58" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S58" t="n">
         <v>2</v>
@@ -7764,10 +7764,10 @@
         <v>1.75</v>
       </c>
       <c r="P62" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R62" t="n">
         <v>2.05</v>
@@ -7871,7 +7871,7 @@
         <v>1.07</v>
       </c>
       <c r="K63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L63" t="n">
         <v>1.36</v>
@@ -7880,16 +7880,16 @@
         <v>3.2</v>
       </c>
       <c r="N63" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O63" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P63" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R63" t="n">
         <v>1.91</v>
@@ -7910,10 +7910,10 @@
         <v>21</v>
       </c>
       <c r="X63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y63" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z63" t="n">
         <v>8.5</v>
@@ -7946,7 +7946,7 @@
         <v>26</v>
       </c>
       <c r="AJ63" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
@@ -8002,10 +8002,10 @@
         <v>3.2</v>
       </c>
       <c r="N64" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O64" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P64" t="n">
         <v>1.44</v>
@@ -8112,10 +8112,10 @@
         <v>3.9</v>
       </c>
       <c r="J65" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K65" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L65" t="n">
         <v>1.44</v>
@@ -8124,10 +8124,10 @@
         <v>2.75</v>
       </c>
       <c r="N65" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O65" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P65" t="n">
         <v>1.5</v>
@@ -8160,7 +8160,7 @@
         <v>34</v>
       </c>
       <c r="Z65" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA65" t="n">
         <v>6.5</v>
@@ -8234,10 +8234,10 @@
         <v>9.5</v>
       </c>
       <c r="J66" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L66" t="n">
         <v>1.29</v>
@@ -8246,10 +8246,10 @@
         <v>3.75</v>
       </c>
       <c r="N66" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="O66" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="P66" t="n">
         <v>1.36</v>
@@ -8276,7 +8276,7 @@
         <v>8.5</v>
       </c>
       <c r="X66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y66" t="n">
         <v>34</v>
@@ -8303,7 +8303,7 @@
         <v>41</v>
       </c>
       <c r="AG66" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH66" t="n">
         <v>101</v>
@@ -8469,28 +8469,28 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H68" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I68" t="n">
-        <v>4.55</v>
+        <v>4.85</v>
       </c>
       <c r="J68" t="n">
         <v>1.09</v>
       </c>
       <c r="K68" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L68" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M68" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="N68" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O68" t="n">
         <v>1.6</v>
@@ -8499,64 +8499,64 @@
         <v>1.47</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R68" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S68" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T68" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="U68" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="V68" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W68" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="X68" t="n">
         <v>16</v>
       </c>
       <c r="Y68" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z68" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AA68" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AB68" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AC68" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD68" t="n">
         <v>900</v>
       </c>
       <c r="AE68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF68" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG68" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH68" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="n">
         <v>55</v>
       </c>
       <c r="AJ68" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69">
@@ -8833,19 +8833,19 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H71" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J71" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L71" t="n">
         <v>1.33</v>
@@ -8881,19 +8881,19 @@
         <v>12</v>
       </c>
       <c r="W71" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X71" t="n">
         <v>29</v>
       </c>
       <c r="Y71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z71" t="n">
         <v>9</v>
       </c>
       <c r="AA71" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB71" t="n">
         <v>15</v>
@@ -8914,10 +8914,10 @@
         <v>9</v>
       </c>
       <c r="AH71" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI71" t="n">
         <v>19</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>17</v>
       </c>
       <c r="AJ71" t="n">
         <v>29</v>
@@ -8964,10 +8964,10 @@
         <v>5.25</v>
       </c>
       <c r="J72" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K72" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L72" t="n">
         <v>1.36</v>
@@ -9565,13 +9565,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="H77" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I77" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J77" t="n">
         <v>1.02</v>
@@ -9610,7 +9610,7 @@
         <v>8</v>
       </c>
       <c r="V77" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W77" t="n">
         <v>9.5</v>
@@ -9628,10 +9628,10 @@
         <v>11</v>
       </c>
       <c r="AB77" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC77" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD77" t="n">
         <v>151</v>
@@ -9649,7 +9649,7 @@
         <v>81</v>
       </c>
       <c r="AI77" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ77" t="n">
         <v>41</v>
@@ -9687,13 +9687,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H78" t="n">
         <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="J78" t="n">
         <v>1.02</v>
@@ -9717,13 +9717,13 @@
         <v>1.22</v>
       </c>
       <c r="Q78" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R78" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S78" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T78" t="n">
         <v>23</v>
@@ -9738,7 +9738,7 @@
         <v>81</v>
       </c>
       <c r="X78" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y78" t="n">
         <v>41</v>
@@ -9759,10 +9759,10 @@
         <v>151</v>
       </c>
       <c r="AE78" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF78" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG78" t="n">
         <v>8.5</v>
@@ -9809,7 +9809,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="H79" t="n">
         <v>4.2</v>
@@ -9836,7 +9836,7 @@
         <v>2.88</v>
       </c>
       <c r="P79" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="Q79" t="n">
         <v>4</v>
@@ -9931,13 +9931,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="H80" t="n">
         <v>6.5</v>
       </c>
       <c r="I80" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J80" t="n">
         <v>1.02</v>
@@ -9961,7 +9961,7 @@
         <v>1.22</v>
       </c>
       <c r="Q80" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R80" t="n">
         <v>2.05</v>
@@ -10003,16 +10003,16 @@
         <v>401</v>
       </c>
       <c r="AE80" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF80" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG80" t="n">
         <v>34</v>
       </c>
       <c r="AH80" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AI80" t="n">
         <v>81</v>
@@ -10525,13 +10525,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H85" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I85" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J85" t="n">
         <v>1.14</v>
@@ -10552,28 +10552,28 @@
         <v>1.36</v>
       </c>
       <c r="P85" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R85" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S85" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T85" t="n">
         <v>6.5</v>
       </c>
       <c r="U85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V85" t="n">
         <v>13</v>
       </c>
       <c r="W85" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X85" t="n">
         <v>34</v>
@@ -10595,22 +10595,22 @@
       </c>
       <c r="AD85" t="inlineStr"/>
       <c r="AE85" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF85" t="n">
         <v>12</v>
       </c>
       <c r="AG85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH85" t="n">
         <v>29</v>
       </c>
       <c r="AI85" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ85" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86">
@@ -10672,7 +10672,7 @@
         <v>1.53</v>
       </c>
       <c r="P86" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q86" t="n">
         <v>2.5</v>
@@ -10767,7 +10767,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H87" t="n">
         <v>4</v>
@@ -10794,10 +10794,10 @@
         <v>1.65</v>
       </c>
       <c r="P87" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R87" t="n">
         <v>2.5</v>
@@ -10812,7 +10812,7 @@
         <v>5.5</v>
       </c>
       <c r="V87" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W87" t="n">
         <v>9</v>
@@ -10889,13 +10889,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H88" t="n">
         <v>3.4</v>
       </c>
       <c r="I88" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -10920,16 +10920,16 @@
         <v>2.15</v>
       </c>
       <c r="T88" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="U88" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V88" t="n">
         <v>12.5</v>
       </c>
       <c r="W88" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="X88" t="n">
         <v>32</v>
@@ -10953,22 +10953,22 @@
         <v>300</v>
       </c>
       <c r="AE88" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF88" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG88" t="n">
         <v>8</v>
       </c>
       <c r="AH88" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI88" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ88" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
@@ -11003,10 +11003,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="H89" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I89" t="n">
         <v>3.7</v>
@@ -11026,28 +11026,28 @@
         <v>1.5</v>
       </c>
       <c r="P89" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="R89" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S89" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T89" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="U89" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="V89" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W89" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X89" t="n">
         <v>21</v>
@@ -11056,13 +11056,13 @@
         <v>35</v>
       </c>
       <c r="Z89" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AA89" t="n">
         <v>5.3</v>
       </c>
       <c r="AB89" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC89" t="n">
         <v>80</v>
@@ -11071,10 +11071,10 @@
         <v>700</v>
       </c>
       <c r="AE89" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF89" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG89" t="n">
         <v>12.5</v>
@@ -11121,13 +11121,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H90" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I90" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -11150,40 +11150,40 @@
         <v>2.42</v>
       </c>
       <c r="R90" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S90" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T90" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="U90" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V90" t="n">
         <v>8.5</v>
       </c>
       <c r="W90" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="X90" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y90" t="n">
         <v>29</v>
       </c>
       <c r="Z90" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA90" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB90" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC90" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD90" t="n">
         <v>700</v>
@@ -11195,13 +11195,13 @@
         <v>21</v>
       </c>
       <c r="AG90" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH90" t="n">
         <v>60</v>
       </c>
       <c r="AI90" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ90" t="n">
         <v>45</v>
@@ -11248,16 +11248,16 @@
         <v>1.6</v>
       </c>
       <c r="J91" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K91" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L91" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M91" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N91" t="n">
         <v>2.35</v>
@@ -11359,31 +11359,31 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>6.25</v>
       </c>
       <c r="I92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J92" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K92" t="n">
         <v>19</v>
       </c>
       <c r="L92" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M92" t="n">
         <v>5.5</v>
       </c>
       <c r="N92" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O92" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P92" t="n">
         <v>1.25</v>
@@ -11398,16 +11398,16 @@
         <v>1.67</v>
       </c>
       <c r="T92" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U92" t="n">
         <v>6.5</v>
       </c>
       <c r="V92" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W92" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X92" t="n">
         <v>11</v>
@@ -11422,31 +11422,31 @@
         <v>12</v>
       </c>
       <c r="AB92" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC92" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD92" t="n">
         <v>351</v>
       </c>
       <c r="AE92" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF92" t="n">
         <v>51</v>
       </c>
       <c r="AG92" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH92" t="n">
         <v>151</v>
       </c>
       <c r="AI92" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ92" t="n">
         <v>67</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="93">
@@ -11481,92 +11481,92 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H93" t="n">
         <v>3.3</v>
       </c>
       <c r="I93" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="J93" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L93" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M93" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N93" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R93" t="n">
         <v>2.25</v>
       </c>
-      <c r="O93" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P93" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R93" t="n">
-        <v>2.1</v>
-      </c>
       <c r="S93" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T93" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U93" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V93" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W93" t="n">
+        <v>51</v>
+      </c>
+      <c r="X93" t="n">
         <v>41</v>
       </c>
-      <c r="X93" t="n">
-        <v>34</v>
-      </c>
       <c r="Y93" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA93" t="n">
         <v>7</v>
       </c>
       <c r="AB93" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC93" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD93" t="inlineStr"/>
       <c r="AE93" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF93" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AG93" t="n">
         <v>9.5</v>
       </c>
       <c r="AH93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI93" t="n">
         <v>19</v>
       </c>
       <c r="AJ93" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94">
@@ -11610,13 +11610,13 @@
         <v>3.1</v>
       </c>
       <c r="J94" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K94" t="n">
         <v>8.5</v>
       </c>
       <c r="L94" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
@@ -11786,16 +11786,16 @@
         <v>2.25</v>
       </c>
       <c r="H96" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I96" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
         <v>1.04</v>
       </c>
       <c r="K96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L96" t="n">
         <v>1.25</v>
@@ -11816,34 +11816,34 @@
         <v>3</v>
       </c>
       <c r="R96" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S96" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T96" t="n">
+        <v>8</v>
+      </c>
+      <c r="U96" t="n">
+        <v>12</v>
+      </c>
+      <c r="V96" t="n">
         <v>8.5</v>
       </c>
-      <c r="U96" t="n">
-        <v>11</v>
-      </c>
-      <c r="V96" t="n">
-        <v>9</v>
-      </c>
       <c r="W96" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X96" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y96" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA96" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB96" t="n">
         <v>13</v>
@@ -11855,7 +11855,7 @@
         <v>201</v>
       </c>
       <c r="AE96" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF96" t="n">
         <v>15</v>
@@ -12030,7 +12030,7 @@
         <v>1.45</v>
       </c>
       <c r="H98" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I98" t="n">
         <v>7.5</v>
@@ -12060,10 +12060,10 @@
         <v>3</v>
       </c>
       <c r="R98" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S98" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T98" t="n">
         <v>6</v>
@@ -12096,7 +12096,7 @@
         <v>67</v>
       </c>
       <c r="AD98" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE98" t="n">
         <v>15</v>
@@ -12170,10 +12170,10 @@
         <v>3.75</v>
       </c>
       <c r="N99" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O99" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P99" t="n">
         <v>1.36</v>
@@ -12771,7 +12771,7 @@
         <v>1.07</v>
       </c>
       <c r="K104" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L104" t="n">
         <v>1.36</v>
@@ -12881,19 +12881,19 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I105" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J105" t="n">
         <v>1.06</v>
       </c>
       <c r="K105" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L105" t="n">
         <v>1.29</v>
@@ -12902,10 +12902,10 @@
         <v>3.5</v>
       </c>
       <c r="N105" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O105" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P105" t="n">
         <v>1.36</v>
@@ -12914,16 +12914,16 @@
         <v>3</v>
       </c>
       <c r="R105" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S105" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
       </c>
       <c r="U105" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V105" t="n">
         <v>8.5</v>
@@ -12938,7 +12938,7 @@
         <v>26</v>
       </c>
       <c r="Z105" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA105" t="n">
         <v>6.5</v>
@@ -12956,7 +12956,7 @@
         <v>13</v>
       </c>
       <c r="AF105" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG105" t="n">
         <v>17</v>
@@ -13245,19 +13245,19 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H108" t="n">
         <v>3.1</v>
       </c>
       <c r="I108" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J108" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K108" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L108" t="n">
         <v>1.36</v>
@@ -13296,7 +13296,7 @@
         <v>21</v>
       </c>
       <c r="X108" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y108" t="n">
         <v>34</v>
@@ -13320,7 +13320,7 @@
         <v>9</v>
       </c>
       <c r="AF108" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG108" t="n">
         <v>12</v>
@@ -13544,10 +13544,10 @@
         <v>8</v>
       </c>
       <c r="J111" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K111" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L111" t="n">
         <v>1.17</v>
@@ -14014,79 +14014,79 @@
         <v>2.95</v>
       </c>
       <c r="H115" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I115" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O115" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="S115" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="T115" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="U115" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="V115" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W115" t="n">
         <v>37</v>
       </c>
       <c r="X115" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y115" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z115" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AA115" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AB115" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AC115" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AD115" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AE115" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF115" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF115" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AG115" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH115" t="n">
         <v>21</v>
       </c>
       <c r="AI115" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ115" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116">
@@ -14255,7 +14255,7 @@
         <v>1.03</v>
       </c>
       <c r="K117" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L117" t="n">
         <v>1.18</v>
@@ -14365,13 +14365,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H118" t="n">
         <v>3.75</v>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J118" t="n">
         <v>1.03</v>
@@ -14398,25 +14398,25 @@
         <v>3.5</v>
       </c>
       <c r="R118" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S118" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T118" t="n">
         <v>10</v>
       </c>
       <c r="U118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V118" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W118" t="n">
         <v>21</v>
       </c>
       <c r="X118" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y118" t="n">
         <v>21</v>
@@ -14428,7 +14428,7 @@
         <v>7.5</v>
       </c>
       <c r="AB118" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC118" t="n">
         <v>41</v>
@@ -14437,7 +14437,7 @@
         <v>126</v>
       </c>
       <c r="AE118" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF118" t="n">
         <v>17</v>
@@ -14446,7 +14446,7 @@
         <v>11</v>
       </c>
       <c r="AH118" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI118" t="n">
         <v>21</v>
@@ -14514,10 +14514,10 @@
         <v>2.6</v>
       </c>
       <c r="P119" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q119" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R119" t="n">
         <v>1.57</v>
@@ -14547,7 +14547,7 @@
         <v>19</v>
       </c>
       <c r="AA119" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB119" t="n">
         <v>13</v>
@@ -14618,10 +14618,10 @@
         <v>6.5</v>
       </c>
       <c r="J120" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K120" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L120" t="n">
         <v>1.25</v>
@@ -14630,7 +14630,7 @@
         <v>3.75</v>
       </c>
       <c r="N120" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O120" t="n">
         <v>2</v>
@@ -14731,13 +14731,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H121" t="n">
         <v>3.7</v>
       </c>
       <c r="I121" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J121" t="n">
         <v>1.02</v>
@@ -14752,22 +14752,22 @@
         <v>5.5</v>
       </c>
       <c r="N121" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O121" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P121" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q121" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R121" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S121" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T121" t="n">
         <v>17</v>
@@ -14782,13 +14782,13 @@
         <v>34</v>
       </c>
       <c r="X121" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y121" t="n">
         <v>23</v>
       </c>
       <c r="Z121" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA121" t="n">
         <v>8</v>
@@ -14803,13 +14803,13 @@
         <v>81</v>
       </c>
       <c r="AE121" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF121" t="n">
         <v>13</v>
       </c>
       <c r="AG121" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH121" t="n">
         <v>21</v>
@@ -14853,13 +14853,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H122" t="n">
         <v>3.2</v>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J122" t="n">
         <v>1.04</v>
@@ -14895,7 +14895,7 @@
         <v>15</v>
       </c>
       <c r="U122" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V122" t="n">
         <v>13</v>
@@ -14907,10 +14907,10 @@
         <v>29</v>
       </c>
       <c r="Y122" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA122" t="n">
         <v>6.5</v>
@@ -14925,7 +14925,7 @@
         <v>126</v>
       </c>
       <c r="AE122" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF122" t="n">
         <v>11</v>
@@ -14934,7 +14934,7 @@
         <v>9</v>
       </c>
       <c r="AH122" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI122" t="n">
         <v>15</v>
@@ -15097,94 +15097,94 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="H124" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="I124" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="J124" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K124" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L124" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M124" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N124" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O124" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="P124" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q124" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R124" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S124" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T124" t="n">
         <v>7.5</v>
       </c>
       <c r="U124" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V124" t="n">
         <v>8.5</v>
       </c>
       <c r="W124" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X124" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y124" t="n">
         <v>26</v>
       </c>
       <c r="Z124" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA124" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB124" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC124" t="n">
         <v>51</v>
       </c>
       <c r="AD124" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE124" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF124" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG124" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH124" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI124" t="n">
         <v>51</v>
       </c>
-      <c r="AI124" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ124" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125">
@@ -15463,13 +15463,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H127" t="n">
         <v>3.9</v>
       </c>
       <c r="I127" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J127" t="n">
         <v>1.02</v>
@@ -15505,7 +15505,7 @@
         <v>12</v>
       </c>
       <c r="U127" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V127" t="n">
         <v>9</v>
@@ -15538,10 +15538,10 @@
         <v>17</v>
       </c>
       <c r="AF127" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH127" t="n">
         <v>41</v>
@@ -15588,7 +15588,7 @@
         <v>1.38</v>
       </c>
       <c r="H128" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I128" t="n">
         <v>6.5</v>
@@ -15612,22 +15612,22 @@
         <v>2.7</v>
       </c>
       <c r="P128" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q128" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R128" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S128" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T128" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U128" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V128" t="n">
         <v>8.5</v>
@@ -15642,10 +15642,10 @@
         <v>21</v>
       </c>
       <c r="Z128" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB128" t="n">
         <v>17</v>
@@ -15657,7 +15657,7 @@
         <v>151</v>
       </c>
       <c r="AE128" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF128" t="n">
         <v>41</v>
@@ -15707,13 +15707,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H129" t="n">
         <v>3.1</v>
       </c>
       <c r="I129" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J129" t="n">
         <v>1.07</v>
@@ -15749,10 +15749,10 @@
         <v>8.5</v>
       </c>
       <c r="U129" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V129" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W129" t="n">
         <v>29</v>
@@ -15761,7 +15761,7 @@
         <v>26</v>
       </c>
       <c r="Y129" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z129" t="n">
         <v>8</v>
@@ -15972,10 +15972,10 @@
         <v>4.33</v>
       </c>
       <c r="N131" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O131" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P131" t="n">
         <v>1.3</v>
@@ -16808,16 +16808,16 @@
         <v>1.67</v>
       </c>
       <c r="H138" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I138" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J138" t="n">
         <v>1.06</v>
       </c>
       <c r="K138" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L138" t="n">
         <v>1.33</v>
@@ -16832,10 +16832,10 @@
         <v>1.75</v>
       </c>
       <c r="P138" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q138" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R138" t="n">
         <v>2</v>
@@ -16844,7 +16844,7 @@
         <v>1.75</v>
       </c>
       <c r="T138" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U138" t="n">
         <v>7.5</v>
@@ -16853,7 +16853,7 @@
         <v>8.5</v>
       </c>
       <c r="W138" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X138" t="n">
         <v>15</v>
@@ -16862,10 +16862,10 @@
         <v>29</v>
       </c>
       <c r="Z138" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA138" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB138" t="n">
         <v>19</v>
@@ -16874,13 +16874,13 @@
         <v>67</v>
       </c>
       <c r="AD138" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE138" t="n">
         <v>12</v>
       </c>
       <c r="AF138" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG138" t="n">
         <v>17</v>
@@ -16892,7 +16892,7 @@
         <v>41</v>
       </c>
       <c r="AJ138" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139">
@@ -17049,13 +17049,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H140" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I140" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J140" t="n">
         <v>1.04</v>
@@ -17064,10 +17064,10 @@
         <v>13</v>
       </c>
       <c r="L140" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M140" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N140" t="n">
         <v>1.7</v>
@@ -17103,13 +17103,13 @@
         <v>13</v>
       </c>
       <c r="Y140" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z140" t="n">
         <v>13</v>
       </c>
       <c r="AA140" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB140" t="n">
         <v>13</v>
@@ -17121,10 +17121,10 @@
         <v>151</v>
       </c>
       <c r="AE140" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF140" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG140" t="n">
         <v>13</v>
@@ -17180,13 +17180,13 @@
         <v>3.4</v>
       </c>
       <c r="J141" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K141" t="n">
         <v>13</v>
       </c>
       <c r="L141" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M141" t="n">
         <v>4</v>
@@ -17293,22 +17293,22 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H142" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I142" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J142" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K142" t="n">
         <v>17</v>
       </c>
       <c r="L142" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M142" t="n">
         <v>5</v>
@@ -17341,7 +17341,7 @@
         <v>15</v>
       </c>
       <c r="W142" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X142" t="n">
         <v>29</v>
@@ -17353,7 +17353,7 @@
         <v>17</v>
       </c>
       <c r="AA142" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB142" t="n">
         <v>13</v>
@@ -17377,7 +17377,7 @@
         <v>15</v>
       </c>
       <c r="AI142" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ142" t="n">
         <v>19</v>
@@ -17537,13 +17537,13 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H144" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="I144" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J144" t="n">
         <v>1.02</v>
@@ -17564,22 +17564,22 @@
         <v>3.3</v>
       </c>
       <c r="P144" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="Q144" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="R144" t="n">
         <v>1.32</v>
       </c>
       <c r="S144" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T144" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="U144" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V144" t="n">
         <v>9.25</v>
@@ -17606,13 +17606,13 @@
         <v>25</v>
       </c>
       <c r="AD144" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AE144" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF144" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG144" t="n">
         <v>14.5</v>
@@ -17621,10 +17621,10 @@
         <v>65</v>
       </c>
       <c r="AI144" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ144" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145">
@@ -17902,10 +17902,10 @@
         <v>3</v>
       </c>
       <c r="H147" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I147" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -17927,13 +17927,13 @@
         <v>1.57</v>
       </c>
       <c r="S147" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T147" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="U147" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V147" t="n">
         <v>10.5</v>
@@ -17942,19 +17942,19 @@
         <v>40</v>
       </c>
       <c r="X147" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y147" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z147" t="n">
         <v>11.25</v>
       </c>
       <c r="AA147" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB147" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC147" t="n">
         <v>45</v>
@@ -17975,7 +17975,7 @@
         <v>23</v>
       </c>
       <c r="AI147" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ147" t="n">
         <v>24</v>
@@ -18253,7 +18253,7 @@
         <v>1.04</v>
       </c>
       <c r="K150" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L150" t="n">
         <v>1.22</v>
@@ -18262,10 +18262,10 @@
         <v>4</v>
       </c>
       <c r="N150" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O150" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P150" t="n">
         <v>1.33</v>
@@ -18396,10 +18396,10 @@
         <v>2.63</v>
       </c>
       <c r="R151" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S151" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T151" t="n">
         <v>9.5</v>
@@ -18494,10 +18494,10 @@
         <v>2.05</v>
       </c>
       <c r="J152" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K152" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L152" t="n">
         <v>1.44</v>
@@ -18521,7 +18521,7 @@
         <v>2</v>
       </c>
       <c r="S152" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T152" t="n">
         <v>9</v>
@@ -18738,10 +18738,10 @@
         <v>7</v>
       </c>
       <c r="J154" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K154" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L154" t="n">
         <v>1.25</v>
@@ -18857,7 +18857,7 @@
         <v>3.45</v>
       </c>
       <c r="I155" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="J155" t="n">
         <v>1.08</v>
@@ -18890,7 +18890,7 @@
         <v>1.7</v>
       </c>
       <c r="T155" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="U155" t="n">
         <v>7.1</v>
@@ -18902,7 +18902,7 @@
         <v>12.5</v>
       </c>
       <c r="X155" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y155" t="n">
         <v>35</v>
@@ -18929,7 +18929,7 @@
         <v>24</v>
       </c>
       <c r="AG155" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH155" t="n">
         <v>80</v>
@@ -19220,46 +19220,46 @@
         <v>3.25</v>
       </c>
       <c r="H158" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I158" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J158" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K158" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="L158" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="M158" t="n">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="N158" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="O158" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P158" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="R158" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S158" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="T158" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U158" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="V158" t="n">
         <v>11.75</v>
@@ -19271,40 +19271,40 @@
         <v>32</v>
       </c>
       <c r="Y158" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z158" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AA158" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB158" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC158" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD158" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE158" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF158" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AG158" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH158" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI158" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AJ158" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159">
@@ -19348,76 +19348,76 @@
         <v>2.12</v>
       </c>
       <c r="J159" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K159" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L159" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M159" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="N159" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="O159" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="P159" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R159" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="S159" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="T159" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="U159" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="V159" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="W159" t="n">
         <v>40</v>
       </c>
       <c r="X159" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y159" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z159" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AA159" t="n">
         <v>6.3</v>
       </c>
       <c r="AB159" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC159" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD159" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE159" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AF159" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AG159" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH159" t="n">
         <v>20</v>
@@ -19426,7 +19426,7 @@
         <v>18</v>
       </c>
       <c r="AJ159" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160">
@@ -19461,13 +19461,13 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H160" t="n">
         <v>2.88</v>
       </c>
       <c r="I160" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J160" t="n">
         <v>1.13</v>
@@ -19500,10 +19500,10 @@
         <v>1.57</v>
       </c>
       <c r="T160" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U160" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V160" t="n">
         <v>11</v>
@@ -19512,7 +19512,7 @@
         <v>26</v>
       </c>
       <c r="X160" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y160" t="n">
         <v>41</v>
@@ -19703,13 +19703,13 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H162" t="n">
         <v>3.25</v>
       </c>
       <c r="I162" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J162" t="n">
         <v>1.08</v>
@@ -19730,10 +19730,10 @@
         <v>1.53</v>
       </c>
       <c r="P162" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R162" t="n">
         <v>2.1</v>
@@ -19748,7 +19748,7 @@
         <v>8</v>
       </c>
       <c r="V162" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W162" t="n">
         <v>17</v>
@@ -19757,7 +19757,7 @@
         <v>19</v>
       </c>
       <c r="Y162" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z162" t="n">
         <v>7</v>
@@ -19778,13 +19778,13 @@
         <v>9</v>
       </c>
       <c r="AF162" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG162" t="n">
         <v>15</v>
       </c>
       <c r="AH162" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI162" t="n">
         <v>41</v>
@@ -19825,13 +19825,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H163" t="n">
         <v>3.4</v>
       </c>
       <c r="I163" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J163" t="n">
         <v>1.06</v>
@@ -19873,7 +19873,7 @@
         <v>10</v>
       </c>
       <c r="W163" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X163" t="n">
         <v>21</v>
@@ -19900,13 +19900,13 @@
         <v>8</v>
       </c>
       <c r="AF163" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG163" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH163" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI163" t="n">
         <v>23</v>
@@ -20265,10 +20265,10 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H167" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I167" t="n">
         <v>4.2</v>
@@ -20286,10 +20286,10 @@
         <v>4.5</v>
       </c>
       <c r="N167" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O167" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P167" t="n">
         <v>1.29</v>
@@ -20304,22 +20304,22 @@
         <v>2.25</v>
       </c>
       <c r="T167" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U167" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V167" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="W167" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X167" t="n">
         <v>13</v>
       </c>
       <c r="Y167" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z167" t="n">
         <v>15</v>
@@ -20328,7 +20328,7 @@
         <v>7.5</v>
       </c>
       <c r="AB167" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC167" t="n">
         <v>41</v>
@@ -20883,13 +20883,13 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H176" t="n">
         <v>3.2</v>
       </c>
       <c r="I176" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J176" t="n">
         <v>1.08</v>
@@ -20922,7 +20922,7 @@
         <v>1.73</v>
       </c>
       <c r="T176" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U176" t="n">
         <v>15</v>
@@ -20961,7 +20961,7 @@
         <v>10</v>
       </c>
       <c r="AG176" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH176" t="n">
         <v>21</v>
@@ -21005,13 +21005,13 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H177" t="n">
         <v>3.1</v>
       </c>
       <c r="I177" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J177" t="n">
         <v>1.08</v>
@@ -21047,7 +21047,7 @@
         <v>6.5</v>
       </c>
       <c r="U177" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V177" t="n">
         <v>9.5</v>
@@ -21077,7 +21077,7 @@
         <v>351</v>
       </c>
       <c r="AE177" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF177" t="n">
         <v>17</v>
@@ -21089,7 +21089,7 @@
         <v>41</v>
       </c>
       <c r="AI177" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ177" t="n">
         <v>41</v>
@@ -21251,13 +21251,13 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H180" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I180" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J180" t="n">
         <v>1.04</v>
@@ -21299,7 +21299,7 @@
         <v>10</v>
       </c>
       <c r="W180" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X180" t="n">
         <v>21</v>
@@ -21332,13 +21332,13 @@
         <v>10</v>
       </c>
       <c r="AH180" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI180" t="n">
         <v>19</v>
       </c>
       <c r="AJ180" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181">
@@ -21373,19 +21373,19 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="H181" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I181" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="J181" t="n">
         <v>1.07</v>
       </c>
       <c r="K181" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L181" t="n">
         <v>1.36</v>
@@ -21394,10 +21394,10 @@
         <v>3</v>
       </c>
       <c r="N181" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O181" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P181" t="n">
         <v>1.44</v>
@@ -21406,19 +21406,19 @@
         <v>2.63</v>
       </c>
       <c r="R181" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S181" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T181" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U181" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V181" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W181" t="n">
         <v>51</v>
@@ -21427,13 +21427,13 @@
         <v>41</v>
       </c>
       <c r="Y181" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z181" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA181" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB181" t="n">
         <v>19</v>
@@ -21448,16 +21448,16 @@
         <v>6</v>
       </c>
       <c r="AF181" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG181" t="n">
         <v>9</v>
       </c>
       <c r="AH181" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI181" t="n">
         <v>15</v>
-      </c>
-      <c r="AI181" t="n">
-        <v>17</v>
       </c>
       <c r="AJ181" t="n">
         <v>34</v>
@@ -21638,10 +21638,10 @@
         <v>3.75</v>
       </c>
       <c r="N183" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O183" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P183" t="n">
         <v>1.33</v>
@@ -21748,10 +21748,10 @@
         <v>3.1</v>
       </c>
       <c r="J184" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K184" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L184" t="n">
         <v>1.25</v>
@@ -21760,10 +21760,10 @@
         <v>3.75</v>
       </c>
       <c r="N184" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O184" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P184" t="n">
         <v>1.33</v>
@@ -22477,7 +22477,7 @@
         <v>3.2</v>
       </c>
       <c r="I190" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J190" t="n">
         <v>1.1</v>
@@ -22492,10 +22492,10 @@
         <v>2.63</v>
       </c>
       <c r="N190" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O190" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P190" t="n">
         <v>1.53</v>
@@ -22543,7 +22543,7 @@
         <v>501</v>
       </c>
       <c r="AE190" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF190" t="n">
         <v>17</v>
@@ -22602,10 +22602,10 @@
         <v>3.3</v>
       </c>
       <c r="J191" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K191" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L191" t="n">
         <v>1.2</v>
@@ -23203,13 +23203,13 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H196" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I196" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J196" t="n">
         <v>1.05</v>
@@ -23230,19 +23230,19 @@
         <v>1.88</v>
       </c>
       <c r="P196" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q196" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R196" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S196" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T196" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U196" t="n">
         <v>11</v>
@@ -23257,40 +23257,40 @@
         <v>19</v>
       </c>
       <c r="Y196" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z196" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA196" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB196" t="n">
         <v>13</v>
       </c>
       <c r="AC196" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD196" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE196" t="n">
         <v>10</v>
       </c>
       <c r="AF196" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG196" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH196" t="n">
         <v>34</v>
       </c>
       <c r="AI196" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ196" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="197">
@@ -23679,36 +23679,36 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H200" t="n">
         <v>3.25</v>
       </c>
       <c r="I200" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M200" t="n">
         <v>2.72</v>
       </c>
       <c r="N200" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O200" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P200" t="n">
         <v>1.4</v>
       </c>
       <c r="Q200" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R200" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S200" t="n">
         <v>1.8</v>
@@ -23717,16 +23717,16 @@
         <v>8.25</v>
       </c>
       <c r="U200" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V200" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W200" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X200" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y200" t="n">
         <v>40</v>
@@ -23747,10 +23747,10 @@
         <v>700</v>
       </c>
       <c r="AE200" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AF200" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG200" t="n">
         <v>9.25</v>
@@ -23759,7 +23759,7 @@
         <v>22</v>
       </c>
       <c r="AI200" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ200" t="n">
         <v>32</v>
@@ -23818,16 +23818,16 @@
         <v>4</v>
       </c>
       <c r="N201" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O201" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P201" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q201" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R201" t="n">
         <v>1.67</v>
@@ -23839,7 +23839,7 @@
         <v>8.5</v>
       </c>
       <c r="U201" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V201" t="n">
         <v>8.5</v>
@@ -23919,13 +23919,13 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H202" t="n">
         <v>3.5</v>
       </c>
       <c r="I202" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J202" t="n">
         <v>1.05</v>
@@ -23952,16 +23952,16 @@
         <v>2.75</v>
       </c>
       <c r="R202" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S202" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T202" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U202" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V202" t="n">
         <v>9</v>
@@ -23982,22 +23982,22 @@
         <v>7</v>
       </c>
       <c r="AB202" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC202" t="n">
         <v>51</v>
       </c>
       <c r="AD202" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE202" t="n">
         <v>10</v>
       </c>
       <c r="AF202" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG202" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH202" t="n">
         <v>41</v>
@@ -24006,7 +24006,7 @@
         <v>29</v>
       </c>
       <c r="AJ202" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203">
@@ -24050,22 +24050,22 @@
         <v>2.63</v>
       </c>
       <c r="J203" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K203" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L203" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M203" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N203" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O203" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P203" t="n">
         <v>1.4</v>
@@ -24169,88 +24169,88 @@
         <v>3</v>
       </c>
       <c r="I204" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J204" t="n">
         <v>1.09</v>
       </c>
       <c r="K204" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="L204" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M204" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="N204" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O204" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P204" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q204" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="R204" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S204" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T204" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="U204" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="V204" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W204" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X204" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y204" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z204" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AA204" t="n">
         <v>5.8</v>
       </c>
       <c r="AB204" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC204" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD204" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE204" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF204" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG204" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH204" t="n">
         <v>55</v>
       </c>
       <c r="AI204" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ204" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="205">
@@ -24285,86 +24285,90 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="H205" t="n">
         <v>3.5</v>
       </c>
       <c r="I205" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="M205" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="N205" t="n">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="O205" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
+        <v>1.78</v>
+      </c>
+      <c r="P205" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>2.6</v>
+      </c>
       <c r="R205" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="S205" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="T205" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="U205" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="V205" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="W205" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="X205" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Y205" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Z205" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AA205" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AB205" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC205" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AD205" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AE205" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AF205" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG205" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AH205" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI205" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AJ205" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="206">
@@ -24399,27 +24403,27 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="H206" t="n">
         <v>3.4</v>
       </c>
       <c r="I206" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M206" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="N206" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="O206" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P206" t="n">
         <v>1.45</v>
@@ -24428,50 +24432,50 @@
         <v>2.37</v>
       </c>
       <c r="R206" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="S206" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="T206" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="U206" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="V206" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W206" t="n">
         <v>13.5</v>
       </c>
       <c r="X206" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y206" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z206" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AA206" t="n">
         <v>6.7</v>
       </c>
       <c r="AB206" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AC206" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD206" t="inlineStr"/>
       <c r="AE206" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF206" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG206" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH206" t="n">
         <v>75</v>
@@ -24480,7 +24484,7 @@
         <v>50</v>
       </c>
       <c r="AJ206" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="207">
@@ -24515,90 +24519,90 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="H207" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I207" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M207" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="N207" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O207" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P207" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q207" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R207" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S207" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T207" t="n">
         <v>6.1</v>
       </c>
       <c r="U207" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="V207" t="n">
         <v>8.25</v>
       </c>
       <c r="W207" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="X207" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y207" t="n">
         <v>30</v>
       </c>
       <c r="Z207" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA207" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="AB207" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AC207" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD207" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE207" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF207" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AG207" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AH207" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AI207" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ207" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="208">
@@ -24633,90 +24637,90 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="H208" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I208" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="M208" t="n">
-        <v>2.9</v>
+        <v>2.52</v>
       </c>
       <c r="N208" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="O208" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="P208" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="R208" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="S208" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="T208" t="n">
         <v>10.25</v>
       </c>
       <c r="U208" t="n">
+        <v>24</v>
+      </c>
+      <c r="V208" t="n">
+        <v>16</v>
+      </c>
+      <c r="W208" t="n">
+        <v>80</v>
+      </c>
+      <c r="X208" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB208" t="n">
         <v>19.5</v>
       </c>
-      <c r="V208" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="W208" t="n">
-        <v>55</v>
-      </c>
-      <c r="X208" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y208" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z208" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AA208" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB208" t="n">
-        <v>15</v>
-      </c>
       <c r="AC208" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AD208" t="n">
         <v>600</v>
       </c>
       <c r="AE208" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AF208" t="n">
-        <v>9</v>
+        <v>7.1</v>
       </c>
       <c r="AG208" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH208" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AI208" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ208" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="209">
@@ -24751,87 +24755,87 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="H209" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I209" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M209" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="N209" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="O209" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="P209" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q209" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="R209" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S209" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T209" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="U209" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="V209" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="W209" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X209" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y209" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z209" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA209" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB209" t="n">
         <v>14.5</v>
       </c>
       <c r="AC209" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD209" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE209" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF209" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AG209" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH209" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AI209" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AJ209" t="n">
         <v>40</v>
@@ -24869,13 +24873,13 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H210" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="I210" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
@@ -24883,55 +24887,55 @@
         <v>1.29</v>
       </c>
       <c r="M210" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="N210" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="O210" t="n">
         <v>1.75</v>
       </c>
       <c r="P210" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Q210" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R210" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S210" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T210" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="U210" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="V210" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W210" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X210" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y210" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z210" t="n">
         <v>9.75</v>
       </c>
       <c r="AA210" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AB210" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC210" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD210" t="n">
         <v>900</v>
@@ -24940,7 +24944,7 @@
         <v>14</v>
       </c>
       <c r="AF210" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG210" t="n">
         <v>20</v>
@@ -24952,7 +24956,7 @@
         <v>75</v>
       </c>
       <c r="AJ210" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="211">
@@ -25668,46 +25672,46 @@
         <v>2.15</v>
       </c>
       <c r="H220" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I220" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J220" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K220" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L220" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M220" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N220" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O220" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="P220" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q220" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R220" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S220" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T220" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U220" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V220" t="n">
         <v>9.5</v>
@@ -25719,10 +25723,10 @@
         <v>17</v>
       </c>
       <c r="Y220" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z220" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA220" t="n">
         <v>7</v>
@@ -25737,22 +25741,22 @@
         <v>151</v>
       </c>
       <c r="AE220" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF220" t="n">
         <v>17</v>
       </c>
       <c r="AG220" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH220" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI220" t="n">
         <v>23</v>
       </c>
       <c r="AJ220" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="221">
@@ -25796,22 +25800,22 @@
         <v>6.5</v>
       </c>
       <c r="J221" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K221" t="n">
         <v>13</v>
       </c>
       <c r="L221" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M221" t="n">
         <v>4</v>
       </c>
       <c r="N221" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="O221" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="P221" t="n">
         <v>1.33</v>
@@ -25918,22 +25922,22 @@
         <v>4.33</v>
       </c>
       <c r="J222" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K222" t="n">
         <v>11</v>
       </c>
       <c r="L222" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M222" t="n">
         <v>4</v>
       </c>
       <c r="N222" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="O222" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="P222" t="n">
         <v>1.36</v>
@@ -26040,22 +26044,22 @@
         <v>3.25</v>
       </c>
       <c r="J223" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K223" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L223" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M223" t="n">
         <v>3.2</v>
       </c>
       <c r="N223" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O223" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="P223" t="n">
         <v>1.44</v>
@@ -26162,22 +26166,22 @@
         <v>8.5</v>
       </c>
       <c r="J224" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K224" t="n">
         <v>19</v>
       </c>
       <c r="L224" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M224" t="n">
         <v>5.5</v>
       </c>
       <c r="N224" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="O224" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P224" t="n">
         <v>1.22</v>
@@ -26284,22 +26288,22 @@
         <v>2.9</v>
       </c>
       <c r="J225" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K225" t="n">
         <v>11</v>
       </c>
       <c r="L225" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M225" t="n">
         <v>3.75</v>
       </c>
       <c r="N225" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="O225" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="P225" t="n">
         <v>1.36</v>
@@ -26406,22 +26410,22 @@
         <v>5.75</v>
       </c>
       <c r="J226" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K226" t="n">
         <v>9</v>
       </c>
       <c r="L226" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="M226" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N226" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="O226" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="P226" t="n">
         <v>1.33</v>
@@ -26466,7 +26470,7 @@
         <v>51</v>
       </c>
       <c r="AD226" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE226" t="n">
         <v>17</v>
@@ -26528,19 +26532,19 @@
         <v>3.1</v>
       </c>
       <c r="J227" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K227" t="n">
         <v>8.5</v>
       </c>
       <c r="L227" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M227" t="n">
         <v>3.75</v>
       </c>
       <c r="N227" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="O227" t="n">
         <v>2</v>
@@ -26653,10 +26657,10 @@
         <v>1.07</v>
       </c>
       <c r="K228" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="L228" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M228" t="n">
         <v>2.87</v>
@@ -26698,7 +26702,7 @@
         <v>35</v>
       </c>
       <c r="Z228" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AA228" t="n">
         <v>7.4</v>
@@ -26954,7 +26958,7 @@
         <v>67</v>
       </c>
       <c r="AD230" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE230" t="n">
         <v>51</v>
@@ -27008,10 +27012,10 @@
         <v>34</v>
       </c>
       <c r="H231" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I231" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J231" t="n">
         <v>1.01</v>
@@ -27026,10 +27030,10 @@
         <v>17</v>
       </c>
       <c r="N231" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="O231" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P231" t="n">
         <v>1.08</v>
@@ -27054,7 +27058,7 @@
       </c>
       <c r="W231" t="inlineStr"/>
       <c r="X231" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="Y231" t="n">
         <v>126</v>
@@ -27063,16 +27067,16 @@
         <v>34</v>
       </c>
       <c r="AA231" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB231" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC231" t="n">
         <v>101</v>
       </c>
       <c r="AD231" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AE231" t="n">
         <v>23</v>
@@ -27087,7 +27091,7 @@
         <v>8.5</v>
       </c>
       <c r="AI231" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ231" t="n">
         <v>41</v>
@@ -27247,25 +27251,25 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="H233" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I233" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="J233" t="n">
         <v>1.08</v>
       </c>
       <c r="K233" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="L233" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M233" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="N233" t="n">
         <v>2.15</v>
@@ -27274,67 +27278,67 @@
         <v>1.65</v>
       </c>
       <c r="P233" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q233" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="R233" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S233" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T233" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="U233" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="V233" t="n">
         <v>9</v>
       </c>
       <c r="W233" t="n">
+        <v>15</v>
+      </c>
+      <c r="X233" t="n">
         <v>16.5</v>
       </c>
-      <c r="X233" t="n">
-        <v>17.5</v>
-      </c>
       <c r="Y233" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z233" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AA233" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AB233" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC233" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD233" t="n">
         <v>1000</v>
       </c>
       <c r="AE233" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF233" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG233" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AH233" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI233" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ233" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="234">
@@ -27369,13 +27373,13 @@
         </is>
       </c>
       <c r="G234" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H234" t="n">
         <v>4.15</v>
       </c>
-      <c r="H234" t="n">
-        <v>4.1</v>
-      </c>
       <c r="I234" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J234" t="n">
         <v>1.02</v>
@@ -27387,7 +27391,7 @@
         <v>1.13</v>
       </c>
       <c r="M234" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="N234" t="n">
         <v>1.4</v>
@@ -27399,7 +27403,7 @@
         <v>1.24</v>
       </c>
       <c r="Q234" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="R234" t="n">
         <v>1.42</v>
@@ -27408,22 +27412,22 @@
         <v>2.65</v>
       </c>
       <c r="T234" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="U234" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="V234" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W234" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="X234" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y234" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z234" t="n">
         <v>11</v>
@@ -27441,19 +27445,19 @@
         <v>175</v>
       </c>
       <c r="AE234" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AF234" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG234" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH234" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI234" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ234" t="n">
         <v>17.5</v>
@@ -27491,13 +27495,13 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H235" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I235" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J235" t="n">
         <v>1.04</v>
@@ -27509,19 +27513,19 @@
         <v>1.2</v>
       </c>
       <c r="M235" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="N235" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O235" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="P235" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="Q235" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R235" t="n">
         <v>1.53</v>
@@ -27530,13 +27534,13 @@
         <v>2.32</v>
       </c>
       <c r="T235" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="U235" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="V235" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W235" t="n">
         <v>32</v>
@@ -27551,7 +27555,7 @@
         <v>9.5</v>
       </c>
       <c r="AA235" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AB235" t="n">
         <v>13</v>
@@ -27566,16 +27570,16 @@
         <v>10.25</v>
       </c>
       <c r="AF235" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG235" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH235" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI235" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ235" t="n">
         <v>24</v>
@@ -28012,7 +28016,7 @@
         <v>2.75</v>
       </c>
       <c r="R239" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S239" t="n">
         <v>2</v>
@@ -28134,7 +28138,7 @@
         <v>2.75</v>
       </c>
       <c r="R240" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S240" t="n">
         <v>2</v>
@@ -28256,10 +28260,10 @@
         <v>2.63</v>
       </c>
       <c r="R241" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S241" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T241" t="n">
         <v>8</v>
@@ -28488,10 +28492,10 @@
         <v>3.5</v>
       </c>
       <c r="N243" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O243" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P243" t="n">
         <v>1.4</v>
@@ -28976,10 +28980,10 @@
         <v>3.75</v>
       </c>
       <c r="N247" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O247" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P247" t="n">
         <v>1.36</v>
@@ -29077,13 +29081,13 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H248" t="n">
         <v>3.2</v>
       </c>
       <c r="I248" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J248" t="n">
         <v>1.07</v>
@@ -29098,10 +29102,10 @@
         <v>3</v>
       </c>
       <c r="N248" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O248" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P248" t="n">
         <v>1.44</v>
@@ -29152,16 +29156,16 @@
         <v>8.5</v>
       </c>
       <c r="AF248" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG248" t="n">
         <v>11</v>
       </c>
       <c r="AH248" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI248" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ248" t="n">
         <v>34</v>
@@ -29232,10 +29236,10 @@
         <v>2.63</v>
       </c>
       <c r="R249" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S249" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T249" t="n">
         <v>7</v>
@@ -29342,10 +29346,10 @@
         <v>4.33</v>
       </c>
       <c r="N250" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O250" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P250" t="n">
         <v>1.29</v>
@@ -29357,7 +29361,7 @@
         <v>2.1</v>
       </c>
       <c r="S250" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T250" t="n">
         <v>7</v>
@@ -29464,10 +29468,10 @@
         <v>3.4</v>
       </c>
       <c r="N251" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O251" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P251" t="n">
         <v>1.4</v>
@@ -29476,10 +29480,10 @@
         <v>2.75</v>
       </c>
       <c r="R251" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S251" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T251" t="n">
         <v>10</v>
@@ -29565,13 +29569,13 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H252" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I252" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J252" t="n">
         <v>1.05</v>
@@ -29598,22 +29602,22 @@
         <v>2.63</v>
       </c>
       <c r="R252" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S252" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="T252" t="n">
         <v>6</v>
       </c>
       <c r="U252" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V252" t="n">
         <v>9</v>
       </c>
       <c r="W252" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X252" t="n">
         <v>17</v>
@@ -29723,7 +29727,7 @@
         <v>2</v>
       </c>
       <c r="S253" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T253" t="n">
         <v>6.5</v>
@@ -29842,10 +29846,10 @@
         <v>2.38</v>
       </c>
       <c r="R254" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="S254" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T254" t="n">
         <v>5.5</v>
@@ -29950,10 +29954,10 @@
         <v>3.25</v>
       </c>
       <c r="N255" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O255" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P255" t="n">
         <v>1.44</v>
@@ -29965,7 +29969,7 @@
         <v>2</v>
       </c>
       <c r="S255" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T255" t="n">
         <v>6</v>
@@ -30084,10 +30088,10 @@
         <v>2.75</v>
       </c>
       <c r="R256" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S256" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T256" t="n">
         <v>7.5</v>
@@ -30173,7 +30177,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="H257" t="n">
         <v>3.5</v>
@@ -30209,7 +30213,7 @@
         <v>2</v>
       </c>
       <c r="S257" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T257" t="n">
         <v>6.5</v>
@@ -30295,7 +30299,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="H258" t="n">
         <v>3.8</v>
@@ -30304,22 +30308,22 @@
         <v>6.5</v>
       </c>
       <c r="J258" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K258" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L258" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M258" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N258" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O258" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P258" t="n">
         <v>1.4</v>
@@ -30331,7 +30335,7 @@
         <v>2.2</v>
       </c>
       <c r="S258" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T258" t="n">
         <v>6</v>
@@ -30453,7 +30457,7 @@
         <v>2</v>
       </c>
       <c r="S259" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T259" t="n">
         <v>6.5</v>
@@ -30539,13 +30543,13 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H260" t="n">
         <v>3</v>
       </c>
       <c r="I260" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J260" t="n">
         <v>1.06</v>
@@ -30572,25 +30576,25 @@
         <v>2.63</v>
       </c>
       <c r="R260" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S260" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T260" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U260" t="n">
+        <v>11</v>
+      </c>
+      <c r="V260" t="n">
         <v>10</v>
       </c>
-      <c r="V260" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W260" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X260" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y260" t="n">
         <v>34</v>
@@ -30611,19 +30615,19 @@
         <v>600</v>
       </c>
       <c r="AE260" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF260" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG260" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH260" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI260" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ260" t="n">
         <v>41</v>
@@ -30661,7 +30665,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H261" t="n">
         <v>3.1</v>
@@ -30697,7 +30701,7 @@
         <v>2</v>
       </c>
       <c r="S261" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T261" t="n">
         <v>6</v>
@@ -30783,7 +30787,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="H262" t="n">
         <v>4.2</v>
@@ -30804,7 +30808,7 @@
         <v>3.75</v>
       </c>
       <c r="N262" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O262" t="n">
         <v>2.05</v>
@@ -30905,7 +30909,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="H263" t="n">
         <v>3.7</v>
@@ -30929,7 +30933,7 @@
         <v>2.05</v>
       </c>
       <c r="O263" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P263" t="n">
         <v>1.4</v>
@@ -31027,13 +31031,13 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H264" t="n">
         <v>3.7</v>
       </c>
       <c r="I264" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J264" t="n">
         <v>1.03</v>
@@ -31048,7 +31052,7 @@
         <v>5</v>
       </c>
       <c r="N264" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O264" t="n">
         <v>2.35</v>
@@ -31149,7 +31153,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="H265" t="n">
         <v>4.75</v>
@@ -31164,13 +31168,13 @@
         <v>17</v>
       </c>
       <c r="L265" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M265" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N265" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O265" t="n">
         <v>2.35</v>
@@ -31271,7 +31275,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H266" t="n">
         <v>3.6</v>
@@ -31292,10 +31296,10 @@
         <v>3.25</v>
       </c>
       <c r="N266" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="O266" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P266" t="n">
         <v>1.44</v>
@@ -31417,7 +31421,7 @@
         <v>2.05</v>
       </c>
       <c r="O267" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P267" t="n">
         <v>1.4</v>
@@ -31524,22 +31528,22 @@
         <v>2.6</v>
       </c>
       <c r="J268" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K268" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L268" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M268" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N268" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O268" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P268" t="n">
         <v>1.4</v>
@@ -31637,13 +31641,13 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H269" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I269" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J269" t="n">
         <v>1.02</v>
@@ -31688,7 +31692,7 @@
         <v>13</v>
       </c>
       <c r="X269" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y269" t="n">
         <v>19</v>
@@ -31709,7 +31713,7 @@
         <v>126</v>
       </c>
       <c r="AE269" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF269" t="n">
         <v>29</v>
@@ -31881,13 +31885,13 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H271" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I271" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J271" t="n">
         <v>1.03</v>
@@ -31896,16 +31900,16 @@
         <v>15</v>
       </c>
       <c r="L271" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M271" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N271" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O271" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="P271" t="n">
         <v>1.3</v>
@@ -31914,13 +31918,13 @@
         <v>3.4</v>
       </c>
       <c r="R271" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S271" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T271" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U271" t="n">
         <v>12</v>
@@ -31935,13 +31939,13 @@
         <v>15</v>
       </c>
       <c r="Y271" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z271" t="n">
         <v>15</v>
       </c>
       <c r="AA271" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB271" t="n">
         <v>13</v>
@@ -31950,7 +31954,7 @@
         <v>41</v>
       </c>
       <c r="AD271" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE271" t="n">
         <v>12</v>
@@ -31965,7 +31969,7 @@
         <v>34</v>
       </c>
       <c r="AI271" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ271" t="n">
         <v>26</v>
@@ -32015,7 +32019,7 @@
         <v>1.03</v>
       </c>
       <c r="K272" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L272" t="n">
         <v>1.17</v>
@@ -32125,13 +32129,13 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H273" t="n">
         <v>3.6</v>
       </c>
       <c r="I273" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J273" t="n">
         <v>1.02</v>
@@ -32164,19 +32168,19 @@
         <v>2.63</v>
       </c>
       <c r="T273" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U273" t="n">
         <v>17</v>
       </c>
       <c r="V273" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W273" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X273" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y273" t="n">
         <v>21</v>
@@ -32200,13 +32204,13 @@
         <v>13</v>
       </c>
       <c r="AF273" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG273" t="n">
         <v>10</v>
       </c>
       <c r="AH273" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI273" t="n">
         <v>17</v>
@@ -32369,13 +32373,13 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H275" t="n">
         <v>4.5</v>
       </c>
       <c r="I275" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="J275" t="n">
         <v>1.01</v>
@@ -32408,7 +32412,7 @@
         <v>2.75</v>
       </c>
       <c r="T275" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U275" t="n">
         <v>29</v>
@@ -32417,10 +32421,10 @@
         <v>15</v>
       </c>
       <c r="W275" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X275" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y275" t="n">
         <v>23</v>
@@ -32453,7 +32457,7 @@
         <v>15</v>
       </c>
       <c r="AI275" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ275" t="n">
         <v>17</v>
@@ -32580,10 +32584,10 @@
         <v>2.05</v>
       </c>
       <c r="P277" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q277" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="R277" t="n">
         <v>1.78</v>
@@ -32812,10 +32816,10 @@
         <v>9</v>
       </c>
       <c r="L279" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="M279" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="N279" t="n">
         <v>1.5</v>
@@ -32827,13 +32831,13 @@
         <v>1.29</v>
       </c>
       <c r="Q279" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R279" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S279" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T279" t="n">
         <v>9</v>
@@ -33837,10 +33841,10 @@
         <v>1.02</v>
       </c>
       <c r="K288" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L288" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M288" t="n">
         <v>5.5</v>
@@ -33849,7 +33853,7 @@
         <v>1.5</v>
       </c>
       <c r="O288" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P288" t="n">
         <v>1.25</v>
@@ -33858,10 +33862,10 @@
         <v>3.75</v>
       </c>
       <c r="R288" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S288" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T288" t="n">
         <v>12</v>
@@ -33956,19 +33960,19 @@
         <v>3</v>
       </c>
       <c r="J289" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K289" t="n">
         <v>15</v>
       </c>
       <c r="L289" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M289" t="n">
         <v>4.33</v>
       </c>
       <c r="N289" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="O289" t="n">
         <v>2.15</v>
@@ -33980,7 +33984,7 @@
         <v>3.4</v>
       </c>
       <c r="R289" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S289" t="n">
         <v>2.25</v>
@@ -34069,13 +34073,13 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H290" t="n">
         <v>3.6</v>
       </c>
       <c r="I290" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="J290" t="n">
         <v>1.05</v>
@@ -34191,7 +34195,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H291" t="n">
         <v>3.9</v>
@@ -34313,7 +34317,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H292" t="n">
         <v>3.6</v>
@@ -34435,7 +34439,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H293" t="n">
         <v>3.7</v>
@@ -34456,10 +34460,10 @@
         <v>4</v>
       </c>
       <c r="N293" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O293" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P293" t="n">
         <v>1.33</v>
@@ -34557,7 +34561,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H294" t="n">
         <v>4.2</v>
@@ -34572,16 +34576,16 @@
         <v>13</v>
       </c>
       <c r="L294" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M294" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N294" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O294" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P294" t="n">
         <v>1.3</v>
@@ -34596,7 +34600,7 @@
         <v>2.05</v>
       </c>
       <c r="T294" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U294" t="n">
         <v>8.5</v>
@@ -34611,10 +34615,10 @@
         <v>12</v>
       </c>
       <c r="Y294" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z294" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA294" t="n">
         <v>8</v>
@@ -34688,22 +34692,22 @@
         <v>3</v>
       </c>
       <c r="J295" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K295" t="n">
         <v>13</v>
       </c>
       <c r="L295" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M295" t="n">
         <v>4</v>
       </c>
       <c r="N295" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O295" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P295" t="n">
         <v>1.33</v>
@@ -34810,16 +34814,16 @@
         <v>3.4</v>
       </c>
       <c r="J296" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K296" t="n">
         <v>13</v>
       </c>
       <c r="L296" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="M296" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N296" t="n">
         <v>1.8</v>
@@ -34932,13 +34936,13 @@
         <v>2.6</v>
       </c>
       <c r="J297" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K297" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L297" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M297" t="n">
         <v>3</v>
@@ -35054,13 +35058,13 @@
         <v>4</v>
       </c>
       <c r="J298" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K298" t="n">
         <v>13</v>
       </c>
       <c r="L298" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M298" t="n">
         <v>4</v>
@@ -35176,13 +35180,13 @@
         <v>2.63</v>
       </c>
       <c r="J299" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K299" t="n">
         <v>15</v>
       </c>
       <c r="L299" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M299" t="n">
         <v>4.33</v>
@@ -35298,13 +35302,13 @@
         <v>3.7</v>
       </c>
       <c r="J300" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K300" t="n">
         <v>19</v>
       </c>
       <c r="L300" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="M300" t="n">
         <v>6</v>
@@ -35816,10 +35820,10 @@
         <v>2.05</v>
       </c>
       <c r="T304" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U304" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V304" t="n">
         <v>9.75</v>
@@ -35831,7 +35835,7 @@
         <v>22</v>
       </c>
       <c r="Y304" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z304" t="n">
         <v>7.3</v>
@@ -35849,19 +35853,19 @@
         <v>400</v>
       </c>
       <c r="AE304" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF304" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG304" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH304" t="n">
         <v>27</v>
       </c>
       <c r="AI304" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ304" t="n">
         <v>28</v>
@@ -36021,10 +36025,10 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H306" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I306" t="n">
         <v>2.4</v>
@@ -36033,43 +36037,43 @@
         <v>1.04</v>
       </c>
       <c r="K306" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L306" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="M306" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="N306" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O306" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="P306" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q306" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="R306" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S306" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T306" t="n">
         <v>10.75</v>
       </c>
       <c r="U306" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V306" t="n">
         <v>9.75</v>
       </c>
       <c r="W306" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X306" t="n">
         <v>20</v>
@@ -36078,25 +36082,25 @@
         <v>24</v>
       </c>
       <c r="Z306" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA306" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB306" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC306" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD306" t="n">
         <v>250</v>
       </c>
       <c r="AE306" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AF306" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG306" t="n">
         <v>9.25</v>
@@ -36105,10 +36109,10 @@
         <v>27</v>
       </c>
       <c r="AI306" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ306" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="307">
@@ -36268,31 +36272,31 @@
         <v>1.72</v>
       </c>
       <c r="H308" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I308" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J308" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K308" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="L308" t="n">
         <v>1.27</v>
       </c>
       <c r="M308" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="N308" t="n">
         <v>1.8</v>
       </c>
       <c r="O308" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="P308" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q308" t="n">
         <v>2.75</v>
@@ -36304,7 +36308,7 @@
         <v>1.98</v>
       </c>
       <c r="T308" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="U308" t="n">
         <v>8.5</v>
@@ -36316,13 +36320,13 @@
         <v>14</v>
       </c>
       <c r="X308" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y308" t="n">
         <v>24</v>
       </c>
       <c r="Z308" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA308" t="n">
         <v>6.9</v>
@@ -36334,13 +36338,13 @@
         <v>65</v>
       </c>
       <c r="AD308" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE308" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF308" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG308" t="n">
         <v>14.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-10.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
         <v>1.07</v>
@@ -680,13 +680,13 @@
         <v>2.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
         <v>9</v>
@@ -698,13 +698,13 @@
         <v>17</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA2" t="n">
         <v>7</v>
@@ -713,7 +713,7 @@
         <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD2" t="n">
         <v>401</v>
@@ -734,7 +734,7 @@
         <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L3" t="n">
         <v>1.17</v>
@@ -790,10 +790,10 @@
         <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
@@ -808,7 +808,7 @@
         <v>2.25</v>
       </c>
       <c r="T3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U3" t="n">
         <v>34</v>
@@ -826,10 +826,10 @@
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB3" t="n">
         <v>15</v>
@@ -853,7 +853,7 @@
         <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>
@@ -900,10 +900,10 @@
         <v>1.18</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L4" t="n">
         <v>1.1</v>
@@ -1028,10 +1028,10 @@
         <v>13</v>
       </c>
       <c r="L5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N5" t="n">
         <v>1.67</v>
@@ -1147,7 +1147,7 @@
         <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L6" t="n">
         <v>1.17</v>
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J10" t="n">
         <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>1.17</v>
@@ -2076,7 +2076,7 @@
         <v>23</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -2480,7 +2480,7 @@
         <v>3.25</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
         <v>2.1</v>
@@ -2489,7 +2489,7 @@
         <v>1.03</v>
       </c>
       <c r="K17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L17" t="n">
         <v>1.17</v>
@@ -2519,7 +2519,7 @@
         <v>15</v>
       </c>
       <c r="U17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V17" t="n">
         <v>12</v>
@@ -2534,7 +2534,7 @@
         <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
         <v>7.5</v>
@@ -2549,7 +2549,7 @@
         <v>101</v>
       </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
         <v>13</v>
@@ -2730,10 +2730,10 @@
         <v>2.8</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L19" t="n">
         <v>1.14</v>
@@ -2864,10 +2864,10 @@
         <v>13</v>
       </c>
       <c r="N20" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="O20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P20" t="n">
         <v>1.11</v>
@@ -2980,16 +2980,16 @@
         <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N21" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="O21" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="P21" t="n">
         <v>1.36</v>
@@ -3102,10 +3102,10 @@
         <v>8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N22" t="n">
         <v>2.2</v>
@@ -4084,10 +4084,10 @@
         <v>3.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P30" t="n">
         <v>1.36</v>
@@ -4183,19 +4183,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H31" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J31" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L31" t="n">
         <v>1.33</v>
@@ -4204,10 +4204,10 @@
         <v>3.4</v>
       </c>
       <c r="N31" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="P31" t="n">
         <v>1.4</v>
@@ -4225,7 +4225,7 @@
         <v>6.5</v>
       </c>
       <c r="U31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V31" t="n">
         <v>8.5</v>
@@ -4240,7 +4240,7 @@
         <v>29</v>
       </c>
       <c r="Z31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA31" t="n">
         <v>7</v>
@@ -4258,10 +4258,10 @@
         <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
         <v>51</v>
@@ -4545,13 +4545,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
         <v>1.08</v>
@@ -4566,10 +4566,10 @@
         <v>2.63</v>
       </c>
       <c r="N34" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P34" t="n">
         <v>1.5</v>
@@ -4602,7 +4602,7 @@
         <v>41</v>
       </c>
       <c r="Z34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA34" t="n">
         <v>7</v>
@@ -4615,10 +4615,10 @@
       </c>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG34" t="n">
         <v>17</v>
@@ -5385,10 +5385,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I41" t="n">
         <v>3.1</v>
@@ -5397,7 +5397,7 @@
         <v>1.03</v>
       </c>
       <c r="K41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L41" t="n">
         <v>1.17</v>
@@ -5427,7 +5427,7 @@
         <v>12</v>
       </c>
       <c r="U41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V41" t="n">
         <v>9.5</v>
@@ -5873,13 +5873,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="H45" t="n">
         <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="J45" t="n">
         <v>1.04</v>
@@ -5900,28 +5900,28 @@
         <v>2.05</v>
       </c>
       <c r="P45" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
         <v>1.6</v>
       </c>
       <c r="S45" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T45" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="U45" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V45" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W45" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="X45" t="n">
         <v>18</v>
@@ -5933,31 +5933,31 @@
         <v>8.25</v>
       </c>
       <c r="AA45" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB45" t="n">
         <v>12.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD45" t="n">
         <v>300</v>
       </c>
       <c r="AE45" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF45" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG45" t="n">
         <v>9.75</v>
       </c>
       <c r="AH45" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI45" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ45" t="n">
         <v>25</v>
@@ -5998,13 +5998,13 @@
         <v>3.7</v>
       </c>
       <c r="H46" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="I46" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="J46" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K46" t="n">
         <v>9.75</v>
@@ -6013,7 +6013,7 @@
         <v>1.13</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="N46" t="n">
         <v>1.42</v>
@@ -6025,22 +6025,22 @@
         <v>1.25</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="R46" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S46" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="T46" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="U46" t="n">
         <v>26</v>
       </c>
       <c r="V46" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W46" t="n">
         <v>55</v>
@@ -6055,31 +6055,31 @@
         <v>9.75</v>
       </c>
       <c r="AA46" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB46" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC46" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AD46" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AE46" t="n">
         <v>12.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG46" t="n">
         <v>8.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI46" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ46" t="n">
         <v>16.5</v>
@@ -6131,7 +6131,7 @@
         <v>1.35</v>
       </c>
       <c r="M47" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="N47" t="n">
         <v>2.02</v>
@@ -6140,10 +6140,10 @@
         <v>1.62</v>
       </c>
       <c r="P47" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="R47" t="n">
         <v>1.98</v>
@@ -6155,7 +6155,7 @@
         <v>11.25</v>
       </c>
       <c r="U47" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V47" t="n">
         <v>17</v>
@@ -6188,13 +6188,13 @@
         <v>5.8</v>
       </c>
       <c r="AF47" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AG47" t="n">
         <v>8.25</v>
       </c>
       <c r="AH47" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI47" t="n">
         <v>14.5</v>
@@ -6235,27 +6235,27 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>3.45</v>
       </c>
       <c r="I48" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="N48" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O48" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P48" t="n">
         <v>1.39</v>
@@ -6264,10 +6264,10 @@
         <v>2.57</v>
       </c>
       <c r="R48" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S48" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T48" t="n">
         <v>7.4</v>
@@ -6279,22 +6279,22 @@
         <v>8.75</v>
       </c>
       <c r="W48" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="X48" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y48" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z48" t="n">
         <v>10</v>
       </c>
       <c r="AA48" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB48" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC48" t="n">
         <v>70</v>
@@ -6303,13 +6303,13 @@
         <v>600</v>
       </c>
       <c r="AE48" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG48" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH48" t="n">
         <v>40</v>
@@ -6807,7 +6807,7 @@
         <v>2.05</v>
       </c>
       <c r="O54" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P54" t="n">
         <v>1.4</v>
@@ -6837,7 +6837,7 @@
         <v>29</v>
       </c>
       <c r="Y54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z54" t="n">
         <v>9.5</v>
@@ -6905,13 +6905,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H55" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I55" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
         <v>1.03</v>
@@ -6926,10 +6926,10 @@
         <v>4.33</v>
       </c>
       <c r="N55" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O55" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P55" t="n">
         <v>1.3</v>
@@ -6947,16 +6947,16 @@
         <v>8</v>
       </c>
       <c r="U55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V55" t="n">
         <v>8.5</v>
       </c>
       <c r="W55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y55" t="n">
         <v>23</v>
@@ -6989,7 +6989,7 @@
         <v>51</v>
       </c>
       <c r="AI55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ55" t="n">
         <v>41</v>
@@ -7170,10 +7170,10 @@
         <v>5</v>
       </c>
       <c r="N57" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O57" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P57" t="n">
         <v>1.25</v>
@@ -7641,7 +7641,7 @@
         <v>1.8</v>
       </c>
       <c r="O61" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="P61" t="n">
         <v>1.38</v>
@@ -7683,14 +7683,14 @@
         <v>55</v>
       </c>
       <c r="AC61" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="n">
         <v>30</v>
       </c>
       <c r="AF61" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AG61" t="n">
         <v>70</v>
@@ -7699,7 +7699,7 @@
         <v>700</v>
       </c>
       <c r="AI61" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AJ61" t="n">
         <v>450</v>
@@ -7737,19 +7737,19 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H62" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I62" t="n">
         <v>5.75</v>
       </c>
       <c r="J62" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L62" t="n">
         <v>1.33</v>
@@ -7758,28 +7758,28 @@
         <v>3.4</v>
       </c>
       <c r="N62" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O62" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="P62" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R62" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S62" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T62" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U62" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V62" t="n">
         <v>8.5</v>
@@ -7794,19 +7794,19 @@
         <v>29</v>
       </c>
       <c r="Z62" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA62" t="n">
         <v>7</v>
       </c>
       <c r="AB62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC62" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD62" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AE62" t="n">
         <v>13</v>
@@ -7815,7 +7815,7 @@
         <v>26</v>
       </c>
       <c r="AG62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH62" t="n">
         <v>51</v>
@@ -7871,7 +7871,7 @@
         <v>1.07</v>
       </c>
       <c r="K63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L63" t="n">
         <v>1.36</v>
@@ -7880,10 +7880,10 @@
         <v>3.2</v>
       </c>
       <c r="N63" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O63" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P63" t="n">
         <v>1.44</v>
@@ -8106,10 +8106,10 @@
         <v>2.05</v>
       </c>
       <c r="H65" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I65" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J65" t="n">
         <v>1.08</v>
@@ -8151,7 +8151,7 @@
         <v>9.5</v>
       </c>
       <c r="W65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X65" t="n">
         <v>19</v>
@@ -8234,10 +8234,10 @@
         <v>9.5</v>
       </c>
       <c r="J66" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L66" t="n">
         <v>1.29</v>
@@ -8854,10 +8854,10 @@
         <v>3.25</v>
       </c>
       <c r="N71" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O71" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P71" t="n">
         <v>1.4</v>
@@ -9077,13 +9077,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H73" t="n">
         <v>3.4</v>
       </c>
       <c r="I73" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J73" t="n">
         <v>1.07</v>
@@ -9110,31 +9110,31 @@
         <v>2.63</v>
       </c>
       <c r="R73" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S73" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="T73" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U73" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V73" t="n">
         <v>9</v>
       </c>
       <c r="W73" t="n">
+        <v>19</v>
+      </c>
+      <c r="X73" t="n">
         <v>17</v>
       </c>
-      <c r="X73" t="n">
-        <v>19</v>
-      </c>
       <c r="Y73" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA73" t="n">
         <v>6.5</v>
@@ -9146,7 +9146,7 @@
         <v>51</v>
       </c>
       <c r="AD73" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AE73" t="n">
         <v>9.5</v>
@@ -9155,13 +9155,13 @@
         <v>17</v>
       </c>
       <c r="AG73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH73" t="n">
         <v>41</v>
       </c>
       <c r="AI73" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ73" t="n">
         <v>41</v>
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="H75" t="n">
         <v>3.2</v>
@@ -9354,13 +9354,13 @@
         <v>2.55</v>
       </c>
       <c r="R75" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S75" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T75" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="U75" t="n">
         <v>12.5</v>
@@ -9372,7 +9372,7 @@
         <v>28</v>
       </c>
       <c r="X75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y75" t="n">
         <v>35</v>
@@ -9405,10 +9405,10 @@
         <v>37</v>
       </c>
       <c r="AI75" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ75" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76">
@@ -9690,7 +9690,7 @@
         <v>7</v>
       </c>
       <c r="H78" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I78" t="n">
         <v>1.4</v>
@@ -9702,16 +9702,16 @@
         <v>19</v>
       </c>
       <c r="L78" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M78" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N78" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O78" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="P78" t="n">
         <v>1.22</v>
@@ -10294,18 +10294,18 @@
         <v>3.35</v>
       </c>
       <c r="H83" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I83" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M83" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="N83" t="n">
         <v>2.15</v>
@@ -10317,19 +10317,19 @@
         <v>1.45</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R83" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S83" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T83" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U83" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V83" t="n">
         <v>12.5</v>
@@ -10344,32 +10344,32 @@
         <v>50</v>
       </c>
       <c r="Z83" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AA83" t="n">
         <v>6.4</v>
       </c>
       <c r="AB83" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC83" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD83" t="inlineStr"/>
       <c r="AE83" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AF83" t="n">
         <v>8.75</v>
       </c>
       <c r="AG83" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH83" t="n">
         <v>18</v>
       </c>
       <c r="AI83" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ83" t="n">
         <v>37</v>
@@ -10666,10 +10666,10 @@
         <v>2.63</v>
       </c>
       <c r="N86" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O86" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P86" t="n">
         <v>1.5</v>
@@ -10767,19 +10767,19 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H87" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I87" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="J87" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K87" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="L87" t="n">
         <v>1.36</v>
@@ -10788,10 +10788,10 @@
         <v>3</v>
       </c>
       <c r="N87" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O87" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P87" t="n">
         <v>1.44</v>
@@ -10800,10 +10800,10 @@
         <v>2.63</v>
       </c>
       <c r="R87" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S87" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T87" t="n">
         <v>5</v>
@@ -10812,10 +10812,10 @@
         <v>5.5</v>
       </c>
       <c r="V87" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W87" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X87" t="n">
         <v>15</v>
@@ -10824,13 +10824,13 @@
         <v>41</v>
       </c>
       <c r="Z87" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB87" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC87" t="n">
         <v>101</v>
@@ -10839,19 +10839,19 @@
         <v>351</v>
       </c>
       <c r="AE87" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF87" t="n">
         <v>41</v>
       </c>
       <c r="AG87" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH87" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI87" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ87" t="n">
         <v>81</v>
@@ -10892,32 +10892,32 @@
         <v>3.8</v>
       </c>
       <c r="H88" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I88" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="M88" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="N88" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O88" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S88" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="T88" t="n">
         <v>12.5</v>
@@ -10938,25 +10938,25 @@
         <v>32</v>
       </c>
       <c r="Z88" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AA88" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AB88" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC88" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD88" t="n">
         <v>300</v>
       </c>
       <c r="AE88" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AF88" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG88" t="n">
         <v>8</v>
@@ -10965,10 +10965,10 @@
         <v>17.5</v>
       </c>
       <c r="AI88" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ88" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
@@ -11003,90 +11003,90 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="H89" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I89" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M89" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="N89" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="O89" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P89" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R89" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="S89" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T89" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="U89" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="V89" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W89" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X89" t="n">
         <v>21</v>
       </c>
       <c r="Y89" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z89" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AA89" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB89" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC89" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD89" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AE89" t="n">
         <v>9</v>
       </c>
       <c r="AF89" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG89" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH89" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI89" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ89" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90">
@@ -11248,22 +11248,22 @@
         <v>1.6</v>
       </c>
       <c r="J91" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K91" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L91" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M91" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N91" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O91" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P91" t="n">
         <v>1.5</v>
@@ -11362,7 +11362,7 @@
         <v>1.2</v>
       </c>
       <c r="H92" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I92" t="n">
         <v>12</v>
@@ -11380,10 +11380,10 @@
         <v>5.5</v>
       </c>
       <c r="N92" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O92" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P92" t="n">
         <v>1.25</v>
@@ -11398,13 +11398,13 @@
         <v>1.67</v>
       </c>
       <c r="T92" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U92" t="n">
         <v>6.5</v>
       </c>
       <c r="V92" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W92" t="n">
         <v>7</v>
@@ -11419,7 +11419,7 @@
         <v>17</v>
       </c>
       <c r="AA92" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB92" t="n">
         <v>26</v>
@@ -11487,7 +11487,7 @@
         <v>3.3</v>
       </c>
       <c r="I93" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="J93" t="n">
         <v>1.08</v>
@@ -11795,7 +11795,7 @@
         <v>1.04</v>
       </c>
       <c r="K96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L96" t="n">
         <v>1.25</v>
@@ -11905,7 +11905,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H97" t="n">
         <v>4</v>
@@ -11917,7 +11917,7 @@
         <v>1.04</v>
       </c>
       <c r="K97" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L97" t="n">
         <v>1.25</v>
@@ -11926,10 +11926,10 @@
         <v>3.75</v>
       </c>
       <c r="N97" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O97" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P97" t="n">
         <v>1.33</v>
@@ -11959,7 +11959,7 @@
         <v>13</v>
       </c>
       <c r="Y97" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z97" t="n">
         <v>12</v>
@@ -11968,7 +11968,7 @@
         <v>7.5</v>
       </c>
       <c r="AB97" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC97" t="n">
         <v>51</v>
@@ -12271,13 +12271,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H100" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I100" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="J100" t="n">
         <v>1.06</v>
@@ -12286,22 +12286,22 @@
         <v>10</v>
       </c>
       <c r="L100" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M100" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N100" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O100" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P100" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q100" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R100" t="n">
         <v>1.91</v>
@@ -12310,13 +12310,13 @@
         <v>1.8</v>
       </c>
       <c r="T100" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U100" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V100" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W100" t="n">
         <v>51</v>
@@ -12331,7 +12331,7 @@
         <v>10</v>
       </c>
       <c r="AA100" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB100" t="n">
         <v>17</v>
@@ -12340,7 +12340,7 @@
         <v>51</v>
       </c>
       <c r="AD100" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE100" t="n">
         <v>6.5</v>
@@ -12352,10 +12352,10 @@
         <v>8.5</v>
       </c>
       <c r="AH100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI100" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ100" t="n">
         <v>29</v>
@@ -12890,10 +12890,10 @@
         <v>5.25</v>
       </c>
       <c r="J105" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L105" t="n">
         <v>1.29</v>
@@ -13254,10 +13254,10 @@
         <v>3.25</v>
       </c>
       <c r="J108" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L108" t="n">
         <v>1.36</v>
@@ -13266,10 +13266,10 @@
         <v>3</v>
       </c>
       <c r="N108" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O108" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P108" t="n">
         <v>1.44</v>
@@ -13370,7 +13370,7 @@
         <v>2.07</v>
       </c>
       <c r="H109" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I109" t="n">
         <v>2.95</v>
@@ -13380,10 +13380,10 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O109" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
@@ -13396,22 +13396,22 @@
         <v>10</v>
       </c>
       <c r="V109" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="W109" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="X109" t="n">
         <v>12.5</v>
       </c>
       <c r="Y109" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z109" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AA109" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB109" t="n">
         <v>10</v>
@@ -13423,7 +13423,7 @@
         <v>175</v>
       </c>
       <c r="AE109" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF109" t="n">
         <v>14.5</v>
@@ -13544,10 +13544,10 @@
         <v>8</v>
       </c>
       <c r="J111" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K111" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L111" t="n">
         <v>1.17</v>
@@ -14121,19 +14121,19 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H116" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I116" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J116" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K116" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L116" t="n">
         <v>1.29</v>
@@ -14142,10 +14142,10 @@
         <v>3.5</v>
       </c>
       <c r="N116" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O116" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P116" t="n">
         <v>1.4</v>
@@ -14169,7 +14169,7 @@
         <v>9</v>
       </c>
       <c r="W116" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X116" t="n">
         <v>17</v>
@@ -14193,7 +14193,7 @@
         <v>201</v>
       </c>
       <c r="AE116" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF116" t="n">
         <v>19</v>
@@ -14255,7 +14255,7 @@
         <v>1.03</v>
       </c>
       <c r="K117" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L117" t="n">
         <v>1.18</v>
@@ -14368,7 +14368,7 @@
         <v>2.2</v>
       </c>
       <c r="H118" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I118" t="n">
         <v>2.88</v>
@@ -14392,25 +14392,25 @@
         <v>2.25</v>
       </c>
       <c r="P118" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q118" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R118" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S118" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T118" t="n">
         <v>10</v>
       </c>
       <c r="U118" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V118" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W118" t="n">
         <v>21</v>
@@ -14502,10 +14502,10 @@
         <v>19</v>
       </c>
       <c r="L119" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M119" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N119" t="n">
         <v>1.48</v>
@@ -14529,7 +14529,7 @@
         <v>10</v>
       </c>
       <c r="U119" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V119" t="n">
         <v>8.5</v>
@@ -14547,7 +14547,7 @@
         <v>19</v>
       </c>
       <c r="AA119" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB119" t="n">
         <v>13</v>
@@ -14568,13 +14568,13 @@
         <v>19</v>
       </c>
       <c r="AH119" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI119" t="n">
         <v>41</v>
       </c>
       <c r="AJ119" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120">
@@ -14752,10 +14752,10 @@
         <v>5.5</v>
       </c>
       <c r="N121" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O121" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P121" t="n">
         <v>1.25</v>
@@ -14853,13 +14853,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H122" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I122" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="J122" t="n">
         <v>1.04</v>
@@ -14874,46 +14874,46 @@
         <v>4.33</v>
       </c>
       <c r="N122" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O122" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P122" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q122" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R122" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S122" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T122" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U122" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="V122" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W122" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X122" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y122" t="n">
         <v>29</v>
       </c>
       <c r="Z122" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA122" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB122" t="n">
         <v>11</v>
@@ -14928,19 +14928,19 @@
         <v>10</v>
       </c>
       <c r="AF122" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG122" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH122" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI122" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ122" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123">
@@ -14996,10 +14996,10 @@
         <v>4.5</v>
       </c>
       <c r="N123" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O123" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P123" t="n">
         <v>1.29</v>
@@ -15240,10 +15240,10 @@
         <v>6</v>
       </c>
       <c r="N125" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O125" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P125" t="n">
         <v>1.22</v>
@@ -15475,7 +15475,7 @@
         <v>1.02</v>
       </c>
       <c r="K127" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L127" t="n">
         <v>1.13</v>
@@ -16439,13 +16439,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H135" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I135" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J135" t="n">
         <v>1.07</v>
@@ -16460,10 +16460,10 @@
         <v>3.25</v>
       </c>
       <c r="N135" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O135" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P135" t="n">
         <v>1.38</v>
@@ -16478,10 +16478,10 @@
         <v>1.78</v>
       </c>
       <c r="T135" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U135" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V135" t="n">
         <v>19</v>
@@ -16499,7 +16499,7 @@
         <v>10</v>
       </c>
       <c r="AA135" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB135" t="n">
         <v>21</v>
@@ -16508,7 +16508,7 @@
         <v>67</v>
       </c>
       <c r="AD135" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE135" t="n">
         <v>6</v>
@@ -16948,10 +16948,10 @@
         <v>3.5</v>
       </c>
       <c r="N139" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O139" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P139" t="n">
         <v>1.4</v>
@@ -17049,7 +17049,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H140" t="n">
         <v>3.75</v>
@@ -17293,13 +17293,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H142" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I142" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="J142" t="n">
         <v>1.03</v>
@@ -17335,16 +17335,16 @@
         <v>17</v>
       </c>
       <c r="U142" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V142" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W142" t="n">
         <v>41</v>
       </c>
       <c r="X142" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y142" t="n">
         <v>29</v>
@@ -17356,10 +17356,10 @@
         <v>8</v>
       </c>
       <c r="AB142" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC142" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD142" t="n">
         <v>126</v>
@@ -17368,13 +17368,13 @@
         <v>10</v>
       </c>
       <c r="AF142" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG142" t="n">
         <v>8.5</v>
       </c>
       <c r="AH142" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI142" t="n">
         <v>13</v>
@@ -17537,13 +17537,13 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H144" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I144" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J144" t="n">
         <v>1.02</v>
@@ -17552,22 +17552,22 @@
         <v>10</v>
       </c>
       <c r="L144" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="M144" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="N144" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="O144" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P144" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="Q144" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="R144" t="n">
         <v>1.32</v>
@@ -17576,7 +17576,7 @@
         <v>3.15</v>
       </c>
       <c r="T144" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="U144" t="n">
         <v>15</v>
@@ -17585,10 +17585,10 @@
         <v>9.25</v>
       </c>
       <c r="W144" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X144" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y144" t="n">
         <v>14</v>
@@ -17597,10 +17597,10 @@
         <v>10.75</v>
       </c>
       <c r="AA144" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB144" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AC144" t="n">
         <v>25</v>
@@ -17609,19 +17609,19 @@
         <v>100</v>
       </c>
       <c r="AE144" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF144" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG144" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH144" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI144" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ144" t="n">
         <v>23</v>
@@ -17899,13 +17899,13 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="H147" t="n">
         <v>3.3</v>
       </c>
       <c r="I147" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -17927,25 +17927,25 @@
         <v>1.57</v>
       </c>
       <c r="S147" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T147" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="U147" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="V147" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W147" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="X147" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y147" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z147" t="n">
         <v>11.25</v>
@@ -17963,19 +17963,19 @@
         <v>300</v>
       </c>
       <c r="AE147" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF147" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AG147" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH147" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI147" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ147" t="n">
         <v>24</v>
@@ -18013,7 +18013,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H148" t="n">
         <v>3.15</v>
@@ -18024,13 +18024,13 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M148" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="N148" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="O148" t="n">
         <v>1.7</v>
@@ -18041,13 +18041,13 @@
         <v>1.72</v>
       </c>
       <c r="S148" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T148" t="n">
         <v>9.75</v>
       </c>
       <c r="U148" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="V148" t="n">
         <v>11</v>
@@ -18068,7 +18068,7 @@
         <v>6.1</v>
       </c>
       <c r="AB148" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC148" t="n">
         <v>65</v>
@@ -18083,16 +18083,16 @@
         <v>10.25</v>
       </c>
       <c r="AG148" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH148" t="n">
         <v>21</v>
       </c>
       <c r="AI148" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ148" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149">
@@ -18244,28 +18244,28 @@
         <v>3.6</v>
       </c>
       <c r="H150" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I150" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J150" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K150" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L150" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M150" t="n">
         <v>4</v>
       </c>
       <c r="N150" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O150" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P150" t="n">
         <v>1.33</v>
@@ -18274,10 +18274,10 @@
         <v>3.25</v>
       </c>
       <c r="R150" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S150" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T150" t="n">
         <v>13</v>
@@ -18301,10 +18301,10 @@
         <v>12</v>
       </c>
       <c r="AA150" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB150" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC150" t="n">
         <v>41</v>
@@ -18313,7 +18313,7 @@
         <v>151</v>
       </c>
       <c r="AE150" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF150" t="n">
         <v>10</v>
@@ -18372,13 +18372,13 @@
         <v>2.05</v>
       </c>
       <c r="J151" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K151" t="n">
         <v>10</v>
       </c>
       <c r="L151" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M151" t="n">
         <v>3.25</v>
@@ -18396,10 +18396,10 @@
         <v>2.63</v>
       </c>
       <c r="R151" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S151" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T151" t="n">
         <v>9.5</v>
@@ -18494,16 +18494,16 @@
         <v>2.05</v>
       </c>
       <c r="J152" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K152" t="n">
         <v>8</v>
       </c>
       <c r="L152" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M152" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N152" t="n">
         <v>2.35</v>
@@ -18521,7 +18521,7 @@
         <v>2</v>
       </c>
       <c r="S152" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T152" t="n">
         <v>9</v>
@@ -18616,16 +18616,16 @@
         <v>3.2</v>
       </c>
       <c r="J153" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K153" t="n">
         <v>7</v>
       </c>
       <c r="L153" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M153" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N153" t="n">
         <v>2.5</v>
@@ -18738,22 +18738,22 @@
         <v>7</v>
       </c>
       <c r="J154" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K154" t="n">
         <v>13</v>
       </c>
       <c r="L154" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M154" t="n">
         <v>3.75</v>
       </c>
       <c r="N154" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="O154" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="P154" t="n">
         <v>1.36</v>
@@ -18857,13 +18857,13 @@
         <v>3.45</v>
       </c>
       <c r="I155" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="J155" t="n">
         <v>1.08</v>
       </c>
       <c r="K155" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L155" t="n">
         <v>1.38</v>
@@ -18890,7 +18890,7 @@
         <v>1.7</v>
       </c>
       <c r="T155" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="U155" t="n">
         <v>7.1</v>
@@ -18902,13 +18902,13 @@
         <v>12.5</v>
       </c>
       <c r="X155" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y155" t="n">
         <v>35</v>
       </c>
       <c r="Z155" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA155" t="n">
         <v>6.9</v>
@@ -18923,19 +18923,19 @@
         <v>900</v>
       </c>
       <c r="AE155" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF155" t="n">
         <v>24</v>
       </c>
       <c r="AG155" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH155" t="n">
         <v>80</v>
       </c>
       <c r="AI155" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ155" t="n">
         <v>65</v>
@@ -19012,19 +19012,19 @@
         <v>1.65</v>
       </c>
       <c r="T156" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="U156" t="n">
         <v>10.5</v>
       </c>
       <c r="V156" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W156" t="n">
         <v>26</v>
       </c>
       <c r="X156" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y156" t="n">
         <v>45</v>
@@ -19033,7 +19033,7 @@
         <v>5.1</v>
       </c>
       <c r="AA156" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB156" t="n">
         <v>18</v>
@@ -19045,22 +19045,22 @@
         <v>900</v>
       </c>
       <c r="AE156" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AF156" t="n">
         <v>15</v>
       </c>
       <c r="AG156" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH156" t="n">
         <v>45</v>
       </c>
       <c r="AI156" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ156" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157">
@@ -19342,7 +19342,7 @@
         <v>3.15</v>
       </c>
       <c r="H159" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I159" t="n">
         <v>2.12</v>
@@ -19590,10 +19590,10 @@
         <v>1.9</v>
       </c>
       <c r="J161" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K161" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L161" t="n">
         <v>1.36</v>
@@ -19602,10 +19602,10 @@
         <v>3</v>
       </c>
       <c r="N161" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O161" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P161" t="n">
         <v>1.44</v>
@@ -19703,19 +19703,19 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H162" t="n">
         <v>3.25</v>
       </c>
       <c r="I162" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J162" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K162" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L162" t="n">
         <v>1.44</v>
@@ -19730,10 +19730,10 @@
         <v>1.53</v>
       </c>
       <c r="P162" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R162" t="n">
         <v>2.1</v>
@@ -19748,7 +19748,7 @@
         <v>8</v>
       </c>
       <c r="V162" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W162" t="n">
         <v>17</v>
@@ -19757,7 +19757,7 @@
         <v>19</v>
       </c>
       <c r="Y162" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z162" t="n">
         <v>7</v>
@@ -19778,13 +19778,13 @@
         <v>9</v>
       </c>
       <c r="AF162" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG162" t="n">
         <v>15</v>
       </c>
       <c r="AH162" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI162" t="n">
         <v>41</v>
@@ -19834,10 +19834,10 @@
         <v>2.6</v>
       </c>
       <c r="J163" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K163" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L163" t="n">
         <v>1.36</v>
@@ -19947,51 +19947,51 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H164" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I164" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O164" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U164" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V164" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W164" t="n">
         <v>65</v>
       </c>
       <c r="X164" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y164" t="n">
         <v>32</v>
       </c>
       <c r="Z164" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA164" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AB164" t="n">
         <v>12.5</v>
@@ -20006,13 +20006,13 @@
         <v>6.7</v>
       </c>
       <c r="AF164" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AG164" t="n">
         <v>6.9</v>
       </c>
       <c r="AH164" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AI164" t="n">
         <v>10</v>
@@ -20298,7 +20298,7 @@
         <v>3.5</v>
       </c>
       <c r="R167" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S167" t="n">
         <v>2.25</v>
@@ -21014,10 +21014,10 @@
         <v>3.4</v>
       </c>
       <c r="J177" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K177" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L177" t="n">
         <v>1.4</v>
@@ -21373,13 +21373,13 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H181" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I181" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J181" t="n">
         <v>1.07</v>
@@ -21406,10 +21406,10 @@
         <v>2.63</v>
       </c>
       <c r="R181" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S181" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T181" t="n">
         <v>11</v>
@@ -21418,7 +21418,7 @@
         <v>23</v>
       </c>
       <c r="V181" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W181" t="n">
         <v>51</v>
@@ -21427,7 +21427,7 @@
         <v>41</v>
       </c>
       <c r="Y181" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z181" t="n">
         <v>8.5</v>
@@ -21457,7 +21457,7 @@
         <v>13</v>
       </c>
       <c r="AI181" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ181" t="n">
         <v>34</v>
@@ -21995,7 +21995,7 @@
         <v>1.03</v>
       </c>
       <c r="K186" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L186" t="n">
         <v>1.17</v>
@@ -22105,13 +22105,13 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H187" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I187" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J187" t="n">
         <v>1.05</v>
@@ -22165,13 +22165,13 @@
         <v>11</v>
       </c>
       <c r="AA187" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB187" t="n">
         <v>15</v>
       </c>
       <c r="AC187" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD187" t="n">
         <v>201</v>
@@ -22180,7 +22180,7 @@
         <v>8</v>
       </c>
       <c r="AF187" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG187" t="n">
         <v>9</v>
@@ -22227,19 +22227,19 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H188" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I188" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J188" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K188" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L188" t="n">
         <v>1.29</v>
@@ -22248,10 +22248,10 @@
         <v>3.5</v>
       </c>
       <c r="N188" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O188" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P188" t="n">
         <v>1.36</v>
@@ -22272,10 +22272,10 @@
         <v>11</v>
       </c>
       <c r="V188" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W188" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X188" t="n">
         <v>17</v>
@@ -22284,7 +22284,7 @@
         <v>26</v>
       </c>
       <c r="Z188" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA188" t="n">
         <v>6.5</v>
@@ -22299,7 +22299,7 @@
         <v>201</v>
       </c>
       <c r="AE188" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF188" t="n">
         <v>17</v>
@@ -22632,7 +22632,7 @@
         <v>2.25</v>
       </c>
       <c r="T191" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U191" t="n">
         <v>12</v>
@@ -22641,7 +22641,7 @@
         <v>9</v>
       </c>
       <c r="W191" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X191" t="n">
         <v>15</v>
@@ -22650,7 +22650,7 @@
         <v>21</v>
       </c>
       <c r="Z191" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA191" t="n">
         <v>7</v>
@@ -23081,13 +23081,13 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H195" t="n">
         <v>3.1</v>
       </c>
       <c r="I195" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J195" t="n">
         <v>1.05</v>
@@ -23108,25 +23108,25 @@
         <v>1.98</v>
       </c>
       <c r="P195" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q195" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R195" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S195" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T195" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U195" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V195" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W195" t="n">
         <v>21</v>
@@ -23141,7 +23141,7 @@
         <v>11</v>
       </c>
       <c r="AA195" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB195" t="n">
         <v>12</v>
@@ -23165,7 +23165,7 @@
         <v>34</v>
       </c>
       <c r="AI195" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ195" t="n">
         <v>29</v>
@@ -23325,27 +23325,27 @@
         </is>
       </c>
       <c r="G197" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H197" t="n">
         <v>3.4</v>
       </c>
-      <c r="H197" t="n">
-        <v>3.35</v>
-      </c>
       <c r="I197" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M197" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="N197" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O197" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P197" t="n">
         <v>1.38</v>
@@ -23354,37 +23354,37 @@
         <v>2.6</v>
       </c>
       <c r="R197" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S197" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T197" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="U197" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="V197" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="W197" t="n">
+        <v>50</v>
+      </c>
+      <c r="X197" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y197" t="n">
         <v>45</v>
       </c>
-      <c r="X197" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y197" t="n">
-        <v>40</v>
-      </c>
       <c r="Z197" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA197" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB197" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC197" t="n">
         <v>80</v>
@@ -23393,19 +23393,19 @@
         <v>700</v>
       </c>
       <c r="AE197" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AF197" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AG197" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH197" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI197" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ197" t="n">
         <v>30</v>
@@ -23561,21 +23561,21 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H199" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I199" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M199" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N199" t="n">
         <v>1.98</v>
@@ -23590,25 +23590,25 @@
         <v>2.57</v>
       </c>
       <c r="R199" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S199" t="n">
         <v>1.78</v>
       </c>
       <c r="T199" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="U199" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V199" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W199" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="X199" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y199" t="n">
         <v>30</v>
@@ -23617,7 +23617,7 @@
         <v>8.75</v>
       </c>
       <c r="AA199" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB199" t="n">
         <v>16</v>
@@ -23629,19 +23629,19 @@
         <v>700</v>
       </c>
       <c r="AE199" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AF199" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG199" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH199" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI199" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ199" t="n">
         <v>45</v>
@@ -23679,48 +23679,48 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H200" t="n">
         <v>3.25</v>
       </c>
       <c r="I200" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M200" t="n">
         <v>2.72</v>
       </c>
       <c r="N200" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O200" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P200" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q200" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R200" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S200" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T200" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U200" t="n">
         <v>14.5</v>
       </c>
       <c r="V200" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="W200" t="n">
         <v>37</v>
@@ -23732,13 +23732,13 @@
         <v>40</v>
       </c>
       <c r="Z200" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA200" t="n">
         <v>6.3</v>
       </c>
       <c r="AB200" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC200" t="n">
         <v>80</v>
@@ -23747,16 +23747,16 @@
         <v>700</v>
       </c>
       <c r="AE200" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AF200" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AG200" t="n">
         <v>9.25</v>
       </c>
       <c r="AH200" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI200" t="n">
         <v>19</v>
@@ -24163,94 +24163,94 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.12</v>
+        <v>2.62</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="I204" t="n">
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="J204" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="K204" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="L204" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="M204" t="n">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="N204" t="n">
-        <v>2.15</v>
+        <v>2.37</v>
       </c>
       <c r="O204" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="P204" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="Q204" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="R204" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S204" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T204" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="U204" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="V204" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="W204" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X204" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Y204" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Z204" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="AA204" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AB204" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AC204" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD204" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AE204" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AF204" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG204" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AH204" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AI204" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ204" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="205">
@@ -24285,27 +24285,27 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H205" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I205" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M205" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="N205" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="O205" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="P205" t="n">
         <v>1.38</v>
@@ -24314,16 +24314,16 @@
         <v>2.6</v>
       </c>
       <c r="R205" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S205" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T205" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="U205" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="V205" t="n">
         <v>11.75</v>
@@ -24335,40 +24335,40 @@
         <v>29</v>
       </c>
       <c r="Y205" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z205" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA205" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AB205" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC205" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD205" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE205" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AF205" t="n">
         <v>9.5</v>
       </c>
       <c r="AG205" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH205" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI205" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ205" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="206">
@@ -24403,88 +24403,88 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="H206" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I206" t="n">
-        <v>4.35</v>
+        <v>5.1</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="M206" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N206" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="O206" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P206" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q206" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="R206" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S206" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T206" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U206" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="V206" t="n">
         <v>8.75</v>
       </c>
       <c r="W206" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="X206" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y206" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z206" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AA206" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AB206" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC206" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD206" t="inlineStr"/>
       <c r="AE206" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AF206" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AG206" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AH206" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AI206" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AJ206" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="207">
@@ -24519,13 +24519,13 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="H207" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I207" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
@@ -24533,13 +24533,13 @@
         <v>1.32</v>
       </c>
       <c r="M207" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="N207" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O207" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P207" t="n">
         <v>1.39</v>
@@ -24548,25 +24548,25 @@
         <v>2.55</v>
       </c>
       <c r="R207" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S207" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="T207" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="U207" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="V207" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W207" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="X207" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y207" t="n">
         <v>30</v>
@@ -24575,34 +24575,34 @@
         <v>9</v>
       </c>
       <c r="AA207" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AB207" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AC207" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD207" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE207" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AF207" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AG207" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AH207" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AI207" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AJ207" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="208">
@@ -24637,10 +24637,10 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H208" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I208" t="n">
         <v>1.75</v>
@@ -24648,79 +24648,79 @@
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M208" t="n">
-        <v>2.52</v>
+        <v>2.8</v>
       </c>
       <c r="N208" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="O208" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="P208" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.37</v>
+        <v>2.57</v>
       </c>
       <c r="R208" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="S208" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="T208" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="U208" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V208" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="W208" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="X208" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y208" t="n">
         <v>55</v>
       </c>
-      <c r="Y208" t="n">
-        <v>65</v>
-      </c>
       <c r="Z208" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA208" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AB208" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AC208" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AD208" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AE208" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="AF208" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="AG208" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AH208" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI208" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AJ208" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="209">
@@ -24873,90 +24873,90 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="H210" t="n">
         <v>4.05</v>
       </c>
       <c r="I210" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M210" t="n">
-        <v>2.95</v>
+        <v>2.77</v>
       </c>
       <c r="N210" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="O210" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P210" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q210" t="n">
         <v>2.57</v>
       </c>
       <c r="R210" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="S210" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="T210" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="U210" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="V210" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W210" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="X210" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y210" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Z210" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AA210" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB210" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AC210" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AD210" t="n">
         <v>900</v>
       </c>
       <c r="AE210" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF210" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG210" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AH210" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AI210" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AJ210" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="211">
@@ -25800,22 +25800,22 @@
         <v>6.5</v>
       </c>
       <c r="J221" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K221" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L221" t="n">
         <v>1.22</v>
       </c>
       <c r="M221" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N221" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="O221" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="P221" t="n">
         <v>1.33</v>
@@ -25922,22 +25922,22 @@
         <v>4.33</v>
       </c>
       <c r="J222" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K222" t="n">
         <v>11</v>
       </c>
       <c r="L222" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M222" t="n">
         <v>4</v>
       </c>
       <c r="N222" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="O222" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="P222" t="n">
         <v>1.36</v>
@@ -26044,22 +26044,22 @@
         <v>3.25</v>
       </c>
       <c r="J223" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K223" t="n">
         <v>9</v>
       </c>
       <c r="L223" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M223" t="n">
         <v>3.2</v>
       </c>
       <c r="N223" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O223" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="P223" t="n">
         <v>1.44</v>
@@ -26157,31 +26157,31 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H224" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I224" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J224" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K224" t="n">
         <v>19</v>
       </c>
       <c r="L224" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M224" t="n">
         <v>5.5</v>
       </c>
       <c r="N224" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="O224" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="P224" t="n">
         <v>1.22</v>
@@ -26196,7 +26196,7 @@
         <v>2</v>
       </c>
       <c r="T224" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U224" t="n">
         <v>8</v>
@@ -26205,7 +26205,7 @@
         <v>9</v>
       </c>
       <c r="W224" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X224" t="n">
         <v>10</v>
@@ -26229,16 +26229,16 @@
         <v>201</v>
       </c>
       <c r="AE224" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF224" t="n">
         <v>41</v>
       </c>
       <c r="AG224" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH224" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI224" t="n">
         <v>51</v>
@@ -26288,22 +26288,22 @@
         <v>2.9</v>
       </c>
       <c r="J225" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K225" t="n">
         <v>11</v>
       </c>
       <c r="L225" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M225" t="n">
         <v>3.75</v>
       </c>
       <c r="N225" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="O225" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="P225" t="n">
         <v>1.36</v>
@@ -26410,22 +26410,22 @@
         <v>5.75</v>
       </c>
       <c r="J226" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K226" t="n">
         <v>9</v>
       </c>
       <c r="L226" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M226" t="n">
         <v>4</v>
       </c>
       <c r="N226" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="O226" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="P226" t="n">
         <v>1.33</v>
@@ -26532,19 +26532,19 @@
         <v>3.1</v>
       </c>
       <c r="J227" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K227" t="n">
         <v>8.5</v>
       </c>
       <c r="L227" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M227" t="n">
         <v>3.75</v>
       </c>
       <c r="N227" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="O227" t="n">
         <v>2</v>
@@ -26645,37 +26645,37 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H228" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I228" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J228" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K228" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L228" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M228" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="N228" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O228" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P228" t="n">
         <v>1.47</v>
       </c>
       <c r="Q228" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R228" t="n">
         <v>2.12</v>
@@ -26687,13 +26687,13 @@
         <v>5.6</v>
       </c>
       <c r="U228" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="V228" t="n">
         <v>8.5</v>
       </c>
       <c r="W228" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="X228" t="n">
         <v>14.5</v>
@@ -26702,10 +26702,10 @@
         <v>35</v>
       </c>
       <c r="Z228" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AA228" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AB228" t="n">
         <v>21</v>
@@ -26717,22 +26717,22 @@
         <v>900</v>
       </c>
       <c r="AE228" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AF228" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG228" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH228" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI228" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ228" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="229">
@@ -26794,7 +26794,7 @@
         <v>2</v>
       </c>
       <c r="P229" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q229" t="n">
         <v>2.87</v>
@@ -26806,19 +26806,19 @@
         <v>2.15</v>
       </c>
       <c r="T229" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U229" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="V229" t="n">
         <v>8.5</v>
       </c>
       <c r="W229" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="X229" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y229" t="n">
         <v>23</v>
@@ -26839,10 +26839,10 @@
         <v>350</v>
       </c>
       <c r="AE229" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF229" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG229" t="n">
         <v>11.25</v>
@@ -26851,10 +26851,10 @@
         <v>45</v>
       </c>
       <c r="AI229" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ229" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="230">
@@ -26958,7 +26958,7 @@
         <v>67</v>
       </c>
       <c r="AD230" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AE230" t="n">
         <v>51</v>
@@ -27076,7 +27076,7 @@
         <v>101</v>
       </c>
       <c r="AD231" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AE231" t="n">
         <v>23</v>
@@ -27129,19 +27129,19 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="H232" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I232" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="J232" t="n">
         <v>1.05</v>
       </c>
       <c r="K232" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="L232" t="n">
         <v>1.27</v>
@@ -27159,46 +27159,46 @@
         <v>1.39</v>
       </c>
       <c r="Q232" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="R232" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S232" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="T232" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U232" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V232" t="n">
         <v>8.75</v>
       </c>
       <c r="W232" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X232" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB232" t="n">
         <v>15.5</v>
-      </c>
-      <c r="X232" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y232" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z232" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA232" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AB232" t="n">
-        <v>16</v>
       </c>
       <c r="AC232" t="n">
         <v>70</v>
       </c>
       <c r="AD232" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE232" t="n">
         <v>11.75</v>
@@ -27207,7 +27207,7 @@
         <v>25</v>
       </c>
       <c r="AG232" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH232" t="n">
         <v>70</v>
@@ -27251,13 +27251,13 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="H233" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I233" t="n">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="J233" t="n">
         <v>1.08</v>
@@ -27269,7 +27269,7 @@
         <v>1.38</v>
       </c>
       <c r="M233" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="N233" t="n">
         <v>2.15</v>
@@ -27284,25 +27284,25 @@
         <v>2.72</v>
       </c>
       <c r="R233" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S233" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T233" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="U233" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V233" t="n">
         <v>9</v>
       </c>
       <c r="W233" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X233" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y233" t="n">
         <v>37</v>
@@ -27311,34 +27311,34 @@
         <v>6.9</v>
       </c>
       <c r="AA233" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AB233" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC233" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD233" t="n">
         <v>1000</v>
       </c>
       <c r="AE233" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF233" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG233" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AH233" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI233" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ233" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="234">
@@ -28016,7 +28016,7 @@
         <v>2.75</v>
       </c>
       <c r="R239" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S239" t="n">
         <v>2</v>
@@ -28105,13 +28105,13 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H240" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I240" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="J240" t="n">
         <v>1.05</v>
@@ -28132,31 +28132,31 @@
         <v>1.85</v>
       </c>
       <c r="P240" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q240" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R240" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="S240" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T240" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U240" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V240" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W240" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X240" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y240" t="n">
         <v>26</v>
@@ -28168,28 +28168,28 @@
         <v>6.5</v>
       </c>
       <c r="AB240" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG240" t="n">
         <v>13</v>
       </c>
-      <c r="AC240" t="n">
+      <c r="AH240" t="n">
         <v>41</v>
       </c>
-      <c r="AD240" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE240" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF240" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG240" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH240" t="n">
-        <v>34</v>
-      </c>
       <c r="AI240" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ240" t="n">
         <v>34</v>
@@ -28260,10 +28260,10 @@
         <v>2.63</v>
       </c>
       <c r="R241" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S241" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T241" t="n">
         <v>8</v>
@@ -28614,10 +28614,10 @@
         <v>3.25</v>
       </c>
       <c r="N244" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O244" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P244" t="n">
         <v>1.4</v>
@@ -28730,16 +28730,16 @@
         <v>15</v>
       </c>
       <c r="L245" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M245" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N245" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O245" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P245" t="n">
         <v>1.33</v>
@@ -29081,13 +29081,13 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H248" t="n">
         <v>3.2</v>
       </c>
       <c r="I248" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J248" t="n">
         <v>1.07</v>
@@ -29096,10 +29096,10 @@
         <v>8.5</v>
       </c>
       <c r="L248" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M248" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N248" t="n">
         <v>2.1</v>
@@ -29120,10 +29120,10 @@
         <v>1.83</v>
       </c>
       <c r="T248" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U248" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V248" t="n">
         <v>10</v>
@@ -29236,10 +29236,10 @@
         <v>2.63</v>
       </c>
       <c r="R249" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S249" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T249" t="n">
         <v>7</v>
@@ -29361,7 +29361,7 @@
         <v>2.1</v>
       </c>
       <c r="S250" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T250" t="n">
         <v>7</v>
@@ -29468,10 +29468,10 @@
         <v>3.4</v>
       </c>
       <c r="N251" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O251" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P251" t="n">
         <v>1.4</v>
@@ -29480,10 +29480,10 @@
         <v>2.75</v>
       </c>
       <c r="R251" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S251" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T251" t="n">
         <v>10</v>
@@ -29605,7 +29605,7 @@
         <v>2.1</v>
       </c>
       <c r="S252" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T252" t="n">
         <v>6</v>
@@ -29691,19 +29691,19 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H253" t="n">
         <v>3.4</v>
       </c>
       <c r="I253" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J253" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K253" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L253" t="n">
         <v>1.33</v>
@@ -29727,7 +29727,7 @@
         <v>2</v>
       </c>
       <c r="S253" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T253" t="n">
         <v>6.5</v>
@@ -29760,7 +29760,7 @@
         <v>51</v>
       </c>
       <c r="AD253" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE253" t="n">
         <v>12</v>
@@ -29846,10 +29846,10 @@
         <v>2.38</v>
       </c>
       <c r="R254" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="S254" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T254" t="n">
         <v>5.5</v>
@@ -29969,7 +29969,7 @@
         <v>2</v>
       </c>
       <c r="S255" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T255" t="n">
         <v>6</v>
@@ -30088,10 +30088,10 @@
         <v>2.75</v>
       </c>
       <c r="R256" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S256" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T256" t="n">
         <v>7.5</v>
@@ -30177,7 +30177,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="H257" t="n">
         <v>3.5</v>
@@ -30213,7 +30213,7 @@
         <v>2</v>
       </c>
       <c r="S257" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T257" t="n">
         <v>6.5</v>
@@ -30246,7 +30246,7 @@
         <v>67</v>
       </c>
       <c r="AD257" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE257" t="n">
         <v>12</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="H258" t="n">
         <v>3.8</v>
@@ -30335,7 +30335,7 @@
         <v>2.2</v>
       </c>
       <c r="S258" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T258" t="n">
         <v>6</v>
@@ -30457,7 +30457,7 @@
         <v>2</v>
       </c>
       <c r="S259" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T259" t="n">
         <v>6.5</v>
@@ -30543,7 +30543,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H260" t="n">
         <v>3</v>
@@ -30552,10 +30552,10 @@
         <v>3</v>
       </c>
       <c r="J260" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K260" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L260" t="n">
         <v>1.36</v>
@@ -30564,10 +30564,10 @@
         <v>3</v>
       </c>
       <c r="N260" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O260" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P260" t="n">
         <v>1.44</v>
@@ -30576,10 +30576,10 @@
         <v>2.63</v>
       </c>
       <c r="R260" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S260" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T260" t="n">
         <v>7.5</v>
@@ -30665,7 +30665,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H261" t="n">
         <v>3.1</v>
@@ -30701,7 +30701,7 @@
         <v>2</v>
       </c>
       <c r="S261" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T261" t="n">
         <v>6</v>
@@ -30787,7 +30787,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="H262" t="n">
         <v>4.2</v>
@@ -30808,7 +30808,7 @@
         <v>3.75</v>
       </c>
       <c r="N262" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O262" t="n">
         <v>2.05</v>
@@ -30909,7 +30909,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="H263" t="n">
         <v>3.7</v>
@@ -30933,7 +30933,7 @@
         <v>2.05</v>
       </c>
       <c r="O263" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P263" t="n">
         <v>1.4</v>
@@ -31031,13 +31031,13 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H264" t="n">
         <v>3.7</v>
       </c>
       <c r="I264" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J264" t="n">
         <v>1.03</v>
@@ -31052,7 +31052,7 @@
         <v>5</v>
       </c>
       <c r="N264" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="O264" t="n">
         <v>2.35</v>
@@ -31153,13 +31153,13 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="H265" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I265" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J265" t="n">
         <v>1.03</v>
@@ -31174,10 +31174,10 @@
         <v>4.5</v>
       </c>
       <c r="N265" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="O265" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P265" t="n">
         <v>1.29</v>
@@ -31186,22 +31186,22 @@
         <v>3.5</v>
       </c>
       <c r="R265" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S265" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T265" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U265" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V265" t="n">
         <v>8.5</v>
       </c>
       <c r="W265" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X265" t="n">
         <v>12</v>
@@ -31213,25 +31213,25 @@
         <v>17</v>
       </c>
       <c r="AA265" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB265" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC265" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD265" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE265" t="n">
         <v>15</v>
       </c>
       <c r="AF265" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG265" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH265" t="n">
         <v>51</v>
@@ -31275,7 +31275,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H266" t="n">
         <v>3.6</v>
@@ -31296,10 +31296,10 @@
         <v>3.25</v>
       </c>
       <c r="N266" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="O266" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P266" t="n">
         <v>1.44</v>
@@ -31421,7 +31421,7 @@
         <v>2.05</v>
       </c>
       <c r="O267" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P267" t="n">
         <v>1.4</v>
@@ -31900,16 +31900,16 @@
         <v>15</v>
       </c>
       <c r="L271" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M271" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N271" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O271" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P271" t="n">
         <v>1.3</v>
@@ -32138,22 +32138,22 @@
         <v>2.35</v>
       </c>
       <c r="J273" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K273" t="n">
         <v>19</v>
       </c>
       <c r="L273" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M273" t="n">
         <v>5.5</v>
       </c>
       <c r="N273" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O273" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P273" t="n">
         <v>1.25</v>
@@ -32251,22 +32251,22 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H274" t="n">
         <v>3.3</v>
       </c>
       <c r="I274" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J274" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K274" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L274" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M274" t="n">
         <v>3.5</v>
@@ -32290,19 +32290,19 @@
         <v>2</v>
       </c>
       <c r="T274" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U274" t="n">
         <v>11</v>
       </c>
       <c r="V274" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W274" t="n">
         <v>21</v>
       </c>
       <c r="X274" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y274" t="n">
         <v>26</v>
@@ -32323,7 +32323,7 @@
         <v>201</v>
       </c>
       <c r="AE274" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF274" t="n">
         <v>17</v>
@@ -32335,7 +32335,7 @@
         <v>34</v>
       </c>
       <c r="AI274" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ274" t="n">
         <v>34</v>
@@ -32379,7 +32379,7 @@
         <v>4.5</v>
       </c>
       <c r="I275" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="J275" t="n">
         <v>1.01</v>
@@ -32388,7 +32388,7 @@
         <v>26</v>
       </c>
       <c r="L275" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="M275" t="n">
         <v>8</v>
@@ -32679,82 +32679,82 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H278" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I278" t="n">
         <v>6.25</v>
       </c>
       <c r="J278" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K278" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="L278" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M278" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="N278" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="O278" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="P278" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Q278" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="R278" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S278" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="T278" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U278" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V278" t="n">
         <v>8.5</v>
       </c>
       <c r="W278" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X278" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y278" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z278" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA278" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB278" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC278" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD278" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE278" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF278" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG278" t="n">
         <v>21</v>
@@ -32801,46 +32801,46 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H279" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I279" t="n">
         <v>7.5</v>
       </c>
       <c r="J279" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K279" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="L279" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M279" t="n">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="N279" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="O279" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="P279" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="Q279" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="R279" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S279" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T279" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U279" t="n">
         <v>7.5</v>
@@ -32858,10 +32858,10 @@
         <v>23</v>
       </c>
       <c r="Z279" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA279" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB279" t="n">
         <v>19</v>
@@ -32870,7 +32870,7 @@
         <v>51</v>
       </c>
       <c r="AD279" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE279" t="n">
         <v>21</v>
@@ -32923,43 +32923,43 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H280" t="n">
         <v>3.4</v>
       </c>
       <c r="I280" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="J280" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K280" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="L280" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M280" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="N280" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="O280" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="P280" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Q280" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="R280" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="S280" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T280" t="n">
         <v>9.5</v>
@@ -32968,46 +32968,46 @@
         <v>17</v>
       </c>
       <c r="V280" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W280" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X280" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y280" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z280" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA280" t="n">
         <v>6.5</v>
       </c>
       <c r="AB280" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC280" t="n">
         <v>51</v>
       </c>
       <c r="AD280" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE280" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF280" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG280" t="n">
         <v>9</v>
       </c>
       <c r="AH280" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI280" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ280" t="n">
         <v>29</v>
@@ -33045,13 +33045,13 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H281" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="I281" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J281" t="n">
         <v>1.08</v>
@@ -33066,10 +33066,10 @@
         <v>3.1</v>
       </c>
       <c r="N281" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O281" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P281" t="n">
         <v>1.47</v>
@@ -33084,7 +33084,7 @@
         <v>2.15</v>
       </c>
       <c r="T281" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U281" t="n">
         <v>11</v>
@@ -33099,13 +33099,13 @@
         <v>21</v>
       </c>
       <c r="Y281" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z281" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA281" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AB281" t="n">
         <v>11</v>
@@ -33123,13 +33123,13 @@
         <v>19</v>
       </c>
       <c r="AG281" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH281" t="n">
         <v>41</v>
       </c>
       <c r="AI281" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ281" t="n">
         <v>41</v>
@@ -33176,16 +33176,16 @@
         <v>1.25</v>
       </c>
       <c r="J282" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K282" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L282" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M282" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N282" t="n">
         <v>1.65</v>
@@ -33194,16 +33194,16 @@
         <v>2.2</v>
       </c>
       <c r="P282" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="Q282" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="R282" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="S282" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T282" t="n">
         <v>21</v>
@@ -33289,13 +33289,13 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H283" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I283" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="J283" t="n">
         <v>1.04</v>
@@ -33304,10 +33304,10 @@
         <v>8.5</v>
       </c>
       <c r="L283" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M283" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="N283" t="n">
         <v>1.67</v>
@@ -33316,10 +33316,10 @@
         <v>2.15</v>
       </c>
       <c r="P283" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Q283" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R283" t="n">
         <v>1.75</v>
@@ -33331,10 +33331,10 @@
         <v>15</v>
       </c>
       <c r="U283" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V283" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W283" t="n">
         <v>51</v>
@@ -33370,7 +33370,7 @@
         <v>8.5</v>
       </c>
       <c r="AH283" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI283" t="n">
         <v>12</v>
@@ -33589,28 +33589,28 @@
         </is>
       </c>
       <c r="G286" t="n">
+        <v>3</v>
+      </c>
+      <c r="H286" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I286" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J286" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K286" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L286" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M286" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="N286" t="n">
         <v>2.7</v>
-      </c>
-      <c r="H286" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I286" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="J286" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K286" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="L286" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M286" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N286" t="n">
-        <v>2.65</v>
       </c>
       <c r="O286" t="n">
         <v>1.36</v>
@@ -33622,37 +33622,37 @@
         <v>2</v>
       </c>
       <c r="R286" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S286" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T286" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="U286" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="V286" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="W286" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="X286" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Y286" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Z286" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AA286" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AB286" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC286" t="n">
         <v>150</v>
@@ -33661,19 +33661,19 @@
         <v>1000</v>
       </c>
       <c r="AE286" t="n">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="AF286" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG286" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH286" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AI286" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ286" t="n">
         <v>55</v>
@@ -33838,19 +33838,19 @@
         <v>3.2</v>
       </c>
       <c r="J288" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K288" t="n">
         <v>17</v>
       </c>
       <c r="L288" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M288" t="n">
         <v>5.5</v>
       </c>
       <c r="N288" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O288" t="n">
         <v>2.4</v>
@@ -33862,10 +33862,10 @@
         <v>3.75</v>
       </c>
       <c r="R288" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S288" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T288" t="n">
         <v>12</v>
@@ -33951,28 +33951,28 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H289" t="n">
         <v>3.6</v>
       </c>
       <c r="I289" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J289" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K289" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L289" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M289" t="n">
         <v>4.33</v>
       </c>
       <c r="N289" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O289" t="n">
         <v>2.15</v>
@@ -33984,7 +33984,7 @@
         <v>3.4</v>
       </c>
       <c r="R289" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S289" t="n">
         <v>2.25</v>
@@ -33993,22 +33993,22 @@
         <v>10</v>
       </c>
       <c r="U289" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V289" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W289" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X289" t="n">
         <v>17</v>
       </c>
       <c r="Y289" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z289" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA289" t="n">
         <v>7</v>
@@ -34032,7 +34032,7 @@
         <v>11</v>
       </c>
       <c r="AH289" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI289" t="n">
         <v>21</v>
@@ -34073,13 +34073,13 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H290" t="n">
         <v>3.6</v>
       </c>
       <c r="I290" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="J290" t="n">
         <v>1.05</v>
@@ -34094,10 +34094,10 @@
         <v>3.75</v>
       </c>
       <c r="N290" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O290" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P290" t="n">
         <v>1.36</v>
@@ -34195,7 +34195,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H291" t="n">
         <v>3.9</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H292" t="n">
         <v>3.6</v>
@@ -34439,7 +34439,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H293" t="n">
         <v>3.7</v>
@@ -34561,7 +34561,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="H294" t="n">
         <v>4.2</v>
@@ -34692,13 +34692,13 @@
         <v>3</v>
       </c>
       <c r="J295" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K295" t="n">
         <v>13</v>
       </c>
       <c r="L295" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M295" t="n">
         <v>4</v>
@@ -34805,31 +34805,31 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H296" t="n">
         <v>3.7</v>
       </c>
       <c r="I296" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J296" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K296" t="n">
         <v>13</v>
       </c>
       <c r="L296" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M296" t="n">
         <v>4</v>
       </c>
       <c r="N296" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O296" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P296" t="n">
         <v>1.33</v>
@@ -34844,7 +34844,7 @@
         <v>2.1</v>
       </c>
       <c r="T296" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U296" t="n">
         <v>11</v>
@@ -34880,16 +34880,16 @@
         <v>11</v>
       </c>
       <c r="AF296" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG296" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH296" t="n">
         <v>34</v>
       </c>
       <c r="AI296" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ296" t="n">
         <v>29</v>
@@ -34936,13 +34936,13 @@
         <v>2.6</v>
       </c>
       <c r="J297" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K297" t="n">
         <v>9</v>
       </c>
       <c r="L297" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M297" t="n">
         <v>3</v>
@@ -35058,13 +35058,13 @@
         <v>4</v>
       </c>
       <c r="J298" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K298" t="n">
         <v>13</v>
       </c>
       <c r="L298" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M298" t="n">
         <v>4</v>
@@ -35180,13 +35180,13 @@
         <v>2.63</v>
       </c>
       <c r="J299" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K299" t="n">
         <v>15</v>
       </c>
       <c r="L299" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M299" t="n">
         <v>4.33</v>
@@ -35302,13 +35302,13 @@
         <v>3.7</v>
       </c>
       <c r="J300" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K300" t="n">
         <v>19</v>
       </c>
       <c r="L300" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="M300" t="n">
         <v>6</v>
@@ -35662,46 +35662,46 @@
         <v>1.65</v>
       </c>
       <c r="H303" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I303" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J303" t="n">
         <v>1.05</v>
       </c>
       <c r="K303" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="L303" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M303" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="N303" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O303" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="P303" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="Q303" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="R303" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="S303" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T303" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="U303" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="V303" t="n">
         <v>8.25</v>
@@ -35710,43 +35710,43 @@
         <v>12.5</v>
       </c>
       <c r="X303" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y303" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z303" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AA303" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AB303" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC303" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD303" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AE303" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF303" t="n">
         <v>25</v>
       </c>
       <c r="AG303" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH303" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI303" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ303" t="n">
         <v>45</v>
-      </c>
-      <c r="AJ303" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="304">
@@ -35820,7 +35820,7 @@
         <v>2.05</v>
       </c>
       <c r="T304" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U304" t="n">
         <v>13.5</v>
@@ -35859,13 +35859,13 @@
         <v>13</v>
       </c>
       <c r="AG304" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH304" t="n">
         <v>27</v>
       </c>
       <c r="AI304" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ304" t="n">
         <v>28</v>
@@ -35936,10 +35936,10 @@
         <v>2.67</v>
       </c>
       <c r="R305" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S305" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T305" t="n">
         <v>6.1</v>
@@ -35957,7 +35957,7 @@
         <v>12.5</v>
       </c>
       <c r="Y305" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z305" t="n">
         <v>7.3</v>
@@ -36025,7 +36025,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="H306" t="n">
         <v>3.4</v>
@@ -36064,10 +36064,10 @@
         <v>2.35</v>
       </c>
       <c r="T306" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="U306" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V306" t="n">
         <v>9.75</v>
@@ -36076,16 +36076,16 @@
         <v>30</v>
       </c>
       <c r="X306" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y306" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z306" t="n">
         <v>8.5</v>
       </c>
       <c r="AA306" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB306" t="n">
         <v>11.5</v>
@@ -36097,10 +36097,10 @@
         <v>250</v>
       </c>
       <c r="AE306" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AF306" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG306" t="n">
         <v>9.25</v>
@@ -36109,7 +36109,7 @@
         <v>27</v>
       </c>
       <c r="AI306" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ306" t="n">
         <v>22</v>
@@ -36275,19 +36275,19 @@
         <v>3.45</v>
       </c>
       <c r="I308" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="J308" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K308" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="L308" t="n">
         <v>1.27</v>
       </c>
       <c r="M308" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N308" t="n">
         <v>1.8</v>
@@ -36296,7 +36296,7 @@
         <v>1.9</v>
       </c>
       <c r="P308" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q308" t="n">
         <v>2.75</v>
@@ -36308,10 +36308,10 @@
         <v>1.98</v>
       </c>
       <c r="T308" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="U308" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="V308" t="n">
         <v>8</v>
@@ -36323,31 +36323,31 @@
         <v>13.5</v>
       </c>
       <c r="Y308" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z308" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA308" t="n">
         <v>6.9</v>
       </c>
       <c r="AB308" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC308" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD308" t="n">
         <v>450</v>
       </c>
       <c r="AE308" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF308" t="n">
         <v>27</v>
       </c>
       <c r="AG308" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH308" t="n">
         <v>75</v>
@@ -36356,7 +36356,7 @@
         <v>40</v>
       </c>
       <c r="AJ308" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="309">
